--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_22_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_22_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1070586.034639752</v>
+        <v>992939.5163113865</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>16392615.83457437</v>
+        <v>16392615.83457438</v>
       </c>
     </row>
     <row r="9">
@@ -1378,10 +1378,10 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>42.73236457950448</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>48.51540029462364</v>
       </c>
       <c r="G11" t="n">
         <v>48.51540029462364</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>42.73236457950448</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>48.51540029462364</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1451,13 +1451,13 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>48.51540029462364</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>42.83355501059458</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1469,7 +1469,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>42.73236457950448</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,28 +1496,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>48.41420986353356</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
         <v>48.51540029462364</v>
       </c>
-      <c r="U12" t="n">
-        <v>0</v>
-      </c>
-      <c r="V12" t="n">
-        <v>48.51540029462364</v>
-      </c>
-      <c r="W12" t="n">
-        <v>0</v>
-      </c>
       <c r="X12" t="n">
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>48.51540029462364</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1530,61 +1530,61 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>48.51540029462364</v>
       </c>
       <c r="D13" t="n">
+        <v>42.73236457950448</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
         <v>48.51540029462364</v>
       </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>42.73236457950448</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>0</v>
-      </c>
-      <c r="R13" t="n">
-        <v>0</v>
-      </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>48.51540029462364</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>48.51540029462364</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>48.51540029462364</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>42.73236457950448</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1615,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>42.73236457950448</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1624,58 +1624,58 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
         <v>48.51540029462364</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
+      <c r="W14" t="n">
         <v>48.51540029462364</v>
       </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="n">
         <v>48.51540029462364</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1697,16 +1697,16 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>48.51540029462364</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>48.51540029462364</v>
       </c>
       <c r="I15" t="n">
-        <v>48.51540029462364</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,19 +1733,19 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>48.41420986353356</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>48.51540029462364</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>42.73236457950448</v>
+        <v>42.83355501059458</v>
       </c>
       <c r="V15" t="n">
-        <v>48.51540029462364</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>43.96174265608267</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>42.73236457950449</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>48.51540029462364</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>48.51540029462364</v>
       </c>
       <c r="V16" t="n">
         <v>48.51540029462364</v>
@@ -1830,10 +1830,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>48.51540029462364</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>47.28602221804545</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>48.51540029462365</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1855,10 +1855,10 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>48.51540029462365</v>
+        <v>48.51540029462364</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>48.51540029462364</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1897,19 +1897,19 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>48.51540029462364</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>42.73236457950448</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>42.73236457950449</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>48.51540029462365</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1925,16 +1925,16 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>48.51540029462365</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>48.51540029462364</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>48.51540029462364</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1970,22 +1970,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>48.41420986353356</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>48.51540029462365</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>42.83355501059459</v>
+        <v>42.73236457950449</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>48.51540029462364</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>48.51540029462364</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2013,10 +2013,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>48.51540029462364</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>42.73236457950448</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2046,22 +2046,22 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>27.65621884003237</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>48.51540029462365</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>48.51540029462365</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>48.51540029462365</v>
+        <v>48.51540029462364</v>
       </c>
       <c r="V19" t="n">
-        <v>15.07614573947212</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2089,7 +2089,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>48.51540029462365</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -2128,25 +2128,25 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>48.51540029462365</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>42.73236457950452</v>
       </c>
       <c r="T20" t="n">
-        <v>42.73236457950449</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>48.51540029462365</v>
+        <v>48.51540029462367</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>48.51540029462367</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>48.51540029462367</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2162,7 +2162,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>42.83355501059459</v>
+        <v>48.51540029462367</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2207,16 +2207,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>48.41420986353356</v>
+        <v>42.73236457950452</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>48.51540029462367</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>48.51540029462365</v>
+        <v>48.51540029462367</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -2228,7 +2228,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>48.51540029462365</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2241,10 +2241,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>48.51540029462367</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>48.51540029462367</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>48.51540029462365</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>42.73236457950449</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2298,16 +2298,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>48.51540029462365</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>48.51540029462365</v>
+        <v>42.73236457950452</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>48.51540029462367</v>
       </c>
     </row>
     <row r="23">
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>69.02937206709291</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2326,13 +2326,13 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>60.80107091669541</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>69.02937206709291</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>69.02937206709291</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2377,16 +2377,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>69.02937206709291</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>69.02937206709291</v>
+        <v>60.8010709166954</v>
       </c>
       <c r="Y23" t="n">
-        <v>69.02937206709291</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2396,70 +2396,70 @@
         </is>
       </c>
       <c r="B24" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>12.38686105316186</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" t="n">
+        <v>48.41420986353356</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" t="n">
         <v>69.02937206709291</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>0</v>
-      </c>
-      <c r="R24" t="n">
-        <v>0</v>
-      </c>
-      <c r="S24" t="n">
-        <v>60.8010709166954</v>
-      </c>
-      <c r="T24" t="n">
-        <v>69.02937206709291</v>
-      </c>
-      <c r="U24" t="n">
-        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>69.02937206709291</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>69.02937206709291</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>69.02937206709291</v>
       </c>
       <c r="C25" t="n">
-        <v>33.14485207666304</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>60.80107091669541</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2520,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>27.65621884003237</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -2538,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>69.02937206709291</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2608,19 +2608,19 @@
         <v>69.02937206709291</v>
       </c>
       <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
         <v>69.02937206709291</v>
       </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
+      <c r="X26" t="n">
         <v>69.02937206709291</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2636,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>69.02937206709291</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2645,10 +2645,10 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>12.38686105316186</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>60.80107091669541</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2681,10 +2681,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>48.41420986353356</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>69.02937206709291</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>69.02937206709291</v>
@@ -2693,10 +2693,10 @@
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>69.02937206709291</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>69.02937206709291</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -2718,7 +2718,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>69.02937206709291</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2757,13 +2757,13 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>27.65621884003237</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>69.02937206709291</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>69.02937206709291</v>
+        <v>60.8010709166954</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2778,10 +2778,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>69.02937206709291</v>
       </c>
       <c r="Y28" t="n">
-        <v>33.14485207666304</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2791,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>8.775248731120021</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
         <v>69.02937206709291</v>
       </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>8.775248731120021</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>69.02937206709291</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2848,7 +2848,7 @@
         <v>69.02937206709291</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>69.02937206709291</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2870,10 +2870,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>69.02937206709291</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>69.02937206709291</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2885,7 +2885,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>12.38686105316186</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2921,16 +2921,16 @@
         <v>48.41420986353356</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>69.02937206709291</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>69.02937206709291</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>12.38686105316185</v>
+        <v>69.02937206709291</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
@@ -2939,7 +2939,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>69.02937206709291</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>69.02937206709291</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2994,28 +2994,28 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>27.65621884003237</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>69.02937206709291</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>69.02937206709291</v>
+        <v>60.8010709166954</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>33.14485207666303</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>69.02937206709291</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>69.02937206709291</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3031,25 +3031,25 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
         <v>69.02937206709291</v>
       </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>69.02937206709291</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>60.80107091669541</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,7 +3082,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>60.8010709166954</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3094,7 +3094,7 @@
         <v>69.02937206709291</v>
       </c>
       <c r="X32" t="n">
-        <v>69.02937206709291</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3110,7 +3110,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>12.38686105316186</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3119,10 +3119,10 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>69.02937206709291</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>69.02937206709291</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3155,19 +3155,19 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>48.41420986353356</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>69.02937206709291</v>
       </c>
       <c r="T33" t="n">
-        <v>69.02937206709291</v>
+        <v>60.8010709166954</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>69.02937206709291</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -3231,10 +3231,10 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>27.65621884003237</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>69.02937206709291</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>69.02937206709291</v>
@@ -3246,13 +3246,13 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>33.14485207666304</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>69.02937206709291</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>60.80107091669541</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3283,58 +3283,58 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>42.73236457950449</v>
+      </c>
+      <c r="W35" t="n">
         <v>48.51540029462365</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>42.73236457950449</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
+      <c r="X35" t="n">
         <v>48.51540029462365</v>
       </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" t="n">
+      <c r="Y35" t="n">
         <v>48.51540029462365</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>48.51540029462365</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>48.41420986353356</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -3404,10 +3404,10 @@
         <v>42.83355501059459</v>
       </c>
       <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="n">
         <v>48.51540029462365</v>
-      </c>
-      <c r="W36" t="n">
-        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3438,10 +3438,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3480,13 +3480,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>48.51540029462365</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>48.51540029462365</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>48.51540029462365</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3502,76 +3502,76 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
         <v>48.51540029462365</v>
       </c>
-      <c r="C38" t="n">
-        <v>0</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>42.73236457950448</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
         <v>48.51540029462365</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y38" t="n">
         <v>48.51540029462365</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0</v>
-      </c>
-      <c r="W38" t="n">
-        <v>0</v>
-      </c>
-      <c r="X38" t="n">
-        <v>42.73236457950449</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3584,55 +3584,55 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0</v>
+      </c>
+      <c r="S39" t="n">
         <v>48.51540029462365</v>
-      </c>
-      <c r="D39" t="n">
-        <v>0</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" t="n">
-        <v>0</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
-      </c>
-      <c r="P39" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>0</v>
-      </c>
-      <c r="R39" t="n">
-        <v>0</v>
-      </c>
-      <c r="S39" t="n">
-        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>48.51540029462365</v>
@@ -3641,13 +3641,13 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="W39" t="n">
-        <v>48.51540029462365</v>
+        <v>42.73236457950448</v>
       </c>
       <c r="X39" t="n">
-        <v>42.73236457950448</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>15.07614573947212</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3705,25 +3705,25 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>27.65621884003237</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
         <v>48.51540029462365</v>
       </c>
-      <c r="S40" t="n">
+      <c r="V40" t="n">
+        <v>42.73236457950449</v>
+      </c>
+      <c r="W40" t="n">
         <v>48.51540029462365</v>
-      </c>
-      <c r="T40" t="n">
-        <v>48.51540029462365</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
-      </c>
-      <c r="V40" t="n">
-        <v>0</v>
-      </c>
-      <c r="W40" t="n">
-        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3739,73 +3739,73 @@
         </is>
       </c>
       <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>48.51540029462365</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>48.51540029462365</v>
+      </c>
+      <c r="V41" t="n">
+        <v>48.51540029462365</v>
+      </c>
+      <c r="W41" t="n">
         <v>42.73236457950448</v>
       </c>
-      <c r="C41" t="n">
-        <v>0</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>48.51540029462365</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0</v>
-      </c>
-      <c r="W41" t="n">
-        <v>48.51540029462365</v>
-      </c>
       <c r="X41" t="n">
-        <v>48.51540029462365</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3836,7 +3836,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>42.73236457950448</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3881,7 +3881,7 @@
         <v>48.51540029462365</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>42.73236457950448</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
         <v>48.51540029462365</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>48.51540029462365</v>
@@ -3976,70 +3976,70 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
         <v>48.51540029462365</v>
       </c>
-      <c r="C44" t="n">
-        <v>0</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
+        <v>48.51540029462365</v>
+      </c>
+      <c r="V44" t="n">
+        <v>48.51540029462365</v>
+      </c>
+      <c r="W44" t="n">
         <v>42.73236457950448</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" t="n">
-        <v>0</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0</v>
-      </c>
-      <c r="T44" t="n">
-        <v>48.51540029462365</v>
-      </c>
-      <c r="U44" t="n">
-        <v>0</v>
-      </c>
-      <c r="V44" t="n">
-        <v>0</v>
-      </c>
-      <c r="W44" t="n">
-        <v>48.51540029462365</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4055,62 +4055,62 @@
         </is>
       </c>
       <c r="B45" t="n">
+        <v>0</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0</v>
+      </c>
+      <c r="R45" t="n">
+        <v>48.41420986353356</v>
+      </c>
+      <c r="S45" t="n">
         <v>48.51540029462365</v>
       </c>
-      <c r="C45" t="n">
-        <v>0</v>
-      </c>
-      <c r="D45" t="n">
-        <v>0</v>
-      </c>
-      <c r="E45" t="n">
+      <c r="T45" t="n">
         <v>48.51540029462365</v>
       </c>
-      <c r="F45" t="n">
-        <v>42.73236457950448</v>
-      </c>
-      <c r="G45" t="n">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0</v>
-      </c>
-      <c r="L45" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P45" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>0</v>
-      </c>
-      <c r="R45" t="n">
-        <v>0</v>
-      </c>
-      <c r="S45" t="n">
-        <v>0</v>
-      </c>
-      <c r="T45" t="n">
-        <v>0</v>
-      </c>
       <c r="U45" t="n">
         <v>0</v>
       </c>
@@ -4118,13 +4118,13 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>42.83355501059459</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>48.51540029462365</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4143,10 +4143,10 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>48.51540029462365</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>48.51540029462365</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>42.73236457950448</v>
@@ -4191,10 +4191,10 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -5017,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>52.88668686662407</v>
+        <v>145.0561463354404</v>
       </c>
       <c r="C11" t="n">
-        <v>52.88668686662407</v>
+        <v>145.0561463354404</v>
       </c>
       <c r="D11" t="n">
-        <v>52.88668686662407</v>
+        <v>145.0561463354404</v>
       </c>
       <c r="E11" t="n">
-        <v>52.88668686662407</v>
+        <v>101.8921417096783</v>
       </c>
       <c r="F11" t="n">
         <v>52.88668686662407</v>
@@ -5041,25 +5041,25 @@
         <v>3.881232023569891</v>
       </c>
       <c r="J11" t="n">
-        <v>3.881232023569891</v>
+        <v>51.91147831524729</v>
       </c>
       <c r="K11" t="n">
-        <v>3.881232023569891</v>
+        <v>51.91147831524729</v>
       </c>
       <c r="L11" t="n">
-        <v>13.8171863711063</v>
+        <v>61.8474326627837</v>
       </c>
       <c r="M11" t="n">
-        <v>61.8474326627837</v>
+        <v>104.5725337719636</v>
       </c>
       <c r="N11" t="n">
-        <v>109.8776789544611</v>
+        <v>152.602780063641</v>
       </c>
       <c r="O11" t="n">
-        <v>141.8960173028071</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="P11" t="n">
-        <v>146.0313548868172</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="Q11" t="n">
         <v>194.0616011784946</v>
@@ -5074,19 +5074,19 @@
         <v>145.0561463354404</v>
       </c>
       <c r="U11" t="n">
-        <v>101.8921417096783</v>
+        <v>145.0561463354404</v>
       </c>
       <c r="V11" t="n">
-        <v>101.8921417096783</v>
+        <v>145.0561463354404</v>
       </c>
       <c r="W11" t="n">
-        <v>101.8921417096783</v>
+        <v>145.0561463354404</v>
       </c>
       <c r="X11" t="n">
-        <v>52.88668686662407</v>
+        <v>145.0561463354404</v>
       </c>
       <c r="Y11" t="n">
-        <v>52.88668686662407</v>
+        <v>145.0561463354404</v>
       </c>
     </row>
     <row r="12">
@@ -5096,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>47.045236649332</v>
+        <v>96.15290404904285</v>
       </c>
       <c r="C12" t="n">
-        <v>47.045236649332</v>
+        <v>47.14744920598866</v>
       </c>
       <c r="D12" t="n">
-        <v>47.045236649332</v>
+        <v>47.14744920598866</v>
       </c>
       <c r="E12" t="n">
-        <v>47.045236649332</v>
+        <v>3.881232023569891</v>
       </c>
       <c r="F12" t="n">
-        <v>47.045236649332</v>
+        <v>3.881232023569891</v>
       </c>
       <c r="G12" t="n">
-        <v>47.045236649332</v>
+        <v>3.881232023569891</v>
       </c>
       <c r="H12" t="n">
-        <v>47.045236649332</v>
+        <v>3.881232023569891</v>
       </c>
       <c r="I12" t="n">
         <v>3.881232023569891</v>
@@ -5135,7 +5135,7 @@
         <v>141.9161804606818</v>
       </c>
       <c r="O12" t="n">
-        <v>169.1457011422857</v>
+        <v>189.9464267523592</v>
       </c>
       <c r="P12" t="n">
         <v>194.0616011784946</v>
@@ -5144,28 +5144,28 @@
         <v>194.0616011784946</v>
       </c>
       <c r="R12" t="n">
-        <v>194.0616011784946</v>
+        <v>145.158358892097</v>
       </c>
       <c r="S12" t="n">
-        <v>194.0616011784946</v>
+        <v>145.158358892097</v>
       </c>
       <c r="T12" t="n">
-        <v>145.0561463354404</v>
+        <v>145.158358892097</v>
       </c>
       <c r="U12" t="n">
-        <v>145.0561463354404</v>
+        <v>145.158358892097</v>
       </c>
       <c r="V12" t="n">
-        <v>96.05069149238618</v>
+        <v>145.158358892097</v>
       </c>
       <c r="W12" t="n">
-        <v>96.05069149238618</v>
+        <v>96.15290404904285</v>
       </c>
       <c r="X12" t="n">
-        <v>96.05069149238618</v>
+        <v>96.15290404904285</v>
       </c>
       <c r="Y12" t="n">
-        <v>47.045236649332</v>
+        <v>96.15290404904285</v>
       </c>
     </row>
     <row r="13">
@@ -5178,22 +5178,22 @@
         <v>96.05069149238618</v>
       </c>
       <c r="C13" t="n">
-        <v>96.05069149238618</v>
+        <v>47.045236649332</v>
       </c>
       <c r="D13" t="n">
-        <v>47.045236649332</v>
+        <v>3.881232023569891</v>
       </c>
       <c r="E13" t="n">
-        <v>47.045236649332</v>
+        <v>3.881232023569891</v>
       </c>
       <c r="F13" t="n">
-        <v>47.045236649332</v>
+        <v>3.881232023569891</v>
       </c>
       <c r="G13" t="n">
-        <v>47.045236649332</v>
+        <v>3.881232023569891</v>
       </c>
       <c r="H13" t="n">
-        <v>47.045236649332</v>
+        <v>3.881232023569891</v>
       </c>
       <c r="I13" t="n">
         <v>3.881232023569891</v>
@@ -5202,16 +5202,16 @@
         <v>3.881232023569891</v>
       </c>
       <c r="K13" t="n">
-        <v>3.881232023569891</v>
+        <v>51.91147831524729</v>
       </c>
       <c r="L13" t="n">
-        <v>49.97086230346235</v>
+        <v>51.91147831524729</v>
       </c>
       <c r="M13" t="n">
-        <v>98.00110859513975</v>
+        <v>51.91147831524729</v>
       </c>
       <c r="N13" t="n">
-        <v>98.00110859513975</v>
+        <v>99.94172460692469</v>
       </c>
       <c r="O13" t="n">
         <v>146.0313548868172</v>
@@ -5223,25 +5223,25 @@
         <v>194.0616011784946</v>
       </c>
       <c r="R13" t="n">
-        <v>194.0616011784946</v>
+        <v>145.0561463354404</v>
       </c>
       <c r="S13" t="n">
-        <v>194.0616011784946</v>
+        <v>96.05069149238618</v>
       </c>
       <c r="T13" t="n">
-        <v>194.0616011784946</v>
+        <v>96.05069149238618</v>
       </c>
       <c r="U13" t="n">
-        <v>145.0561463354404</v>
+        <v>96.05069149238618</v>
       </c>
       <c r="V13" t="n">
-        <v>145.0561463354404</v>
+        <v>96.05069149238618</v>
       </c>
       <c r="W13" t="n">
-        <v>145.0561463354404</v>
+        <v>96.05069149238618</v>
       </c>
       <c r="X13" t="n">
-        <v>145.0561463354404</v>
+        <v>96.05069149238618</v>
       </c>
       <c r="Y13" t="n">
         <v>96.05069149238618</v>
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>96.05069149238618</v>
+        <v>3.881232023569891</v>
       </c>
       <c r="C14" t="n">
-        <v>96.05069149238618</v>
+        <v>3.881232023569891</v>
       </c>
       <c r="D14" t="n">
-        <v>96.05069149238618</v>
+        <v>3.881232023569891</v>
       </c>
       <c r="E14" t="n">
-        <v>52.88668686662407</v>
+        <v>3.881232023569891</v>
       </c>
       <c r="F14" t="n">
-        <v>52.88668686662407</v>
+        <v>3.881232023569891</v>
       </c>
       <c r="G14" t="n">
-        <v>52.88668686662407</v>
+        <v>3.881232023569891</v>
       </c>
       <c r="H14" t="n">
         <v>3.881232023569891</v>
@@ -5281,16 +5281,16 @@
         <v>3.881232023569891</v>
       </c>
       <c r="K14" t="n">
+        <v>3.881232023569891</v>
+      </c>
+      <c r="L14" t="n">
         <v>51.91147831524729</v>
       </c>
-      <c r="L14" t="n">
-        <v>65.98277024679373</v>
-      </c>
       <c r="M14" t="n">
-        <v>114.0130165384711</v>
+        <v>98.00110859513975</v>
       </c>
       <c r="N14" t="n">
-        <v>162.0432628301485</v>
+        <v>146.0313548868172</v>
       </c>
       <c r="O14" t="n">
         <v>194.0616011784946</v>
@@ -5302,19 +5302,19 @@
         <v>194.0616011784946</v>
       </c>
       <c r="R14" t="n">
+        <v>194.0616011784946</v>
+      </c>
+      <c r="S14" t="n">
+        <v>194.0616011784946</v>
+      </c>
+      <c r="T14" t="n">
+        <v>194.0616011784946</v>
+      </c>
+      <c r="U14" t="n">
+        <v>194.0616011784946</v>
+      </c>
+      <c r="V14" t="n">
         <v>145.0561463354404</v>
-      </c>
-      <c r="S14" t="n">
-        <v>145.0561463354404</v>
-      </c>
-      <c r="T14" t="n">
-        <v>145.0561463354404</v>
-      </c>
-      <c r="U14" t="n">
-        <v>96.05069149238618</v>
-      </c>
-      <c r="V14" t="n">
-        <v>96.05069149238618</v>
       </c>
       <c r="W14" t="n">
         <v>96.05069149238618</v>
@@ -5323,7 +5323,7 @@
         <v>96.05069149238618</v>
       </c>
       <c r="Y14" t="n">
-        <v>96.05069149238618</v>
+        <v>47.045236649332</v>
       </c>
     </row>
     <row r="15">
@@ -5333,16 +5333,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>52.88668686662407</v>
+        <v>101.8921417096783</v>
       </c>
       <c r="C15" t="n">
-        <v>52.88668686662407</v>
+        <v>101.8921417096783</v>
       </c>
       <c r="D15" t="n">
-        <v>52.88668686662407</v>
+        <v>101.8921417096783</v>
       </c>
       <c r="E15" t="n">
-        <v>52.88668686662407</v>
+        <v>101.8921417096783</v>
       </c>
       <c r="F15" t="n">
         <v>52.88668686662407</v>
@@ -5351,7 +5351,7 @@
         <v>52.88668686662407</v>
       </c>
       <c r="H15" t="n">
-        <v>52.88668686662407</v>
+        <v>3.881232023569891</v>
       </c>
       <c r="I15" t="n">
         <v>3.881232023569891</v>
@@ -5366,7 +5366,7 @@
         <v>45.85568787732696</v>
       </c>
       <c r="M15" t="n">
-        <v>73.08520855893087</v>
+        <v>93.88593416900437</v>
       </c>
       <c r="N15" t="n">
         <v>121.1154548506083</v>
@@ -5381,28 +5381,28 @@
         <v>194.0616011784946</v>
       </c>
       <c r="R15" t="n">
-        <v>194.0616011784946</v>
+        <v>145.158358892097</v>
       </c>
       <c r="S15" t="n">
-        <v>194.0616011784946</v>
+        <v>145.158358892097</v>
       </c>
       <c r="T15" t="n">
-        <v>145.0561463354404</v>
+        <v>145.158358892097</v>
       </c>
       <c r="U15" t="n">
         <v>101.8921417096783</v>
       </c>
       <c r="V15" t="n">
-        <v>52.88668686662407</v>
+        <v>101.8921417096783</v>
       </c>
       <c r="W15" t="n">
-        <v>52.88668686662407</v>
+        <v>101.8921417096783</v>
       </c>
       <c r="X15" t="n">
-        <v>52.88668686662407</v>
+        <v>101.8921417096783</v>
       </c>
       <c r="Y15" t="n">
-        <v>52.88668686662407</v>
+        <v>101.8921417096783</v>
       </c>
     </row>
     <row r="16">
@@ -5412,43 +5412,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>48.28703268627967</v>
+        <v>3.881232023569891</v>
       </c>
       <c r="C16" t="n">
-        <v>48.28703268627967</v>
+        <v>3.881232023569891</v>
       </c>
       <c r="D16" t="n">
-        <v>48.28703268627967</v>
+        <v>3.881232023569891</v>
       </c>
       <c r="E16" t="n">
-        <v>48.28703268627967</v>
+        <v>3.881232023569891</v>
       </c>
       <c r="F16" t="n">
-        <v>48.28703268627967</v>
+        <v>3.881232023569891</v>
       </c>
       <c r="G16" t="n">
-        <v>48.28703268627967</v>
+        <v>3.881232023569891</v>
       </c>
       <c r="H16" t="n">
-        <v>48.28703268627967</v>
+        <v>3.881232023569891</v>
       </c>
       <c r="I16" t="n">
-        <v>48.28703268627967</v>
+        <v>3.881232023569891</v>
       </c>
       <c r="J16" t="n">
         <v>3.881232023569891</v>
       </c>
       <c r="K16" t="n">
-        <v>3.881232023569891</v>
+        <v>51.91147831524729</v>
       </c>
       <c r="L16" t="n">
-        <v>3.881232023569891</v>
+        <v>98.00110859513975</v>
       </c>
       <c r="M16" t="n">
-        <v>49.97086230346235</v>
+        <v>146.0313548868172</v>
       </c>
       <c r="N16" t="n">
-        <v>98.00110859513975</v>
+        <v>146.0313548868172</v>
       </c>
       <c r="O16" t="n">
         <v>146.0313548868172</v>
@@ -5460,28 +5460,28 @@
         <v>194.0616011784946</v>
       </c>
       <c r="R16" t="n">
-        <v>194.0616011784946</v>
+        <v>150.8975965527324</v>
       </c>
       <c r="S16" t="n">
-        <v>194.0616011784946</v>
+        <v>150.8975965527324</v>
       </c>
       <c r="T16" t="n">
-        <v>194.0616011784946</v>
+        <v>101.8921417096783</v>
       </c>
       <c r="U16" t="n">
-        <v>194.0616011784946</v>
+        <v>52.88668686662407</v>
       </c>
       <c r="V16" t="n">
-        <v>145.0561463354404</v>
+        <v>3.881232023569891</v>
       </c>
       <c r="W16" t="n">
-        <v>145.0561463354404</v>
+        <v>3.881232023569891</v>
       </c>
       <c r="X16" t="n">
-        <v>96.05069149238618</v>
+        <v>3.881232023569891</v>
       </c>
       <c r="Y16" t="n">
-        <v>48.28703268627967</v>
+        <v>3.881232023569891</v>
       </c>
     </row>
     <row r="17">
@@ -5494,40 +5494,40 @@
         <v>101.8921417096783</v>
       </c>
       <c r="C17" t="n">
-        <v>52.88668686662408</v>
+        <v>101.8921417096783</v>
       </c>
       <c r="D17" t="n">
-        <v>52.88668686662408</v>
+        <v>101.8921417096783</v>
       </c>
       <c r="E17" t="n">
-        <v>52.88668686662408</v>
+        <v>101.8921417096783</v>
       </c>
       <c r="F17" t="n">
-        <v>3.881232023569892</v>
+        <v>52.88668686662407</v>
       </c>
       <c r="G17" t="n">
-        <v>3.881232023569892</v>
+        <v>3.881232023569891</v>
       </c>
       <c r="H17" t="n">
-        <v>3.881232023569892</v>
+        <v>3.881232023569891</v>
       </c>
       <c r="I17" t="n">
-        <v>3.881232023569892</v>
+        <v>3.881232023569891</v>
       </c>
       <c r="J17" t="n">
-        <v>23.25766913761384</v>
+        <v>3.881232023569891</v>
       </c>
       <c r="K17" t="n">
-        <v>23.25766913761384</v>
+        <v>3.881232023569891</v>
       </c>
       <c r="L17" t="n">
-        <v>71.28791542929125</v>
+        <v>51.91147831524729</v>
       </c>
       <c r="M17" t="n">
-        <v>114.0130165384712</v>
+        <v>99.94172460692469</v>
       </c>
       <c r="N17" t="n">
-        <v>162.0432628301486</v>
+        <v>147.9719708986021</v>
       </c>
       <c r="O17" t="n">
         <v>194.0616011784946</v>
@@ -5545,16 +5545,16 @@
         <v>194.0616011784946</v>
       </c>
       <c r="T17" t="n">
-        <v>194.0616011784946</v>
+        <v>145.0561463354404</v>
       </c>
       <c r="U17" t="n">
-        <v>194.0616011784946</v>
+        <v>101.8921417096783</v>
       </c>
       <c r="V17" t="n">
-        <v>194.0616011784946</v>
+        <v>101.8921417096783</v>
       </c>
       <c r="W17" t="n">
-        <v>150.8975965527325</v>
+        <v>101.8921417096783</v>
       </c>
       <c r="X17" t="n">
         <v>101.8921417096783</v>
@@ -5570,34 +5570,34 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>52.88668686662408</v>
+        <v>101.8921417096783</v>
       </c>
       <c r="C18" t="n">
-        <v>3.881232023569892</v>
+        <v>101.8921417096783</v>
       </c>
       <c r="D18" t="n">
-        <v>3.881232023569892</v>
+        <v>52.88668686662407</v>
       </c>
       <c r="E18" t="n">
-        <v>3.881232023569892</v>
+        <v>52.88668686662407</v>
       </c>
       <c r="F18" t="n">
-        <v>3.881232023569892</v>
+        <v>3.881232023569891</v>
       </c>
       <c r="G18" t="n">
-        <v>3.881232023569892</v>
+        <v>3.881232023569891</v>
       </c>
       <c r="H18" t="n">
-        <v>3.881232023569892</v>
+        <v>3.881232023569891</v>
       </c>
       <c r="I18" t="n">
-        <v>3.881232023569892</v>
+        <v>3.881232023569891</v>
       </c>
       <c r="J18" t="n">
-        <v>3.881232023569892</v>
+        <v>3.881232023569891</v>
       </c>
       <c r="K18" t="n">
-        <v>3.881232023569892</v>
+        <v>3.881232023569891</v>
       </c>
       <c r="L18" t="n">
         <v>45.85568787732696</v>
@@ -5606,7 +5606,7 @@
         <v>93.88593416900437</v>
       </c>
       <c r="N18" t="n">
-        <v>121.1154548506083</v>
+        <v>141.9161804606818</v>
       </c>
       <c r="O18" t="n">
         <v>169.1457011422857</v>
@@ -5618,28 +5618,28 @@
         <v>194.0616011784946</v>
       </c>
       <c r="R18" t="n">
-        <v>145.1583588920971</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="S18" t="n">
-        <v>145.1583588920971</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="T18" t="n">
-        <v>96.15290404904286</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="U18" t="n">
-        <v>52.88668686662408</v>
+        <v>150.8975965527324</v>
       </c>
       <c r="V18" t="n">
-        <v>52.88668686662408</v>
+        <v>150.8975965527324</v>
       </c>
       <c r="W18" t="n">
-        <v>52.88668686662408</v>
+        <v>101.8921417096783</v>
       </c>
       <c r="X18" t="n">
-        <v>52.88668686662408</v>
+        <v>101.8921417096783</v>
       </c>
       <c r="Y18" t="n">
-        <v>52.88668686662408</v>
+        <v>101.8921417096783</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3.881232023569892</v>
+        <v>96.05069149238618</v>
       </c>
       <c r="C19" t="n">
-        <v>3.881232023569892</v>
+        <v>96.05069149238618</v>
       </c>
       <c r="D19" t="n">
-        <v>3.881232023569892</v>
+        <v>96.05069149238618</v>
       </c>
       <c r="E19" t="n">
-        <v>3.881232023569892</v>
+        <v>96.05069149238618</v>
       </c>
       <c r="F19" t="n">
-        <v>3.881232023569892</v>
+        <v>47.045236649332</v>
       </c>
       <c r="G19" t="n">
-        <v>3.881232023569892</v>
+        <v>3.881232023569891</v>
       </c>
       <c r="H19" t="n">
-        <v>3.881232023569892</v>
+        <v>3.881232023569891</v>
       </c>
       <c r="I19" t="n">
-        <v>3.881232023569892</v>
+        <v>3.881232023569891</v>
       </c>
       <c r="J19" t="n">
-        <v>3.881232023569892</v>
+        <v>3.881232023569891</v>
       </c>
       <c r="K19" t="n">
-        <v>51.9114783152473</v>
+        <v>51.91147831524729</v>
       </c>
       <c r="L19" t="n">
-        <v>51.9114783152473</v>
+        <v>99.94172460692469</v>
       </c>
       <c r="M19" t="n">
-        <v>98.00110859513978</v>
+        <v>147.9719708986021</v>
       </c>
       <c r="N19" t="n">
-        <v>146.0313548868172</v>
+        <v>147.9719708986021</v>
       </c>
       <c r="O19" t="n">
-        <v>194.0616011784946</v>
+        <v>147.9719708986021</v>
       </c>
       <c r="P19" t="n">
         <v>194.0616011784946</v>
       </c>
       <c r="Q19" t="n">
-        <v>166.1260265926033</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="R19" t="n">
-        <v>117.1205717495491</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="S19" t="n">
-        <v>117.1205717495491</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="T19" t="n">
-        <v>68.1151169064949</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="U19" t="n">
-        <v>19.10966206344072</v>
+        <v>145.0561463354404</v>
       </c>
       <c r="V19" t="n">
-        <v>3.881232023569892</v>
+        <v>145.0561463354404</v>
       </c>
       <c r="W19" t="n">
-        <v>3.881232023569892</v>
+        <v>145.0561463354404</v>
       </c>
       <c r="X19" t="n">
-        <v>3.881232023569892</v>
+        <v>145.0561463354404</v>
       </c>
       <c r="Y19" t="n">
-        <v>3.881232023569892</v>
+        <v>145.0561463354404</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>52.88668686662408</v>
+        <v>3.881232023569893</v>
       </c>
       <c r="C20" t="n">
-        <v>52.88668686662408</v>
+        <v>3.881232023569893</v>
       </c>
       <c r="D20" t="n">
-        <v>52.88668686662408</v>
+        <v>3.881232023569893</v>
       </c>
       <c r="E20" t="n">
-        <v>3.881232023569892</v>
+        <v>3.881232023569893</v>
       </c>
       <c r="F20" t="n">
-        <v>3.881232023569892</v>
+        <v>3.881232023569893</v>
       </c>
       <c r="G20" t="n">
-        <v>3.881232023569892</v>
+        <v>3.881232023569893</v>
       </c>
       <c r="H20" t="n">
-        <v>3.881232023569892</v>
+        <v>3.881232023569893</v>
       </c>
       <c r="I20" t="n">
-        <v>3.881232023569892</v>
+        <v>3.881232023569893</v>
       </c>
       <c r="J20" t="n">
-        <v>3.881232023569892</v>
+        <v>3.881232023569893</v>
       </c>
       <c r="K20" t="n">
-        <v>3.881232023569892</v>
+        <v>3.881232023569893</v>
       </c>
       <c r="L20" t="n">
-        <v>51.9114783152473</v>
+        <v>13.8171863711063</v>
       </c>
       <c r="M20" t="n">
-        <v>94.63657942442725</v>
+        <v>56.54228748028625</v>
       </c>
       <c r="N20" t="n">
-        <v>142.6668257161047</v>
+        <v>104.5725337719637</v>
       </c>
       <c r="O20" t="n">
-        <v>174.6851640644506</v>
+        <v>136.5908721203097</v>
       </c>
       <c r="P20" t="n">
-        <v>174.6851640644506</v>
+        <v>184.6211184119871</v>
       </c>
       <c r="Q20" t="n">
-        <v>194.0616011784946</v>
+        <v>194.0616011784947</v>
       </c>
       <c r="R20" t="n">
-        <v>145.0561463354404</v>
+        <v>194.0616011784947</v>
       </c>
       <c r="S20" t="n">
-        <v>145.0561463354404</v>
+        <v>150.8975965527325</v>
       </c>
       <c r="T20" t="n">
+        <v>150.8975965527325</v>
+      </c>
+      <c r="U20" t="n">
         <v>101.8921417096783</v>
       </c>
-      <c r="U20" t="n">
-        <v>52.88668686662408</v>
-      </c>
       <c r="V20" t="n">
-        <v>52.88668686662408</v>
+        <v>52.8866868666241</v>
       </c>
       <c r="W20" t="n">
-        <v>52.88668686662408</v>
+        <v>52.8866868666241</v>
       </c>
       <c r="X20" t="n">
-        <v>52.88668686662408</v>
+        <v>3.881232023569893</v>
       </c>
       <c r="Y20" t="n">
-        <v>52.88668686662408</v>
+        <v>3.881232023569893</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>47.14744920598867</v>
+        <v>52.8866868666241</v>
       </c>
       <c r="C21" t="n">
-        <v>3.881232023569892</v>
+        <v>3.881232023569893</v>
       </c>
       <c r="D21" t="n">
-        <v>3.881232023569892</v>
+        <v>3.881232023569893</v>
       </c>
       <c r="E21" t="n">
-        <v>3.881232023569892</v>
+        <v>3.881232023569893</v>
       </c>
       <c r="F21" t="n">
-        <v>3.881232023569892</v>
+        <v>3.881232023569893</v>
       </c>
       <c r="G21" t="n">
-        <v>3.881232023569892</v>
+        <v>3.881232023569893</v>
       </c>
       <c r="H21" t="n">
-        <v>3.881232023569892</v>
+        <v>3.881232023569893</v>
       </c>
       <c r="I21" t="n">
-        <v>3.881232023569892</v>
+        <v>3.881232023569893</v>
       </c>
       <c r="J21" t="n">
-        <v>3.881232023569892</v>
+        <v>3.881232023569893</v>
       </c>
       <c r="K21" t="n">
-        <v>3.881232023569892</v>
+        <v>3.881232023569893</v>
       </c>
       <c r="L21" t="n">
-        <v>25.05496226725349</v>
+        <v>45.85568787732696</v>
       </c>
       <c r="M21" t="n">
-        <v>73.0852085589309</v>
+        <v>93.8859341690044</v>
       </c>
       <c r="N21" t="n">
-        <v>121.1154548506083</v>
+        <v>121.1154548506084</v>
       </c>
       <c r="O21" t="n">
-        <v>169.1457011422857</v>
+        <v>169.1457011422858</v>
       </c>
       <c r="P21" t="n">
-        <v>194.0616011784946</v>
+        <v>194.0616011784947</v>
       </c>
       <c r="Q21" t="n">
-        <v>194.0616011784946</v>
+        <v>194.0616011784947</v>
       </c>
       <c r="R21" t="n">
-        <v>145.1583588920971</v>
+        <v>150.8975965527325</v>
       </c>
       <c r="S21" t="n">
-        <v>145.1583588920971</v>
+        <v>101.8921417096783</v>
       </c>
       <c r="T21" t="n">
-        <v>145.1583588920971</v>
+        <v>101.8921417096783</v>
       </c>
       <c r="U21" t="n">
-        <v>96.15290404904286</v>
+        <v>52.8866868666241</v>
       </c>
       <c r="V21" t="n">
-        <v>96.15290404904286</v>
+        <v>52.8866868666241</v>
       </c>
       <c r="W21" t="n">
-        <v>96.15290404904286</v>
+        <v>52.8866868666241</v>
       </c>
       <c r="X21" t="n">
-        <v>96.15290404904286</v>
+        <v>52.8866868666241</v>
       </c>
       <c r="Y21" t="n">
-        <v>47.14744920598867</v>
+        <v>52.8866868666241</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3.881232023569892</v>
+        <v>101.8921417096783</v>
       </c>
       <c r="C22" t="n">
-        <v>3.881232023569892</v>
+        <v>52.8866868666241</v>
       </c>
       <c r="D22" t="n">
-        <v>3.881232023569892</v>
+        <v>3.881232023569893</v>
       </c>
       <c r="E22" t="n">
-        <v>3.881232023569892</v>
+        <v>3.881232023569893</v>
       </c>
       <c r="F22" t="n">
-        <v>3.881232023569892</v>
+        <v>3.881232023569893</v>
       </c>
       <c r="G22" t="n">
-        <v>3.881232023569892</v>
+        <v>3.881232023569893</v>
       </c>
       <c r="H22" t="n">
-        <v>3.881232023569892</v>
+        <v>3.881232023569893</v>
       </c>
       <c r="I22" t="n">
-        <v>3.881232023569892</v>
+        <v>3.881232023569893</v>
       </c>
       <c r="J22" t="n">
-        <v>3.881232023569892</v>
+        <v>3.881232023569893</v>
       </c>
       <c r="K22" t="n">
-        <v>51.9114783152473</v>
+        <v>51.91147831524732</v>
       </c>
       <c r="L22" t="n">
-        <v>98.00110859513978</v>
+        <v>99.94172460692475</v>
       </c>
       <c r="M22" t="n">
         <v>146.0313548868172</v>
       </c>
       <c r="N22" t="n">
-        <v>194.0616011784946</v>
+        <v>146.0313548868172</v>
       </c>
       <c r="O22" t="n">
-        <v>194.0616011784946</v>
+        <v>146.0313548868172</v>
       </c>
       <c r="P22" t="n">
-        <v>194.0616011784946</v>
+        <v>194.0616011784947</v>
       </c>
       <c r="Q22" t="n">
-        <v>194.0616011784946</v>
+        <v>194.0616011784947</v>
       </c>
       <c r="R22" t="n">
-        <v>145.0561463354404</v>
+        <v>194.0616011784947</v>
       </c>
       <c r="S22" t="n">
+        <v>194.0616011784947</v>
+      </c>
+      <c r="T22" t="n">
+        <v>194.0616011784947</v>
+      </c>
+      <c r="U22" t="n">
+        <v>194.0616011784947</v>
+      </c>
+      <c r="V22" t="n">
+        <v>194.0616011784947</v>
+      </c>
+      <c r="W22" t="n">
+        <v>150.8975965527325</v>
+      </c>
+      <c r="X22" t="n">
+        <v>150.8975965527325</v>
+      </c>
+      <c r="Y22" t="n">
         <v>101.8921417096783</v>
-      </c>
-      <c r="T22" t="n">
-        <v>101.8921417096783</v>
-      </c>
-      <c r="U22" t="n">
-        <v>101.8921417096783</v>
-      </c>
-      <c r="V22" t="n">
-        <v>52.88668686662408</v>
-      </c>
-      <c r="W22" t="n">
-        <v>3.881232023569892</v>
-      </c>
-      <c r="X22" t="n">
-        <v>3.881232023569892</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>3.881232023569892</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>66.93757291354461</v>
+        <v>144.9756266685854</v>
       </c>
       <c r="C23" t="n">
-        <v>66.93757291354461</v>
+        <v>144.9756266685854</v>
       </c>
       <c r="D23" t="n">
-        <v>66.93757291354461</v>
+        <v>144.9756266685854</v>
       </c>
       <c r="E23" t="n">
-        <v>5.522349765367433</v>
+        <v>144.9756266685854</v>
       </c>
       <c r="F23" t="n">
-        <v>5.522349765367433</v>
+        <v>75.24898821697644</v>
       </c>
       <c r="G23" t="n">
         <v>5.522349765367433</v>
@@ -5992,22 +5992,22 @@
         <v>5.522349765367433</v>
       </c>
       <c r="K23" t="n">
-        <v>73.86142811178941</v>
+        <v>5.522349765367433</v>
       </c>
       <c r="L23" t="n">
-        <v>83.79738245932582</v>
+        <v>15.45830411290384</v>
       </c>
       <c r="M23" t="n">
-        <v>126.5224835685058</v>
+        <v>58.18340522208379</v>
       </c>
       <c r="N23" t="n">
-        <v>175.7600715736037</v>
+        <v>106.2136515137612</v>
       </c>
       <c r="O23" t="n">
+        <v>139.4393315755277</v>
+      </c>
+      <c r="P23" t="n">
         <v>207.7784099219497</v>
-      </c>
-      <c r="P23" t="n">
-        <v>276.1174882683716</v>
       </c>
       <c r="Q23" t="n">
         <v>276.1174882683716</v>
@@ -6025,16 +6025,16 @@
         <v>276.1174882683716</v>
       </c>
       <c r="V23" t="n">
-        <v>206.3908498167626</v>
+        <v>276.1174882683716</v>
       </c>
       <c r="W23" t="n">
-        <v>206.3908498167626</v>
+        <v>276.1174882683716</v>
       </c>
       <c r="X23" t="n">
-        <v>136.6642113651536</v>
+        <v>214.7022651201945</v>
       </c>
       <c r="Y23" t="n">
-        <v>66.93757291354461</v>
+        <v>214.7022651201945</v>
       </c>
     </row>
     <row r="24">
@@ -6044,16 +6044,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>5.522349765367433</v>
+        <v>18.03433062714709</v>
       </c>
       <c r="C24" t="n">
-        <v>5.522349765367433</v>
+        <v>18.03433062714709</v>
       </c>
       <c r="D24" t="n">
-        <v>5.522349765367433</v>
+        <v>18.03433062714709</v>
       </c>
       <c r="E24" t="n">
-        <v>5.522349765367433</v>
+        <v>18.03433062714709</v>
       </c>
       <c r="F24" t="n">
         <v>5.522349765367433</v>
@@ -6068,10 +6068,10 @@
         <v>5.522349765367433</v>
       </c>
       <c r="J24" t="n">
-        <v>5.522349765367433</v>
+        <v>17.41613371387393</v>
       </c>
       <c r="K24" t="n">
-        <v>5.522349765367433</v>
+        <v>17.41613371387393</v>
       </c>
       <c r="L24" t="n">
         <v>59.390589567631</v>
@@ -6092,28 +6092,28 @@
         <v>276.1174882683716</v>
       </c>
       <c r="R24" t="n">
-        <v>276.1174882683716</v>
+        <v>227.2142459819741</v>
       </c>
       <c r="S24" t="n">
-        <v>214.7022651201945</v>
+        <v>227.2142459819741</v>
       </c>
       <c r="T24" t="n">
-        <v>144.9756266685854</v>
+        <v>227.2142459819741</v>
       </c>
       <c r="U24" t="n">
-        <v>144.9756266685854</v>
+        <v>157.4876075303651</v>
       </c>
       <c r="V24" t="n">
-        <v>75.24898821697644</v>
+        <v>87.76096907875609</v>
       </c>
       <c r="W24" t="n">
-        <v>75.24898821697644</v>
+        <v>18.03433062714709</v>
       </c>
       <c r="X24" t="n">
-        <v>75.24898821697644</v>
+        <v>18.03433062714709</v>
       </c>
       <c r="Y24" t="n">
-        <v>75.24898821697644</v>
+        <v>18.03433062714709</v>
       </c>
     </row>
     <row r="25">
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>39.00199832765333</v>
+        <v>66.93757291354461</v>
       </c>
       <c r="C25" t="n">
-        <v>5.522349765367433</v>
+        <v>66.93757291354461</v>
       </c>
       <c r="D25" t="n">
-        <v>5.522349765367433</v>
+        <v>66.93757291354461</v>
       </c>
       <c r="E25" t="n">
-        <v>5.522349765367433</v>
+        <v>66.93757291354461</v>
       </c>
       <c r="F25" t="n">
         <v>5.522349765367433</v>
@@ -6153,46 +6153,46 @@
         <v>5.522349765367433</v>
       </c>
       <c r="L25" t="n">
-        <v>5.522349765367433</v>
+        <v>73.86142811178941</v>
       </c>
       <c r="M25" t="n">
         <v>73.86142811178941</v>
       </c>
       <c r="N25" t="n">
-        <v>142.2005064582114</v>
+        <v>139.4393315755277</v>
       </c>
       <c r="O25" t="n">
-        <v>210.5395848046334</v>
+        <v>207.7784099219497</v>
       </c>
       <c r="P25" t="n">
         <v>276.1174882683716</v>
       </c>
       <c r="Q25" t="n">
-        <v>248.1819136824803</v>
+        <v>276.1174882683716</v>
       </c>
       <c r="R25" t="n">
-        <v>248.1819136824803</v>
+        <v>276.1174882683716</v>
       </c>
       <c r="S25" t="n">
-        <v>178.4552752308713</v>
+        <v>206.3908498167626</v>
       </c>
       <c r="T25" t="n">
-        <v>108.7286367792623</v>
+        <v>136.6642113651536</v>
       </c>
       <c r="U25" t="n">
-        <v>108.7286367792623</v>
+        <v>136.6642113651536</v>
       </c>
       <c r="V25" t="n">
-        <v>108.7286367792623</v>
+        <v>136.6642113651536</v>
       </c>
       <c r="W25" t="n">
-        <v>39.00199832765333</v>
+        <v>136.6642113651536</v>
       </c>
       <c r="X25" t="n">
-        <v>39.00199832765333</v>
+        <v>136.6642113651536</v>
       </c>
       <c r="Y25" t="n">
-        <v>39.00199832765333</v>
+        <v>136.6642113651536</v>
       </c>
     </row>
     <row r="26">
@@ -6232,19 +6232,19 @@
         <v>73.86142811178941</v>
       </c>
       <c r="L26" t="n">
-        <v>83.79738245932582</v>
+        <v>142.2005064582114</v>
       </c>
       <c r="M26" t="n">
-        <v>126.5224835685058</v>
+        <v>184.9256075673913</v>
       </c>
       <c r="N26" t="n">
-        <v>174.5527298601832</v>
+        <v>244.0991499200256</v>
       </c>
       <c r="O26" t="n">
-        <v>206.5710682085292</v>
+        <v>276.1174882683716</v>
       </c>
       <c r="P26" t="n">
-        <v>274.9101465549512</v>
+        <v>276.1174882683716</v>
       </c>
       <c r="Q26" t="n">
         <v>276.1174882683716</v>
@@ -6256,16 +6256,16 @@
         <v>206.3908498167626</v>
       </c>
       <c r="T26" t="n">
+        <v>206.3908498167626</v>
+      </c>
+      <c r="U26" t="n">
+        <v>206.3908498167626</v>
+      </c>
+      <c r="V26" t="n">
+        <v>206.3908498167626</v>
+      </c>
+      <c r="W26" t="n">
         <v>136.6642113651536</v>
-      </c>
-      <c r="U26" t="n">
-        <v>136.6642113651536</v>
-      </c>
-      <c r="V26" t="n">
-        <v>66.93757291354461</v>
-      </c>
-      <c r="W26" t="n">
-        <v>66.93757291354461</v>
       </c>
       <c r="X26" t="n">
         <v>66.93757291354461</v>
@@ -6281,19 +6281,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>87.76096907875609</v>
+        <v>66.93757291354461</v>
       </c>
       <c r="C27" t="n">
-        <v>18.03433062714709</v>
+        <v>66.93757291354461</v>
       </c>
       <c r="D27" t="n">
-        <v>18.03433062714709</v>
+        <v>66.93757291354461</v>
       </c>
       <c r="E27" t="n">
-        <v>18.03433062714709</v>
+        <v>66.93757291354461</v>
       </c>
       <c r="F27" t="n">
-        <v>5.522349765367433</v>
+        <v>66.93757291354461</v>
       </c>
       <c r="G27" t="n">
         <v>5.522349765367433</v>
@@ -6329,28 +6329,28 @@
         <v>276.1174882683716</v>
       </c>
       <c r="R27" t="n">
-        <v>227.2142459819741</v>
+        <v>276.1174882683716</v>
       </c>
       <c r="S27" t="n">
-        <v>157.4876075303651</v>
+        <v>276.1174882683716</v>
       </c>
       <c r="T27" t="n">
-        <v>87.76096907875609</v>
+        <v>206.3908498167626</v>
       </c>
       <c r="U27" t="n">
-        <v>87.76096907875609</v>
+        <v>206.3908498167626</v>
       </c>
       <c r="V27" t="n">
-        <v>87.76096907875609</v>
+        <v>136.6642113651536</v>
       </c>
       <c r="W27" t="n">
-        <v>87.76096907875609</v>
+        <v>66.93757291354461</v>
       </c>
       <c r="X27" t="n">
-        <v>87.76096907875609</v>
+        <v>66.93757291354461</v>
       </c>
       <c r="Y27" t="n">
-        <v>87.76096907875609</v>
+        <v>66.93757291354461</v>
       </c>
     </row>
     <row r="28">
@@ -6360,10 +6360,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>5.522349765367433</v>
+        <v>75.24898821697644</v>
       </c>
       <c r="C28" t="n">
-        <v>5.522349765367433</v>
+        <v>75.24898821697644</v>
       </c>
       <c r="D28" t="n">
         <v>5.522349765367433</v>
@@ -6390,46 +6390,46 @@
         <v>5.522349765367433</v>
       </c>
       <c r="L28" t="n">
-        <v>73.86142811178941</v>
+        <v>5.522349765367433</v>
       </c>
       <c r="M28" t="n">
-        <v>142.2005064582114</v>
+        <v>71.10025322910575</v>
       </c>
       <c r="N28" t="n">
+        <v>139.4393315755277</v>
+      </c>
+      <c r="O28" t="n">
         <v>207.7784099219497</v>
-      </c>
-      <c r="O28" t="n">
-        <v>276.1174882683716</v>
       </c>
       <c r="P28" t="n">
         <v>276.1174882683716</v>
       </c>
       <c r="Q28" t="n">
-        <v>248.1819136824803</v>
+        <v>276.1174882683716</v>
       </c>
       <c r="R28" t="n">
-        <v>178.4552752308713</v>
+        <v>276.1174882683716</v>
       </c>
       <c r="S28" t="n">
-        <v>108.7286367792623</v>
+        <v>214.7022651201945</v>
       </c>
       <c r="T28" t="n">
-        <v>108.7286367792623</v>
+        <v>214.7022651201945</v>
       </c>
       <c r="U28" t="n">
-        <v>108.7286367792623</v>
+        <v>214.7022651201945</v>
       </c>
       <c r="V28" t="n">
-        <v>39.00199832765333</v>
+        <v>144.9756266685854</v>
       </c>
       <c r="W28" t="n">
-        <v>39.00199832765333</v>
+        <v>144.9756266685854</v>
       </c>
       <c r="X28" t="n">
-        <v>39.00199832765333</v>
+        <v>75.24898821697644</v>
       </c>
       <c r="Y28" t="n">
-        <v>5.522349765367433</v>
+        <v>75.24898821697644</v>
       </c>
     </row>
     <row r="29">
@@ -6442,10 +6442,10 @@
         <v>84.11287582416838</v>
       </c>
       <c r="C29" t="n">
-        <v>84.11287582416838</v>
+        <v>75.24898821697644</v>
       </c>
       <c r="D29" t="n">
-        <v>84.11287582416838</v>
+        <v>75.24898821697644</v>
       </c>
       <c r="E29" t="n">
         <v>75.24898821697644</v>
@@ -6454,10 +6454,10 @@
         <v>75.24898821697644</v>
       </c>
       <c r="G29" t="n">
-        <v>75.24898821697644</v>
+        <v>5.522349765367433</v>
       </c>
       <c r="H29" t="n">
-        <v>75.24898821697644</v>
+        <v>5.522349765367433</v>
       </c>
       <c r="I29" t="n">
         <v>5.522349765367433</v>
@@ -6469,16 +6469,16 @@
         <v>73.86142811178941</v>
       </c>
       <c r="L29" t="n">
-        <v>142.2005064582114</v>
+        <v>85.00472417274634</v>
       </c>
       <c r="M29" t="n">
-        <v>184.9256075673913</v>
+        <v>127.7298252819263</v>
       </c>
       <c r="N29" t="n">
-        <v>232.9558538590687</v>
+        <v>175.7600715736037</v>
       </c>
       <c r="O29" t="n">
-        <v>264.9741922074147</v>
+        <v>207.7784099219497</v>
       </c>
       <c r="P29" t="n">
         <v>276.1174882683716</v>
@@ -6496,19 +6496,19 @@
         <v>153.8395142757774</v>
       </c>
       <c r="U29" t="n">
-        <v>153.8395142757774</v>
+        <v>84.11287582416838</v>
       </c>
       <c r="V29" t="n">
-        <v>153.8395142757774</v>
+        <v>84.11287582416838</v>
       </c>
       <c r="W29" t="n">
-        <v>153.8395142757774</v>
+        <v>84.11287582416838</v>
       </c>
       <c r="X29" t="n">
-        <v>153.8395142757774</v>
+        <v>84.11287582416838</v>
       </c>
       <c r="Y29" t="n">
-        <v>153.8395142757774</v>
+        <v>84.11287582416838</v>
       </c>
     </row>
     <row r="30">
@@ -6518,19 +6518,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>75.24898821697644</v>
+        <v>18.03433062714709</v>
       </c>
       <c r="C30" t="n">
-        <v>5.522349765367433</v>
+        <v>18.03433062714709</v>
       </c>
       <c r="D30" t="n">
-        <v>5.522349765367433</v>
+        <v>18.03433062714709</v>
       </c>
       <c r="E30" t="n">
-        <v>5.522349765367433</v>
+        <v>18.03433062714709</v>
       </c>
       <c r="F30" t="n">
-        <v>5.522349765367433</v>
+        <v>18.03433062714709</v>
       </c>
       <c r="G30" t="n">
         <v>5.522349765367433</v>
@@ -6542,22 +6542,22 @@
         <v>5.522349765367433</v>
       </c>
       <c r="J30" t="n">
-        <v>5.522349765367433</v>
+        <v>17.41613371387393</v>
       </c>
       <c r="K30" t="n">
-        <v>5.522349765367433</v>
+        <v>17.41613371387393</v>
       </c>
       <c r="L30" t="n">
-        <v>47.4968056191245</v>
+        <v>59.390589567631</v>
       </c>
       <c r="M30" t="n">
-        <v>115.8358839655465</v>
+        <v>127.729667914053</v>
       </c>
       <c r="N30" t="n">
-        <v>184.1749623119684</v>
+        <v>196.0687462604749</v>
       </c>
       <c r="O30" t="n">
-        <v>239.3078042836563</v>
+        <v>251.2015882321627</v>
       </c>
       <c r="P30" t="n">
         <v>276.1174882683716</v>
@@ -6569,25 +6569,25 @@
         <v>227.2142459819741</v>
       </c>
       <c r="S30" t="n">
-        <v>227.2142459819741</v>
+        <v>157.4876075303651</v>
       </c>
       <c r="T30" t="n">
-        <v>227.2142459819741</v>
+        <v>87.76096907875609</v>
       </c>
       <c r="U30" t="n">
-        <v>227.2142459819741</v>
+        <v>87.76096907875609</v>
       </c>
       <c r="V30" t="n">
-        <v>214.7022651201945</v>
+        <v>18.03433062714709</v>
       </c>
       <c r="W30" t="n">
-        <v>214.7022651201945</v>
+        <v>18.03433062714709</v>
       </c>
       <c r="X30" t="n">
-        <v>214.7022651201945</v>
+        <v>18.03433062714709</v>
       </c>
       <c r="Y30" t="n">
-        <v>144.9756266685854</v>
+        <v>18.03433062714709</v>
       </c>
     </row>
     <row r="31">
@@ -6624,49 +6624,49 @@
         <v>5.522349765367433</v>
       </c>
       <c r="K31" t="n">
-        <v>63.83896525826776</v>
+        <v>5.522349765367433</v>
       </c>
       <c r="L31" t="n">
-        <v>132.1780436046897</v>
+        <v>73.86142811178941</v>
       </c>
       <c r="M31" t="n">
-        <v>132.1780436046897</v>
+        <v>142.2005064582114</v>
       </c>
       <c r="N31" t="n">
-        <v>200.5171219511117</v>
+        <v>142.2005064582114</v>
       </c>
       <c r="O31" t="n">
-        <v>268.8562002975336</v>
+        <v>207.7784099219497</v>
       </c>
       <c r="P31" t="n">
         <v>276.1174882683716</v>
       </c>
       <c r="Q31" t="n">
-        <v>248.1819136824803</v>
+        <v>276.1174882683716</v>
       </c>
       <c r="R31" t="n">
-        <v>248.1819136824803</v>
+        <v>276.1174882683716</v>
       </c>
       <c r="S31" t="n">
-        <v>178.4552752308713</v>
+        <v>276.1174882683716</v>
       </c>
       <c r="T31" t="n">
-        <v>108.7286367792623</v>
+        <v>214.7022651201945</v>
       </c>
       <c r="U31" t="n">
-        <v>108.7286367792623</v>
+        <v>214.7022651201945</v>
       </c>
       <c r="V31" t="n">
+        <v>214.7022651201945</v>
+      </c>
+      <c r="W31" t="n">
+        <v>144.9756266685854</v>
+      </c>
+      <c r="X31" t="n">
         <v>75.24898821697644</v>
       </c>
-      <c r="W31" t="n">
-        <v>5.522349765367433</v>
-      </c>
-      <c r="X31" t="n">
-        <v>5.522349765367433</v>
-      </c>
       <c r="Y31" t="n">
-        <v>5.522349765367433</v>
+        <v>75.24898821697644</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>75.24898821697644</v>
+        <v>206.3908498167626</v>
       </c>
       <c r="C32" t="n">
-        <v>5.522349765367433</v>
+        <v>206.3908498167626</v>
       </c>
       <c r="D32" t="n">
-        <v>5.522349765367433</v>
+        <v>206.3908498167626</v>
       </c>
       <c r="E32" t="n">
-        <v>5.522349765367433</v>
+        <v>206.3908498167626</v>
       </c>
       <c r="F32" t="n">
-        <v>5.522349765367433</v>
+        <v>206.3908498167626</v>
       </c>
       <c r="G32" t="n">
-        <v>5.522349765367433</v>
+        <v>136.6642113651536</v>
       </c>
       <c r="H32" t="n">
-        <v>5.522349765367433</v>
+        <v>66.93757291354461</v>
       </c>
       <c r="I32" t="n">
         <v>5.522349765367433</v>
@@ -6709,13 +6709,13 @@
         <v>73.86142811178941</v>
       </c>
       <c r="M32" t="n">
-        <v>116.5865292209694</v>
+        <v>142.2005064582114</v>
       </c>
       <c r="N32" t="n">
-        <v>164.6167755126468</v>
+        <v>210.5395848046334</v>
       </c>
       <c r="O32" t="n">
-        <v>232.9558538590687</v>
+        <v>276.1174882683716</v>
       </c>
       <c r="P32" t="n">
         <v>276.1174882683716</v>
@@ -6730,22 +6730,22 @@
         <v>276.1174882683716</v>
       </c>
       <c r="T32" t="n">
-        <v>214.7022651201945</v>
+        <v>276.1174882683716</v>
       </c>
       <c r="U32" t="n">
-        <v>214.7022651201945</v>
+        <v>276.1174882683716</v>
       </c>
       <c r="V32" t="n">
-        <v>214.7022651201945</v>
+        <v>276.1174882683716</v>
       </c>
       <c r="W32" t="n">
-        <v>144.9756266685854</v>
+        <v>206.3908498167626</v>
       </c>
       <c r="X32" t="n">
-        <v>75.24898821697644</v>
+        <v>206.3908498167626</v>
       </c>
       <c r="Y32" t="n">
-        <v>75.24898821697644</v>
+        <v>206.3908498167626</v>
       </c>
     </row>
     <row r="33">
@@ -6755,19 +6755,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>18.03433062714709</v>
+        <v>144.9756266685854</v>
       </c>
       <c r="C33" t="n">
-        <v>5.522349765367433</v>
+        <v>144.9756266685854</v>
       </c>
       <c r="D33" t="n">
-        <v>5.522349765367433</v>
+        <v>144.9756266685854</v>
       </c>
       <c r="E33" t="n">
-        <v>5.522349765367433</v>
+        <v>144.9756266685854</v>
       </c>
       <c r="F33" t="n">
-        <v>5.522349765367433</v>
+        <v>75.24898821697644</v>
       </c>
       <c r="G33" t="n">
         <v>5.522349765367433</v>
@@ -6803,28 +6803,28 @@
         <v>276.1174882683716</v>
       </c>
       <c r="R33" t="n">
-        <v>227.2142459819741</v>
+        <v>276.1174882683716</v>
       </c>
       <c r="S33" t="n">
-        <v>157.4876075303651</v>
+        <v>206.3908498167626</v>
       </c>
       <c r="T33" t="n">
-        <v>87.76096907875609</v>
+        <v>144.9756266685854</v>
       </c>
       <c r="U33" t="n">
-        <v>87.76096907875609</v>
+        <v>144.9756266685854</v>
       </c>
       <c r="V33" t="n">
-        <v>18.03433062714709</v>
+        <v>144.9756266685854</v>
       </c>
       <c r="W33" t="n">
-        <v>18.03433062714709</v>
+        <v>144.9756266685854</v>
       </c>
       <c r="X33" t="n">
-        <v>18.03433062714709</v>
+        <v>144.9756266685854</v>
       </c>
       <c r="Y33" t="n">
-        <v>18.03433062714709</v>
+        <v>144.9756266685854</v>
       </c>
     </row>
     <row r="34">
@@ -6861,43 +6861,43 @@
         <v>5.522349765367433</v>
       </c>
       <c r="K34" t="n">
-        <v>5.522349765367433</v>
+        <v>63.83896525826776</v>
       </c>
       <c r="L34" t="n">
-        <v>73.86142811178941</v>
+        <v>132.1780436046897</v>
       </c>
       <c r="M34" t="n">
-        <v>73.86142811178941</v>
+        <v>200.5171219511117</v>
       </c>
       <c r="N34" t="n">
-        <v>142.2005064582114</v>
+        <v>200.5171219511117</v>
       </c>
       <c r="O34" t="n">
-        <v>210.5395848046334</v>
+        <v>207.7784099219497</v>
       </c>
       <c r="P34" t="n">
         <v>276.1174882683716</v>
       </c>
       <c r="Q34" t="n">
-        <v>248.1819136824803</v>
+        <v>276.1174882683716</v>
       </c>
       <c r="R34" t="n">
-        <v>178.4552752308713</v>
+        <v>276.1174882683716</v>
       </c>
       <c r="S34" t="n">
-        <v>108.7286367792623</v>
+        <v>206.3908498167626</v>
       </c>
       <c r="T34" t="n">
-        <v>39.00199832765333</v>
+        <v>136.6642113651536</v>
       </c>
       <c r="U34" t="n">
-        <v>39.00199832765333</v>
+        <v>136.6642113651536</v>
       </c>
       <c r="V34" t="n">
-        <v>5.522349765367433</v>
+        <v>136.6642113651536</v>
       </c>
       <c r="W34" t="n">
-        <v>5.522349765367433</v>
+        <v>66.93757291354461</v>
       </c>
       <c r="X34" t="n">
         <v>5.522349765367433</v>
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>52.88668686662408</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="C35" t="n">
-        <v>52.88668686662408</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="D35" t="n">
-        <v>52.88668686662408</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="E35" t="n">
-        <v>52.88668686662408</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="F35" t="n">
-        <v>52.88668686662408</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="G35" t="n">
-        <v>52.88668686662408</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="H35" t="n">
         <v>3.881232023569892</v>
@@ -6940,49 +6940,49 @@
         <v>3.881232023569892</v>
       </c>
       <c r="K35" t="n">
-        <v>3.881232023569892</v>
+        <v>51.9114783152473</v>
       </c>
       <c r="L35" t="n">
-        <v>13.8171863711063</v>
+        <v>71.28791542929125</v>
       </c>
       <c r="M35" t="n">
-        <v>56.54228748028625</v>
+        <v>114.0130165384712</v>
       </c>
       <c r="N35" t="n">
-        <v>104.5725337719637</v>
+        <v>162.0432628301486</v>
       </c>
       <c r="O35" t="n">
-        <v>136.5908721203097</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="P35" t="n">
-        <v>146.0313548868172</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="Q35" t="n">
         <v>194.0616011784946</v>
       </c>
       <c r="R35" t="n">
+        <v>194.0616011784946</v>
+      </c>
+      <c r="S35" t="n">
+        <v>194.0616011784946</v>
+      </c>
+      <c r="T35" t="n">
+        <v>194.0616011784946</v>
+      </c>
+      <c r="U35" t="n">
+        <v>194.0616011784946</v>
+      </c>
+      <c r="V35" t="n">
         <v>150.8975965527325</v>
       </c>
-      <c r="S35" t="n">
-        <v>150.8975965527325</v>
-      </c>
-      <c r="T35" t="n">
+      <c r="W35" t="n">
         <v>101.8921417096783</v>
-      </c>
-      <c r="U35" t="n">
-        <v>101.8921417096783</v>
-      </c>
-      <c r="V35" t="n">
-        <v>52.88668686662408</v>
-      </c>
-      <c r="W35" t="n">
-        <v>52.88668686662408</v>
       </c>
       <c r="X35" t="n">
         <v>52.88668686662408</v>
       </c>
       <c r="Y35" t="n">
-        <v>52.88668686662408</v>
+        <v>3.881232023569892</v>
       </c>
     </row>
     <row r="36">
@@ -7028,10 +7028,10 @@
         <v>93.88593416900437</v>
       </c>
       <c r="N36" t="n">
-        <v>121.1154548506083</v>
+        <v>141.9161804606818</v>
       </c>
       <c r="O36" t="n">
-        <v>169.1457011422857</v>
+        <v>189.9464267523592</v>
       </c>
       <c r="P36" t="n">
         <v>194.0616011784946</v>
@@ -7043,25 +7043,25 @@
         <v>145.1583588920971</v>
       </c>
       <c r="S36" t="n">
-        <v>145.1583588920971</v>
+        <v>96.15290404904286</v>
       </c>
       <c r="T36" t="n">
-        <v>145.1583588920971</v>
+        <v>96.15290404904286</v>
       </c>
       <c r="U36" t="n">
-        <v>101.8921417096783</v>
+        <v>52.88668686662408</v>
       </c>
       <c r="V36" t="n">
         <v>52.88668686662408</v>
       </c>
       <c r="W36" t="n">
-        <v>52.88668686662408</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="X36" t="n">
-        <v>52.88668686662408</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="Y36" t="n">
-        <v>52.88668686662408</v>
+        <v>3.881232023569892</v>
       </c>
     </row>
     <row r="37">
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3.881232023569892</v>
+        <v>150.8975965527325</v>
       </c>
       <c r="C37" t="n">
-        <v>3.881232023569892</v>
+        <v>101.8921417096783</v>
       </c>
       <c r="D37" t="n">
-        <v>3.881232023569892</v>
+        <v>101.8921417096783</v>
       </c>
       <c r="E37" t="n">
-        <v>3.881232023569892</v>
+        <v>101.8921417096783</v>
       </c>
       <c r="F37" t="n">
-        <v>3.881232023569892</v>
+        <v>101.8921417096783</v>
       </c>
       <c r="G37" t="n">
-        <v>3.881232023569892</v>
+        <v>52.88668686662408</v>
       </c>
       <c r="H37" t="n">
         <v>3.881232023569892</v>
@@ -7098,19 +7098,19 @@
         <v>3.881232023569892</v>
       </c>
       <c r="K37" t="n">
-        <v>51.9114783152473</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="L37" t="n">
         <v>51.9114783152473</v>
       </c>
       <c r="M37" t="n">
-        <v>51.9114783152473</v>
+        <v>99.94172460692471</v>
       </c>
       <c r="N37" t="n">
-        <v>99.94172460692471</v>
+        <v>146.0313548868172</v>
       </c>
       <c r="O37" t="n">
-        <v>147.9719708986021</v>
+        <v>146.0313548868172</v>
       </c>
       <c r="P37" t="n">
         <v>194.0616011784946</v>
@@ -7128,19 +7128,19 @@
         <v>150.8975965527325</v>
       </c>
       <c r="U37" t="n">
-        <v>101.8921417096783</v>
+        <v>150.8975965527325</v>
       </c>
       <c r="V37" t="n">
-        <v>52.88668686662408</v>
+        <v>150.8975965527325</v>
       </c>
       <c r="W37" t="n">
-        <v>3.881232023569892</v>
+        <v>150.8975965527325</v>
       </c>
       <c r="X37" t="n">
-        <v>3.881232023569892</v>
+        <v>150.8975965527325</v>
       </c>
       <c r="Y37" t="n">
-        <v>3.881232023569892</v>
+        <v>150.8975965527325</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>52.88668686662408</v>
+        <v>96.05069149238619</v>
       </c>
       <c r="C38" t="n">
-        <v>52.88668686662408</v>
+        <v>96.05069149238619</v>
       </c>
       <c r="D38" t="n">
-        <v>52.88668686662408</v>
+        <v>47.045236649332</v>
       </c>
       <c r="E38" t="n">
-        <v>52.88668686662408</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="F38" t="n">
-        <v>52.88668686662408</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="G38" t="n">
         <v>3.881232023569892</v>
@@ -7174,37 +7174,37 @@
         <v>3.881232023569892</v>
       </c>
       <c r="J38" t="n">
-        <v>45.34005313842343</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="K38" t="n">
-        <v>45.34005313842343</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="L38" t="n">
-        <v>55.27600748595984</v>
+        <v>13.8171863711063</v>
       </c>
       <c r="M38" t="n">
-        <v>98.00110859513978</v>
+        <v>56.54228748028625</v>
       </c>
       <c r="N38" t="n">
+        <v>104.5725337719637</v>
+      </c>
+      <c r="O38" t="n">
+        <v>136.5908721203097</v>
+      </c>
+      <c r="P38" t="n">
         <v>146.0313548868172</v>
-      </c>
-      <c r="O38" t="n">
-        <v>194.0616011784946</v>
-      </c>
-      <c r="P38" t="n">
-        <v>194.0616011784946</v>
       </c>
       <c r="Q38" t="n">
         <v>194.0616011784946</v>
       </c>
       <c r="R38" t="n">
-        <v>145.0561463354404</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="S38" t="n">
-        <v>145.0561463354404</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="T38" t="n">
-        <v>145.0561463354404</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="U38" t="n">
         <v>145.0561463354404</v>
@@ -7216,10 +7216,10 @@
         <v>145.0561463354404</v>
       </c>
       <c r="X38" t="n">
-        <v>101.8921417096783</v>
+        <v>145.0561463354404</v>
       </c>
       <c r="Y38" t="n">
-        <v>101.8921417096783</v>
+        <v>96.05069149238619</v>
       </c>
     </row>
     <row r="39">
@@ -7229,7 +7229,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>52.88668686662408</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="C39" t="n">
         <v>3.881232023569892</v>
@@ -7262,10 +7262,10 @@
         <v>45.85568787732696</v>
       </c>
       <c r="M39" t="n">
-        <v>73.0852085589309</v>
+        <v>93.88593416900437</v>
       </c>
       <c r="N39" t="n">
-        <v>121.1154548506083</v>
+        <v>141.9161804606818</v>
       </c>
       <c r="O39" t="n">
         <v>169.1457011422857</v>
@@ -7280,25 +7280,25 @@
         <v>194.0616011784946</v>
       </c>
       <c r="S39" t="n">
-        <v>194.0616011784946</v>
+        <v>145.0561463354404</v>
       </c>
       <c r="T39" t="n">
-        <v>145.0561463354404</v>
+        <v>96.05069149238619</v>
       </c>
       <c r="U39" t="n">
-        <v>145.0561463354404</v>
+        <v>96.05069149238619</v>
       </c>
       <c r="V39" t="n">
-        <v>145.0561463354404</v>
+        <v>47.045236649332</v>
       </c>
       <c r="W39" t="n">
-        <v>96.05069149238619</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="X39" t="n">
-        <v>52.88668686662408</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="Y39" t="n">
-        <v>52.88668686662408</v>
+        <v>3.881232023569892</v>
       </c>
     </row>
     <row r="40">
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3.881232023569892</v>
+        <v>52.88668686662408</v>
       </c>
       <c r="C40" t="n">
-        <v>3.881232023569892</v>
+        <v>52.88668686662408</v>
       </c>
       <c r="D40" t="n">
-        <v>3.881232023569892</v>
+        <v>52.88668686662408</v>
       </c>
       <c r="E40" t="n">
-        <v>3.881232023569892</v>
+        <v>52.88668686662408</v>
       </c>
       <c r="F40" t="n">
-        <v>3.881232023569892</v>
+        <v>52.88668686662408</v>
       </c>
       <c r="G40" t="n">
         <v>3.881232023569892</v>
@@ -7335,49 +7335,49 @@
         <v>3.881232023569892</v>
       </c>
       <c r="K40" t="n">
-        <v>3.881232023569892</v>
+        <v>51.9114783152473</v>
       </c>
       <c r="L40" t="n">
-        <v>51.9114783152473</v>
+        <v>99.94172460692471</v>
       </c>
       <c r="M40" t="n">
-        <v>51.9114783152473</v>
+        <v>146.0313548868172</v>
       </c>
       <c r="N40" t="n">
-        <v>99.94172460692471</v>
+        <v>146.0313548868172</v>
       </c>
       <c r="O40" t="n">
-        <v>146.0313548868172</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="P40" t="n">
         <v>194.0616011784946</v>
       </c>
       <c r="Q40" t="n">
-        <v>166.1260265926033</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="R40" t="n">
-        <v>117.1205717495491</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="S40" t="n">
-        <v>68.1151169064949</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="T40" t="n">
-        <v>19.10966206344072</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="U40" t="n">
-        <v>19.10966206344072</v>
+        <v>145.0561463354404</v>
       </c>
       <c r="V40" t="n">
-        <v>19.10966206344072</v>
+        <v>101.8921417096783</v>
       </c>
       <c r="W40" t="n">
-        <v>19.10966206344072</v>
+        <v>52.88668686662408</v>
       </c>
       <c r="X40" t="n">
-        <v>19.10966206344072</v>
+        <v>52.88668686662408</v>
       </c>
       <c r="Y40" t="n">
-        <v>19.10966206344072</v>
+        <v>52.88668686662408</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>52.88668686662408</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="C41" t="n">
-        <v>52.88668686662408</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="D41" t="n">
-        <v>52.88668686662408</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="E41" t="n">
-        <v>52.88668686662408</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="F41" t="n">
-        <v>52.88668686662408</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="G41" t="n">
-        <v>52.88668686662408</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="H41" t="n">
-        <v>52.88668686662408</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="I41" t="n">
         <v>3.881232023569892</v>
@@ -7414,10 +7414,10 @@
         <v>3.881232023569892</v>
       </c>
       <c r="K41" t="n">
-        <v>45.34005313842343</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="L41" t="n">
-        <v>55.27600748595984</v>
+        <v>49.97086230346238</v>
       </c>
       <c r="M41" t="n">
         <v>98.00110859513978</v>
@@ -7435,28 +7435,28 @@
         <v>194.0616011784946</v>
       </c>
       <c r="R41" t="n">
-        <v>194.0616011784946</v>
+        <v>145.0561463354404</v>
       </c>
       <c r="S41" t="n">
-        <v>194.0616011784946</v>
+        <v>145.0561463354404</v>
       </c>
       <c r="T41" t="n">
-        <v>194.0616011784946</v>
+        <v>145.0561463354404</v>
       </c>
       <c r="U41" t="n">
-        <v>194.0616011784946</v>
+        <v>96.05069149238619</v>
       </c>
       <c r="V41" t="n">
-        <v>194.0616011784946</v>
+        <v>47.045236649332</v>
       </c>
       <c r="W41" t="n">
-        <v>145.0561463354404</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="X41" t="n">
-        <v>96.05069149238619</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="Y41" t="n">
-        <v>96.05069149238619</v>
+        <v>3.881232023569892</v>
       </c>
     </row>
     <row r="42">
@@ -7466,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>47.045236649332</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="C42" t="n">
-        <v>47.045236649332</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="D42" t="n">
-        <v>47.045236649332</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="E42" t="n">
-        <v>47.045236649332</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="F42" t="n">
-        <v>47.045236649332</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="G42" t="n">
-        <v>47.045236649332</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="H42" t="n">
         <v>3.881232023569892</v>
@@ -7499,13 +7499,13 @@
         <v>45.85568787732696</v>
       </c>
       <c r="M42" t="n">
-        <v>73.0852085589309</v>
+        <v>93.88593416900437</v>
       </c>
       <c r="N42" t="n">
-        <v>121.1154548506083</v>
+        <v>141.9161804606818</v>
       </c>
       <c r="O42" t="n">
-        <v>169.1457011422857</v>
+        <v>189.9464267523592</v>
       </c>
       <c r="P42" t="n">
         <v>194.0616011784946</v>
@@ -7529,13 +7529,13 @@
         <v>47.045236649332</v>
       </c>
       <c r="W42" t="n">
-        <v>47.045236649332</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="X42" t="n">
-        <v>47.045236649332</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="Y42" t="n">
-        <v>47.045236649332</v>
+        <v>3.881232023569892</v>
       </c>
     </row>
     <row r="43">
@@ -7584,7 +7584,7 @@
         <v>147.9719708986021</v>
       </c>
       <c r="O43" t="n">
-        <v>147.9719708986021</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="P43" t="n">
         <v>194.0616011784946</v>
@@ -7593,10 +7593,10 @@
         <v>194.0616011784946</v>
       </c>
       <c r="R43" t="n">
-        <v>145.0561463354404</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="S43" t="n">
-        <v>145.0561463354404</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="T43" t="n">
         <v>145.0561463354404</v>
@@ -7624,16 +7624,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>47.045236649332</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="C44" t="n">
-        <v>47.045236649332</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="D44" t="n">
-        <v>47.045236649332</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="E44" t="n">
-        <v>47.045236649332</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="F44" t="n">
         <v>3.881232023569892</v>
@@ -7648,25 +7648,25 @@
         <v>3.881232023569892</v>
       </c>
       <c r="J44" t="n">
-        <v>13.32171479007741</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="K44" t="n">
-        <v>13.32171479007741</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="L44" t="n">
-        <v>23.25766913761382</v>
+        <v>51.9114783152473</v>
       </c>
       <c r="M44" t="n">
-        <v>65.98277024679376</v>
+        <v>98.00110859513978</v>
       </c>
       <c r="N44" t="n">
-        <v>114.0130165384712</v>
+        <v>146.0313548868172</v>
       </c>
       <c r="O44" t="n">
-        <v>146.0313548868172</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="P44" t="n">
-        <v>146.0313548868172</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="Q44" t="n">
         <v>194.0616011784946</v>
@@ -7675,25 +7675,25 @@
         <v>194.0616011784946</v>
       </c>
       <c r="S44" t="n">
-        <v>194.0616011784946</v>
+        <v>145.0561463354404</v>
       </c>
       <c r="T44" t="n">
         <v>145.0561463354404</v>
       </c>
       <c r="U44" t="n">
-        <v>145.0561463354404</v>
+        <v>96.05069149238619</v>
       </c>
       <c r="V44" t="n">
-        <v>145.0561463354404</v>
+        <v>47.045236649332</v>
       </c>
       <c r="W44" t="n">
-        <v>96.05069149238619</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="X44" t="n">
-        <v>96.05069149238619</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="Y44" t="n">
-        <v>96.05069149238619</v>
+        <v>3.881232023569892</v>
       </c>
     </row>
     <row r="45">
@@ -7703,16 +7703,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>96.05069149238619</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="C45" t="n">
-        <v>96.05069149238619</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="D45" t="n">
-        <v>96.05069149238619</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="E45" t="n">
-        <v>47.045236649332</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="F45" t="n">
         <v>3.881232023569892</v>
@@ -7736,10 +7736,10 @@
         <v>45.85568787732696</v>
       </c>
       <c r="M45" t="n">
-        <v>73.0852085589309</v>
+        <v>93.88593416900437</v>
       </c>
       <c r="N45" t="n">
-        <v>121.1154548506083</v>
+        <v>141.9161804606818</v>
       </c>
       <c r="O45" t="n">
         <v>169.1457011422857</v>
@@ -7751,28 +7751,28 @@
         <v>194.0616011784946</v>
       </c>
       <c r="R45" t="n">
-        <v>194.0616011784946</v>
+        <v>145.1583588920971</v>
       </c>
       <c r="S45" t="n">
-        <v>194.0616011784946</v>
+        <v>96.15290404904286</v>
       </c>
       <c r="T45" t="n">
-        <v>194.0616011784946</v>
+        <v>47.14744920598867</v>
       </c>
       <c r="U45" t="n">
-        <v>194.0616011784946</v>
+        <v>47.14744920598867</v>
       </c>
       <c r="V45" t="n">
-        <v>194.0616011784946</v>
+        <v>47.14744920598867</v>
       </c>
       <c r="W45" t="n">
-        <v>194.0616011784946</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="X45" t="n">
-        <v>194.0616011784946</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="Y45" t="n">
-        <v>145.0561463354404</v>
+        <v>3.881232023569892</v>
       </c>
     </row>
     <row r="46">
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>194.0616011784946</v>
+        <v>96.05069149238619</v>
       </c>
       <c r="C46" t="n">
-        <v>194.0616011784946</v>
+        <v>96.05069149238619</v>
       </c>
       <c r="D46" t="n">
-        <v>194.0616011784946</v>
+        <v>96.05069149238619</v>
       </c>
       <c r="E46" t="n">
-        <v>145.0561463354404</v>
+        <v>96.05069149238619</v>
       </c>
       <c r="F46" t="n">
         <v>96.05069149238619</v>
@@ -7818,10 +7818,10 @@
         <v>99.94172460692471</v>
       </c>
       <c r="N46" t="n">
-        <v>147.9719708986021</v>
+        <v>99.94172460692471</v>
       </c>
       <c r="O46" t="n">
-        <v>194.0616011784946</v>
+        <v>146.0313548868172</v>
       </c>
       <c r="P46" t="n">
         <v>194.0616011784946</v>
@@ -7839,19 +7839,19 @@
         <v>194.0616011784946</v>
       </c>
       <c r="U46" t="n">
-        <v>194.0616011784946</v>
+        <v>145.0561463354404</v>
       </c>
       <c r="V46" t="n">
-        <v>194.0616011784946</v>
+        <v>96.05069149238619</v>
       </c>
       <c r="W46" t="n">
-        <v>194.0616011784946</v>
+        <v>96.05069149238619</v>
       </c>
       <c r="X46" t="n">
-        <v>194.0616011784946</v>
+        <v>96.05069149238619</v>
       </c>
       <c r="Y46" t="n">
-        <v>194.0616011784946</v>
+        <v>96.05069149238619</v>
       </c>
     </row>
   </sheetData>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>48.84559930097362</v>
+        <v>97.36099959559726</v>
       </c>
       <c r="K11" t="n">
         <v>21.95586290547635</v>
@@ -8698,19 +8698,19 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>5.358732507573187</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>9.535841178290418</v>
       </c>
       <c r="P11" t="n">
-        <v>11.42366407382829</v>
+        <v>7.246555403111074</v>
       </c>
       <c r="Q11" t="n">
-        <v>102.6166016087918</v>
+        <v>54.10120131416818</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8850,19 +8850,19 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K13" t="n">
-        <v>47.83809412960169</v>
+        <v>96.35349442422532</v>
       </c>
       <c r="L13" t="n">
-        <v>77.5635960405568</v>
+        <v>31.00841393965533</v>
       </c>
       <c r="M13" t="n">
-        <v>77.91823012972323</v>
+        <v>29.40282983509958</v>
       </c>
       <c r="N13" t="n">
-        <v>20.76680140568403</v>
+        <v>69.28220170030767</v>
       </c>
       <c r="O13" t="n">
-        <v>88.21517423093921</v>
+        <v>86.25495603721704</v>
       </c>
       <c r="P13" t="n">
         <v>101.7399315424738</v>
@@ -8929,19 +8929,19 @@
         <v>48.84559930097362</v>
       </c>
       <c r="K14" t="n">
-        <v>70.4712632001</v>
+        <v>21.95586290547635</v>
       </c>
       <c r="L14" t="n">
-        <v>4.177108670717201</v>
+        <v>38.47908277185959</v>
       </c>
       <c r="M14" t="n">
-        <v>5.358732507573166</v>
+        <v>3.398514313851024</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>16.17364438720341</v>
       </c>
       <c r="P14" t="n">
         <v>7.246555403111074</v>
@@ -9087,19 +9087,19 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K16" t="n">
-        <v>47.83809412960169</v>
+        <v>96.35349442422532</v>
       </c>
       <c r="L16" t="n">
-        <v>31.00841393965533</v>
+        <v>77.5635960405568</v>
       </c>
       <c r="M16" t="n">
-        <v>75.95801193600106</v>
+        <v>77.91823012972323</v>
       </c>
       <c r="N16" t="n">
-        <v>69.28220170030768</v>
+        <v>20.76680140568403</v>
       </c>
       <c r="O16" t="n">
-        <v>88.21517423093921</v>
+        <v>39.69977393631557</v>
       </c>
       <c r="P16" t="n">
         <v>101.7399315424738</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>68.41775800202811</v>
+        <v>48.84559930097362</v>
       </c>
       <c r="K17" t="n">
         <v>21.95586290547635</v>
@@ -9172,13 +9172,13 @@
         <v>38.47908277185959</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>5.358732507573187</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>14.21342619348128</v>
       </c>
       <c r="P17" t="n">
         <v>7.246555403111074</v>
@@ -9324,22 +9324,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K19" t="n">
-        <v>96.35349442422533</v>
+        <v>96.35349442422532</v>
       </c>
       <c r="L19" t="n">
-        <v>31.00841393965533</v>
+        <v>79.52381423427897</v>
       </c>
       <c r="M19" t="n">
-        <v>75.95801193600107</v>
+        <v>77.91823012972321</v>
       </c>
       <c r="N19" t="n">
-        <v>69.28220170030768</v>
+        <v>20.76680140568403</v>
       </c>
       <c r="O19" t="n">
-        <v>88.21517423093921</v>
+        <v>39.69977393631557</v>
       </c>
       <c r="P19" t="n">
-        <v>53.22453124785014</v>
+        <v>99.77971334875163</v>
       </c>
       <c r="Q19" t="n">
         <v>65.34295837775146</v>
@@ -9406,7 +9406,7 @@
         <v>21.95586290547635</v>
       </c>
       <c r="L20" t="n">
-        <v>38.47908277185959</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9418,10 +9418,10 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>7.246555403111074</v>
+        <v>55.76195569773474</v>
       </c>
       <c r="Q20" t="n">
-        <v>73.67336001522267</v>
+        <v>63.63704249245864</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9561,22 +9561,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K22" t="n">
-        <v>96.35349442422533</v>
+        <v>96.35349442422535</v>
       </c>
       <c r="L22" t="n">
-        <v>77.56359604055683</v>
+        <v>79.523814234279</v>
       </c>
       <c r="M22" t="n">
-        <v>77.91823012972323</v>
+        <v>75.95801193600109</v>
       </c>
       <c r="N22" t="n">
-        <v>69.28220170030768</v>
+        <v>20.76680140568403</v>
       </c>
       <c r="O22" t="n">
         <v>39.69977393631557</v>
       </c>
       <c r="P22" t="n">
-        <v>53.22453124785014</v>
+        <v>101.7399315424738</v>
       </c>
       <c r="Q22" t="n">
         <v>65.34295837775146</v>
@@ -9640,7 +9640,7 @@
         <v>48.84559930097362</v>
       </c>
       <c r="K23" t="n">
-        <v>90.98523497256926</v>
+        <v>21.95586290547635</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9649,16 +9649,16 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1.219537084263145</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>1.219537084263152</v>
       </c>
       <c r="P23" t="n">
         <v>76.27592747020395</v>
       </c>
       <c r="Q23" t="n">
-        <v>54.10120131416818</v>
+        <v>123.1305733812611</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9716,13 +9716,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>48.10003053698959</v>
+        <v>60.11395371729918</v>
       </c>
       <c r="K24" t="n">
         <v>3.266346048945991</v>
       </c>
       <c r="L24" t="n">
-        <v>12.0139231803096</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9801,19 +9801,19 @@
         <v>47.83809412960169</v>
       </c>
       <c r="L25" t="n">
-        <v>31.00841393965533</v>
+        <v>100.0377860067482</v>
       </c>
       <c r="M25" t="n">
-        <v>98.43220190219249</v>
+        <v>29.40282983509958</v>
       </c>
       <c r="N25" t="n">
-        <v>89.79617347277694</v>
+        <v>87.00710793471264</v>
       </c>
       <c r="O25" t="n">
         <v>108.7291460034085</v>
       </c>
       <c r="P25" t="n">
-        <v>119.4648377768787</v>
+        <v>122.253903314943</v>
       </c>
       <c r="Q25" t="n">
         <v>65.34295837775146</v>
@@ -9880,22 +9880,22 @@
         <v>90.98523497256926</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>58.99305454432886</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>11.25585460702717</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>76.27592747020398</v>
+        <v>7.246555403111074</v>
       </c>
       <c r="Q26" t="n">
-        <v>55.32073839843129</v>
+        <v>54.10120131416818</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -10038,19 +10038,19 @@
         <v>47.83809412960169</v>
       </c>
       <c r="L28" t="n">
-        <v>100.0377860067482</v>
+        <v>31.00841393965533</v>
       </c>
       <c r="M28" t="n">
-        <v>98.43220190219249</v>
+        <v>95.64313636412818</v>
       </c>
       <c r="N28" t="n">
-        <v>87.00710793471262</v>
+        <v>89.79617347277694</v>
       </c>
       <c r="O28" t="n">
         <v>108.7291460034085</v>
       </c>
       <c r="P28" t="n">
-        <v>53.22453124785014</v>
+        <v>122.253903314943</v>
       </c>
       <c r="Q28" t="n">
         <v>65.34295837775146</v>
@@ -10117,7 +10117,7 @@
         <v>90.98523497256926</v>
       </c>
       <c r="L29" t="n">
-        <v>58.99305454432886</v>
+        <v>1.219537084263148</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10129,7 +10129,7 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>18.50241001013826</v>
+        <v>76.27592747020395</v>
       </c>
       <c r="Q29" t="n">
         <v>54.10120131416818</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>48.10003053698959</v>
+        <v>60.11395371729918</v>
       </c>
       <c r="K30" t="n">
         <v>3.266346048945991</v>
@@ -10208,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>12.01392318030958</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>33.59957280668804</v>
@@ -10272,22 +10272,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K31" t="n">
-        <v>106.7437663446525</v>
+        <v>47.83809412960169</v>
       </c>
       <c r="L31" t="n">
         <v>100.0377860067482</v>
       </c>
       <c r="M31" t="n">
-        <v>29.40282983509958</v>
+        <v>98.43220190219249</v>
       </c>
       <c r="N31" t="n">
-        <v>89.79617347277694</v>
+        <v>20.76680140568403</v>
       </c>
       <c r="O31" t="n">
-        <v>108.7291460034085</v>
+        <v>105.9400804653442</v>
       </c>
       <c r="P31" t="n">
-        <v>60.55916556182791</v>
+        <v>122.253903314943</v>
       </c>
       <c r="Q31" t="n">
         <v>65.34295837775146</v>
@@ -10357,16 +10357,16 @@
         <v>58.99305454432886</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>25.87270428004246</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>20.51397177246926</v>
       </c>
       <c r="O32" t="n">
-        <v>36.6876161596727</v>
+        <v>33.89855062160835</v>
       </c>
       <c r="P32" t="n">
-        <v>50.84416591755846</v>
+        <v>7.246555403111074</v>
       </c>
       <c r="Q32" t="n">
         <v>54.10120131416818</v>
@@ -10509,22 +10509,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K34" t="n">
-        <v>47.83809412960169</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L34" t="n">
         <v>100.0377860067482</v>
       </c>
       <c r="M34" t="n">
-        <v>29.40282983509958</v>
+        <v>98.43220190219249</v>
       </c>
       <c r="N34" t="n">
-        <v>89.79617347277694</v>
+        <v>20.76680140568403</v>
       </c>
       <c r="O34" t="n">
-        <v>108.7291460034085</v>
+        <v>47.03440825029334</v>
       </c>
       <c r="P34" t="n">
-        <v>119.4648377768787</v>
+        <v>122.253903314943</v>
       </c>
       <c r="Q34" t="n">
         <v>65.34295837775146</v>
@@ -10588,10 +10588,10 @@
         <v>48.84559930097362</v>
       </c>
       <c r="K35" t="n">
-        <v>21.95586290547635</v>
+        <v>70.4712632001</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>9.53584117829044</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10603,10 +10603,10 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>16.78239658140151</v>
+        <v>7.246555403111074</v>
       </c>
       <c r="Q35" t="n">
-        <v>102.6166016087919</v>
+        <v>54.10120131416818</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10746,22 +10746,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K37" t="n">
-        <v>96.35349442422533</v>
+        <v>47.83809412960169</v>
       </c>
       <c r="L37" t="n">
-        <v>31.00841393965533</v>
+        <v>79.52381423427897</v>
       </c>
       <c r="M37" t="n">
-        <v>29.40282983509958</v>
+        <v>77.91823012972323</v>
       </c>
       <c r="N37" t="n">
-        <v>69.28220170030768</v>
+        <v>67.32198350658552</v>
       </c>
       <c r="O37" t="n">
-        <v>88.21517423093921</v>
+        <v>39.69977393631557</v>
       </c>
       <c r="P37" t="n">
-        <v>99.77971334875163</v>
+        <v>101.7399315424738</v>
       </c>
       <c r="Q37" t="n">
         <v>65.34295837775146</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>90.72319638668426</v>
+        <v>48.84559930097362</v>
       </c>
       <c r="K38" t="n">
         <v>21.95586290547635</v>
@@ -10837,13 +10837,13 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>16.17364438720347</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>7.246555403111074</v>
+        <v>16.78239658140151</v>
       </c>
       <c r="Q38" t="n">
-        <v>54.10120131416818</v>
+        <v>102.6166016087919</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10983,22 +10983,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K40" t="n">
-        <v>47.83809412960169</v>
+        <v>96.35349442422533</v>
       </c>
       <c r="L40" t="n">
         <v>79.52381423427897</v>
       </c>
       <c r="M40" t="n">
-        <v>29.40282983509958</v>
+        <v>75.95801193600107</v>
       </c>
       <c r="N40" t="n">
-        <v>69.28220170030768</v>
+        <v>20.76680140568403</v>
       </c>
       <c r="O40" t="n">
-        <v>86.25495603721706</v>
+        <v>88.21517423093921</v>
       </c>
       <c r="P40" t="n">
-        <v>101.7399315424738</v>
+        <v>53.22453124785014</v>
       </c>
       <c r="Q40" t="n">
         <v>65.34295837775146</v>
@@ -11062,13 +11062,13 @@
         <v>48.84559930097362</v>
       </c>
       <c r="K41" t="n">
-        <v>63.83345999118699</v>
+        <v>21.95586290547635</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>36.51886457813745</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>5.358732507573166</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -11232,10 +11232,10 @@
         <v>69.28220170030768</v>
       </c>
       <c r="O43" t="n">
-        <v>39.69977393631557</v>
+        <v>86.25495603721706</v>
       </c>
       <c r="P43" t="n">
-        <v>99.77971334875163</v>
+        <v>53.22453124785014</v>
       </c>
       <c r="Q43" t="n">
         <v>65.34295837775146</v>
@@ -11296,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>58.38144047926404</v>
+        <v>48.84559930097362</v>
       </c>
       <c r="K44" t="n">
         <v>21.95586290547635</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>38.47908277185959</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>3.398514313851045</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>16.17364438720347</v>
       </c>
       <c r="P44" t="n">
         <v>7.246555403111074</v>
       </c>
       <c r="Q44" t="n">
-        <v>102.6166016087919</v>
+        <v>54.10120131416818</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11466,13 +11466,13 @@
         <v>77.91823012972323</v>
       </c>
       <c r="N46" t="n">
-        <v>69.28220170030768</v>
+        <v>20.76680140568403</v>
       </c>
       <c r="O46" t="n">
         <v>86.25495603721706</v>
       </c>
       <c r="P46" t="n">
-        <v>53.22453124785014</v>
+        <v>101.7399315424738</v>
       </c>
       <c r="Q46" t="n">
         <v>65.34295837775146</v>
@@ -23266,10 +23266,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>339.1980054927573</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>358.3606454470878</v>
       </c>
       <c r="G11" t="n">
         <v>365.229726001192</v>
@@ -23314,7 +23314,7 @@
         <v>216.2774064515606</v>
       </c>
       <c r="U11" t="n">
-        <v>208.4886794307865</v>
+        <v>251.2210440102909</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23323,7 +23323,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>321.2157003838454</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23339,13 +23339,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>124.1930986936921</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>114.8115254448064</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
@@ -23357,7 +23357,7 @@
         <v>104.1865984690043</v>
       </c>
       <c r="I12" t="n">
-        <v>17.97060829243122</v>
+        <v>60.7029728719357</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,28 +23384,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>48.41420986353356</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>156.2032156881569</v>
       </c>
       <c r="T12" t="n">
-        <v>148.2901597987787</v>
+        <v>196.8055600934023</v>
       </c>
       <c r="U12" t="n">
         <v>225.8865534313325</v>
       </c>
       <c r="V12" t="n">
-        <v>184.2851868548016</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>203.179582866296</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>157.1672954826807</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23418,10 +23418,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>118.7314208040042</v>
       </c>
       <c r="D13" t="n">
-        <v>100.1000727235887</v>
+        <v>105.8831084387079</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23436,7 +23436,7 @@
         <v>156.0151763859972</v>
       </c>
       <c r="I13" t="n">
-        <v>91.70657336438849</v>
+        <v>134.438937943893</v>
       </c>
       <c r="J13" t="n">
         <v>43.96174265608267</v>
@@ -23463,16 +23463,16 @@
         <v>27.65621884003237</v>
       </c>
       <c r="R13" t="n">
-        <v>145.8777136505296</v>
+        <v>97.36231335590594</v>
       </c>
       <c r="S13" t="n">
-        <v>211.8403234308322</v>
+        <v>163.3249231362086</v>
       </c>
       <c r="T13" t="n">
         <v>224.9602743187949</v>
       </c>
       <c r="U13" t="n">
-        <v>237.7655186562142</v>
+        <v>286.2809189508379</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23484,7 +23484,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>170.0692530574711</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>340.0014770839761</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -23503,7 +23503,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>339.1980054927573</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -23512,7 +23512,7 @@
         <v>413.7451262958156</v>
       </c>
       <c r="H14" t="n">
-        <v>275.0075159212884</v>
+        <v>323.522916215912</v>
       </c>
       <c r="I14" t="n">
         <v>150.4260830375935</v>
@@ -23542,7 +23542,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>3.510421890951754</v>
+        <v>52.02582218557539</v>
       </c>
       <c r="S14" t="n">
         <v>173.5260039260038</v>
@@ -23551,19 +23551,19 @@
         <v>216.2774064515606</v>
       </c>
       <c r="U14" t="n">
-        <v>202.7056437156673</v>
+        <v>251.2210440102909</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>279.2368581755113</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>300.7255684227894</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>337.7225383614299</v>
       </c>
     </row>
     <row r="15">
@@ -23585,16 +23585,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>96.55381209876023</v>
       </c>
       <c r="G15" t="n">
         <v>136.5101216886474</v>
       </c>
       <c r="H15" t="n">
-        <v>104.1865984690043</v>
+        <v>55.67119817438064</v>
       </c>
       <c r="I15" t="n">
-        <v>12.18757257731206</v>
+        <v>60.7029728719357</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,19 +23621,19 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>48.41420986353356</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>156.2032156881569</v>
       </c>
       <c r="T15" t="n">
-        <v>148.2901597987787</v>
+        <v>196.8055600934023</v>
       </c>
       <c r="U15" t="n">
-        <v>183.1541888518281</v>
+        <v>183.0529984207379</v>
       </c>
       <c r="V15" t="n">
-        <v>184.2851868548016</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
@@ -23676,7 +23676,7 @@
         <v>134.438937943893</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>43.96174265608267</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>27.65621884003237</v>
       </c>
       <c r="R16" t="n">
-        <v>145.8777136505296</v>
+        <v>103.1453490710251</v>
       </c>
       <c r="S16" t="n">
         <v>211.8403234308322</v>
       </c>
       <c r="T16" t="n">
-        <v>224.9602743187949</v>
+        <v>176.4448740241712</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2809189508379</v>
+        <v>237.7655186562142</v>
       </c>
       <c r="V16" t="n">
         <v>203.6222430292044</v>
@@ -23718,10 +23718,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>177.1942550944135</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>171.2986311340493</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23734,7 +23734,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>316.7574914763839</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -23746,7 +23746,7 @@
         <v>358.3606454470878</v>
       </c>
       <c r="G17" t="n">
-        <v>413.7451262958156</v>
+        <v>365.229726001192</v>
       </c>
       <c r="H17" t="n">
         <v>323.522916215912</v>
@@ -23785,19 +23785,19 @@
         <v>173.5260039260038</v>
       </c>
       <c r="T17" t="n">
-        <v>216.2774064515606</v>
+        <v>167.7620061569369</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2210440102909</v>
+        <v>208.4886794307865</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>306.5086041379085</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>321.2157003838454</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23813,16 +23813,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>124.1930986936921</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>98.92966527001511</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>96.55381209876023</v>
       </c>
       <c r="G18" t="n">
         <v>136.5101216886474</v>
@@ -23858,22 +23858,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>48.41420986353356</v>
       </c>
       <c r="S18" t="n">
         <v>156.2032156881569</v>
       </c>
       <c r="T18" t="n">
-        <v>148.2901597987787</v>
+        <v>196.8055600934023</v>
       </c>
       <c r="U18" t="n">
-        <v>183.0529984207379</v>
+        <v>183.154188851828</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>203.179582866296</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>131.3165798873137</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23901,10 +23901,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>96.9056477283076</v>
       </c>
       <c r="G19" t="n">
-        <v>167.2922885881534</v>
+        <v>124.5599240086489</v>
       </c>
       <c r="H19" t="n">
         <v>156.0151763859972</v>
@@ -23934,22 +23934,22 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>27.65621884003237</v>
       </c>
       <c r="R19" t="n">
-        <v>97.36231335590594</v>
+        <v>145.8777136505296</v>
       </c>
       <c r="S19" t="n">
         <v>211.8403234308322</v>
       </c>
       <c r="T19" t="n">
-        <v>176.4448740241712</v>
+        <v>224.9602743187949</v>
       </c>
       <c r="U19" t="n">
         <v>237.7655186562142</v>
       </c>
       <c r="V19" t="n">
-        <v>237.0614975843559</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23977,7 +23977,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>333.4149697776381</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -24016,25 +24016,25 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>3.510421890951747</v>
+        <v>52.02582218557539</v>
       </c>
       <c r="S20" t="n">
-        <v>173.5260039260038</v>
+        <v>130.7936393464992</v>
       </c>
       <c r="T20" t="n">
-        <v>173.5450418720561</v>
+        <v>216.2774064515606</v>
       </c>
       <c r="U20" t="n">
         <v>202.7056437156673</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>279.2368581755113</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>321.2157003838454</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24050,7 +24050,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>129.8749439777212</v>
+        <v>124.1930986936921</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -24095,16 +24095,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>5.681845284029038</v>
       </c>
       <c r="S21" t="n">
-        <v>156.2032156881569</v>
+        <v>107.6878153935332</v>
       </c>
       <c r="T21" t="n">
         <v>196.8055600934023</v>
       </c>
       <c r="U21" t="n">
-        <v>177.3711531367089</v>
+        <v>177.3711531367088</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -24116,7 +24116,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>157.1672954826807</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24129,10 +24129,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>118.7314208040042</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>100.1000727235887</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24174,10 +24174,10 @@
         <v>27.65621884003237</v>
       </c>
       <c r="R22" t="n">
-        <v>97.36231335590594</v>
+        <v>145.8777136505296</v>
       </c>
       <c r="S22" t="n">
-        <v>169.1079588513277</v>
+        <v>211.8403234308322</v>
       </c>
       <c r="T22" t="n">
         <v>224.9602743187949</v>
@@ -24186,16 +24186,16 @@
         <v>286.2809189508379</v>
       </c>
       <c r="V22" t="n">
-        <v>203.6222430292044</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>238.0075980419674</v>
+        <v>243.7906337570865</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>170.0692530574711</v>
       </c>
     </row>
     <row r="23">
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>313.7044695963876</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24214,13 +24214,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>321.1292991555664</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>337.8466736746185</v>
       </c>
       <c r="G23" t="n">
-        <v>413.7451262958156</v>
+        <v>344.7157542287227</v>
       </c>
       <c r="H23" t="n">
         <v>323.522916215912</v>
@@ -24265,16 +24265,16 @@
         <v>251.2210440102909</v>
       </c>
       <c r="V23" t="n">
-        <v>258.722886403042</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>300.7017286113761</v>
+        <v>308.9300297617737</v>
       </c>
       <c r="Y23" t="n">
-        <v>317.2085665889607</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24284,7 +24284,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>97.50381158277443</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
@@ -24296,7 +24296,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>132.682351340222</v>
       </c>
       <c r="G24" t="n">
         <v>136.5101216886474</v>
@@ -24332,22 +24332,22 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>48.41420986353356</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>95.40214477146151</v>
+        <v>156.2032156881569</v>
       </c>
       <c r="T24" t="n">
-        <v>127.7761880263094</v>
+        <v>196.8055600934023</v>
       </c>
       <c r="U24" t="n">
-        <v>225.8865534313325</v>
+        <v>156.8571813642396</v>
       </c>
       <c r="V24" t="n">
         <v>163.7712150823324</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>182.6656110938267</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>110.8026081148444</v>
       </c>
       <c r="C25" t="n">
-        <v>134.1019690219648</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24375,7 +24375,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>84.61997710623584</v>
       </c>
       <c r="G25" t="n">
         <v>167.2922885881534</v>
@@ -24408,7 +24408,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>27.65621884003237</v>
       </c>
       <c r="R25" t="n">
         <v>145.8777136505296</v>
@@ -24426,7 +24426,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>217.4936262694981</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24496,19 +24496,19 @@
         <v>104.4966318589109</v>
       </c>
       <c r="T26" t="n">
-        <v>147.2480343844676</v>
+        <v>216.2774064515606</v>
       </c>
       <c r="U26" t="n">
         <v>251.2210440102909</v>
       </c>
       <c r="V26" t="n">
-        <v>258.722886403042</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>280.2115966503201</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>300.7017286113761</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24524,7 +24524,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>103.6791269212228</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -24533,10 +24533,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>132.682351340222</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>136.5101216886474</v>
+        <v>75.70905077195201</v>
       </c>
       <c r="H27" t="n">
         <v>104.1865984690043</v>
@@ -24569,10 +24569,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>48.41420986353356</v>
       </c>
       <c r="S27" t="n">
-        <v>87.17384362106401</v>
+        <v>156.2032156881569</v>
       </c>
       <c r="T27" t="n">
         <v>127.7761880263094</v>
@@ -24581,10 +24581,10 @@
         <v>225.8865534313325</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>163.7712150823324</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>182.6656110938267</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
@@ -24606,7 +24606,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>79.58610095111945</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24645,13 +24645,13 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>27.65621884003237</v>
       </c>
       <c r="R28" t="n">
-        <v>76.84834158343668</v>
+        <v>145.8777136505296</v>
       </c>
       <c r="S28" t="n">
-        <v>142.8109513637393</v>
+        <v>151.0392525141368</v>
       </c>
       <c r="T28" t="n">
         <v>224.9602743187949</v>
@@ -24666,10 +24666,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>156.6802833219442</v>
       </c>
       <c r="Y28" t="n">
-        <v>185.4398012754318</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24679,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>313.7044695963876</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>356.4976430398875</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>373.1551213411418</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>413.7451262958156</v>
+        <v>344.7157542287227</v>
       </c>
       <c r="H29" t="n">
         <v>323.522916215912</v>
       </c>
       <c r="I29" t="n">
-        <v>81.39671097050058</v>
+        <v>150.4260830375935</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24736,7 +24736,7 @@
         <v>147.2480343844676</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2210440102909</v>
+        <v>182.191671943198</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24758,10 +24758,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>97.50381158277443</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>103.6791269212228</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -24773,7 +24773,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>136.5101216886474</v>
+        <v>124.1232606354856</v>
       </c>
       <c r="H30" t="n">
         <v>104.1865984690043</v>
@@ -24809,16 +24809,16 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>156.2032156881569</v>
+        <v>87.17384362106401</v>
       </c>
       <c r="T30" t="n">
-        <v>196.8055600934023</v>
+        <v>127.7761880263094</v>
       </c>
       <c r="U30" t="n">
         <v>225.8865534313325</v>
       </c>
       <c r="V30" t="n">
-        <v>220.4137260962634</v>
+        <v>163.7712150823324</v>
       </c>
       <c r="W30" t="n">
         <v>251.6949831609196</v>
@@ -24827,7 +24827,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>136.6533237102115</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>110.8026081148444</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24882,28 +24882,28 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>27.65621884003237</v>
       </c>
       <c r="R31" t="n">
         <v>145.8777136505296</v>
       </c>
       <c r="S31" t="n">
-        <v>142.8109513637393</v>
+        <v>211.8403234308322</v>
       </c>
       <c r="T31" t="n">
-        <v>155.930902251702</v>
+        <v>164.1592034020995</v>
       </c>
       <c r="U31" t="n">
         <v>286.2809189508379</v>
       </c>
       <c r="V31" t="n">
-        <v>218.992791247165</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>217.4936262694981</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>156.6802833219442</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24919,7 +24919,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>296.2435197039147</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -24931,13 +24931,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>413.7451262958156</v>
+        <v>344.7157542287227</v>
       </c>
       <c r="H32" t="n">
-        <v>323.522916215912</v>
+        <v>254.4935441488191</v>
       </c>
       <c r="I32" t="n">
-        <v>150.4260830375935</v>
+        <v>89.62501212089808</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24970,7 +24970,7 @@
         <v>173.5260039260038</v>
       </c>
       <c r="T32" t="n">
-        <v>155.4763355348651</v>
+        <v>216.2774064515606</v>
       </c>
       <c r="U32" t="n">
         <v>251.2210440102909</v>
@@ -24982,7 +24982,7 @@
         <v>280.2115966503201</v>
       </c>
       <c r="X32" t="n">
-        <v>300.7017286113761</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -24998,7 +24998,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>160.3216379351539</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
@@ -25007,10 +25007,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>76.03984032629097</v>
       </c>
       <c r="G33" t="n">
-        <v>136.5101216886474</v>
+        <v>67.48074962155451</v>
       </c>
       <c r="H33" t="n">
         <v>104.1865984690043</v>
@@ -25043,19 +25043,19 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>48.41420986353356</v>
       </c>
       <c r="S33" t="n">
         <v>87.17384362106401</v>
       </c>
       <c r="T33" t="n">
-        <v>127.7761880263094</v>
+        <v>136.0044891767069</v>
       </c>
       <c r="U33" t="n">
         <v>225.8865534313325</v>
       </c>
       <c r="V33" t="n">
-        <v>163.7712150823324</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
@@ -25119,10 +25119,10 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>27.65621884003237</v>
       </c>
       <c r="R34" t="n">
-        <v>76.84834158343668</v>
+        <v>145.8777136505296</v>
       </c>
       <c r="S34" t="n">
         <v>142.8109513637393</v>
@@ -25134,13 +25134,13 @@
         <v>286.2809189508379</v>
       </c>
       <c r="V34" t="n">
-        <v>218.992791247165</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>217.4936262694981</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>164.9085844723417</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25171,7 +25171,7 @@
         <v>413.7451262958156</v>
       </c>
       <c r="H35" t="n">
-        <v>275.0075159212884</v>
+        <v>323.522916215912</v>
       </c>
       <c r="I35" t="n">
         <v>150.4260830375935</v>
@@ -25201,28 +25201,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>9.293457606070902</v>
+        <v>52.02582218557539</v>
       </c>
       <c r="S35" t="n">
         <v>173.5260039260038</v>
       </c>
       <c r="T35" t="n">
-        <v>167.7620061569369</v>
+        <v>216.2774064515606</v>
       </c>
       <c r="U35" t="n">
         <v>251.2210440102909</v>
       </c>
       <c r="V35" t="n">
-        <v>279.2368581755113</v>
+        <v>285.0198938906304</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>300.7255684227894</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>321.2157003838454</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>337.7225383614299</v>
       </c>
     </row>
     <row r="36">
@@ -25232,7 +25232,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>118.0177833552437</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
@@ -25283,7 +25283,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>156.2032156881569</v>
+        <v>107.6878153935333</v>
       </c>
       <c r="T36" t="n">
         <v>196.8055600934023</v>
@@ -25292,10 +25292,10 @@
         <v>183.0529984207379</v>
       </c>
       <c r="V36" t="n">
-        <v>184.2851868548016</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>203.179582866296</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
@@ -25314,7 +25314,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>118.7314208040042</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25326,10 +25326,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.2922885881534</v>
+        <v>118.7768882935297</v>
       </c>
       <c r="H37" t="n">
-        <v>156.0151763859972</v>
+        <v>107.4997760913736</v>
       </c>
       <c r="I37" t="n">
         <v>134.438937943893</v>
@@ -25368,13 +25368,13 @@
         <v>224.9602743187949</v>
       </c>
       <c r="U37" t="n">
-        <v>237.7655186562142</v>
+        <v>286.2809189508379</v>
       </c>
       <c r="V37" t="n">
-        <v>203.6222430292044</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>238.0075980419674</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25390,22 +25390,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>334.2184413688569</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>306.1676413260593</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>339.1980054927573</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>365.229726001192</v>
+        <v>413.7451262958156</v>
       </c>
       <c r="H38" t="n">
         <v>323.522916215912</v>
@@ -25438,7 +25438,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>3.510421890951747</v>
+        <v>52.02582218557539</v>
       </c>
       <c r="S38" t="n">
         <v>173.5260039260038</v>
@@ -25447,7 +25447,7 @@
         <v>216.2774064515606</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2210440102909</v>
+        <v>202.7056437156673</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25456,10 +25456,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>326.9987360989645</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>337.7225383614299</v>
       </c>
     </row>
     <row r="39">
@@ -25472,7 +25472,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>124.1930986936921</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -25520,7 +25520,7 @@
         <v>48.41420986353356</v>
       </c>
       <c r="S39" t="n">
-        <v>156.2032156881569</v>
+        <v>107.6878153935333</v>
       </c>
       <c r="T39" t="n">
         <v>148.2901597987787</v>
@@ -25529,13 +25529,13 @@
         <v>225.8865534313325</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>184.2851868548016</v>
       </c>
       <c r="W39" t="n">
-        <v>203.179582866296</v>
+        <v>208.9626185814151</v>
       </c>
       <c r="X39" t="n">
-        <v>163.040620623973</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>164.7558344424652</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25563,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.2922885881534</v>
+        <v>118.7768882935297</v>
       </c>
       <c r="H40" t="n">
         <v>156.0151763859972</v>
@@ -25593,25 +25593,25 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>27.65621884003237</v>
       </c>
       <c r="R40" t="n">
-        <v>97.36231335590594</v>
+        <v>145.8777136505296</v>
       </c>
       <c r="S40" t="n">
-        <v>163.3249231362086</v>
+        <v>211.8403234308322</v>
       </c>
       <c r="T40" t="n">
-        <v>176.4448740241712</v>
+        <v>224.9602743187949</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2809189508379</v>
+        <v>237.7655186562142</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>209.4052787443235</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>238.0075980419674</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>340.0014770839761</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25648,7 +25648,7 @@
         <v>323.522916215912</v>
       </c>
       <c r="I41" t="n">
-        <v>101.9106827429698</v>
+        <v>150.4260830375935</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>52.02582218557539</v>
+        <v>3.510421890951747</v>
       </c>
       <c r="S41" t="n">
         <v>173.5260039260038</v>
@@ -25684,16 +25684,16 @@
         <v>216.2774064515606</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2210440102909</v>
+        <v>202.7056437156673</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>279.2368581755113</v>
       </c>
       <c r="W41" t="n">
-        <v>300.7255684227894</v>
+        <v>306.5086041379085</v>
       </c>
       <c r="X41" t="n">
-        <v>321.2157003838454</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -25724,7 +25724,7 @@
         <v>136.5101216886474</v>
       </c>
       <c r="H42" t="n">
-        <v>61.4542338894998</v>
+        <v>104.1865984690043</v>
       </c>
       <c r="I42" t="n">
         <v>60.7029728719357</v>
@@ -25769,7 +25769,7 @@
         <v>184.2851868548016</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>208.9626185814151</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
@@ -25833,13 +25833,13 @@
         <v>27.65621884003237</v>
       </c>
       <c r="R43" t="n">
-        <v>97.36231335590594</v>
+        <v>145.8777136505296</v>
       </c>
       <c r="S43" t="n">
         <v>211.8403234308322</v>
       </c>
       <c r="T43" t="n">
-        <v>224.9602743187949</v>
+        <v>176.4448740241712</v>
       </c>
       <c r="U43" t="n">
         <v>237.7655186562142</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>334.2184413688569</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25876,7 +25876,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>364.143681162207</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>413.7451262958156</v>
@@ -25915,19 +25915,19 @@
         <v>52.02582218557539</v>
       </c>
       <c r="S44" t="n">
-        <v>173.5260039260038</v>
+        <v>125.0106036313801</v>
       </c>
       <c r="T44" t="n">
-        <v>167.7620061569369</v>
+        <v>216.2774064515606</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2210440102909</v>
+        <v>202.7056437156673</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>279.2368581755113</v>
       </c>
       <c r="W44" t="n">
-        <v>300.7255684227894</v>
+        <v>306.5086041379085</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -25943,7 +25943,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>118.0177833552437</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
@@ -25952,10 +25952,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>109.1296801607773</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>102.3368478138794</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
         <v>136.5101216886474</v>
@@ -25991,13 +25991,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>48.41420986353356</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>156.2032156881569</v>
+        <v>107.6878153935333</v>
       </c>
       <c r="T45" t="n">
-        <v>196.8055600934023</v>
+        <v>148.2901597987787</v>
       </c>
       <c r="U45" t="n">
         <v>225.8865534313325</v>
@@ -26006,13 +26006,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>208.861428150325</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>157.1672954826807</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26031,10 +26031,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>97.91856235194552</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>96.9056477283076</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>124.5599240086489</v>
@@ -26079,10 +26079,10 @@
         <v>224.9602743187949</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2809189508379</v>
+        <v>237.7655186562142</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>203.6222430292044</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>308974.870699909</v>
+        <v>308974.8706999091</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>292443.2385250722</v>
+        <v>292443.2385250723</v>
       </c>
     </row>
     <row r="14">
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>614457.2540377789</v>
+      </c>
+      <c r="C2" t="n">
+        <v>614457.2540377788</v>
+      </c>
+      <c r="D2" t="n">
         <v>614457.2540377787</v>
-      </c>
-      <c r="C2" t="n">
-        <v>614457.2540377786</v>
-      </c>
-      <c r="D2" t="n">
-        <v>614457.2540377788</v>
       </c>
       <c r="E2" t="n">
         <v>203391.1621835684</v>
       </c>
       <c r="F2" t="n">
-        <v>203391.1621835685</v>
+        <v>203391.1621835684</v>
       </c>
       <c r="G2" t="n">
         <v>203391.1621835685</v>
@@ -26334,13 +26334,13 @@
         <v>203391.1621835684</v>
       </c>
       <c r="I2" t="n">
-        <v>212108.5252547471</v>
+        <v>212108.5252547472</v>
       </c>
       <c r="J2" t="n">
-        <v>212108.5252547471</v>
+        <v>212108.5252547472</v>
       </c>
       <c r="K2" t="n">
-        <v>212108.5252547471</v>
+        <v>212108.5252547472</v>
       </c>
       <c r="L2" t="n">
         <v>212108.5252547471</v>
@@ -26349,10 +26349,10 @@
         <v>203391.1621835685</v>
       </c>
       <c r="N2" t="n">
-        <v>203391.1621835685</v>
+        <v>203391.1621835684</v>
       </c>
       <c r="O2" t="n">
-        <v>203391.1621835685</v>
+        <v>203391.1621835684</v>
       </c>
       <c r="P2" t="n">
         <v>203391.1621835685</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>5455.095887706799</v>
+        <v>5455.095887706805</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>117678.9229356689</v>
+        <v>117634.787156988</v>
       </c>
       <c r="C6" t="n">
-        <v>117678.9229356688</v>
+        <v>117634.7871569879</v>
       </c>
       <c r="D6" t="n">
-        <v>117678.922935669</v>
+        <v>117634.7871569878</v>
       </c>
       <c r="E6" t="n">
-        <v>-155070.9787669438</v>
+        <v>-168817.3176074319</v>
       </c>
       <c r="F6" t="n">
-        <v>170697.7971229033</v>
+        <v>156951.4582824151</v>
       </c>
       <c r="G6" t="n">
-        <v>170697.7971229033</v>
+        <v>156951.4582824151</v>
       </c>
       <c r="H6" t="n">
-        <v>170697.7971229032</v>
+        <v>156951.4582824151</v>
       </c>
       <c r="I6" t="n">
-        <v>167786.5446876393</v>
+        <v>154330.7846161905</v>
       </c>
       <c r="J6" t="n">
-        <v>173241.6405753461</v>
+        <v>159785.8805038974</v>
       </c>
       <c r="K6" t="n">
-        <v>173241.6405753461</v>
+        <v>159785.8805038973</v>
       </c>
       <c r="L6" t="n">
-        <v>173241.6405753461</v>
+        <v>159785.8805038973</v>
       </c>
       <c r="M6" t="n">
-        <v>163719.7291294683</v>
+        <v>149973.3902889802</v>
       </c>
       <c r="N6" t="n">
-        <v>170697.7971229033</v>
+        <v>156951.4582824151</v>
       </c>
       <c r="O6" t="n">
-        <v>170697.7971229033</v>
+        <v>156951.4582824151</v>
       </c>
       <c r="P6" t="n">
-        <v>170697.7971229033</v>
+        <v>156951.4582824151</v>
       </c>
     </row>
   </sheetData>
@@ -26804,10 +26804,10 @@
         <v>48.51540029462364</v>
       </c>
       <c r="G4" t="n">
-        <v>48.51540029462365</v>
+        <v>48.51540029462364</v>
       </c>
       <c r="H4" t="n">
-        <v>48.51540029462365</v>
+        <v>48.51540029462367</v>
       </c>
       <c r="I4" t="n">
         <v>69.02937206709291</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>20.51397177246926</v>
+        <v>20.51397177246929</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -31855,10 +31855,10 @@
         <v>179.857112377957</v>
       </c>
       <c r="O12" t="n">
-        <v>170.1008107894989</v>
+        <v>191.1116447390681</v>
       </c>
       <c r="P12" t="n">
-        <v>159.1419832084806</v>
+        <v>138.1311492589114</v>
       </c>
       <c r="Q12" t="n">
         <v>106.3822012793335</v>
@@ -32086,10 +32086,10 @@
         <v>180.9528200361945</v>
       </c>
       <c r="M15" t="n">
-        <v>169.6386002670728</v>
+        <v>190.649434216642</v>
       </c>
       <c r="N15" t="n">
-        <v>179.857112377957</v>
+        <v>158.8462784283878</v>
       </c>
       <c r="O15" t="n">
         <v>191.1116447390681</v>
@@ -32326,10 +32326,10 @@
         <v>190.649434216642</v>
       </c>
       <c r="N18" t="n">
-        <v>158.8462784283878</v>
+        <v>179.857112377957</v>
       </c>
       <c r="O18" t="n">
-        <v>191.1116447390681</v>
+        <v>170.1008107894989</v>
       </c>
       <c r="P18" t="n">
         <v>159.1419832084806</v>
@@ -32557,13 +32557,13 @@
         <v>134.575092925413</v>
       </c>
       <c r="L21" t="n">
-        <v>159.9419860866253</v>
+        <v>180.9528200361945</v>
       </c>
       <c r="M21" t="n">
         <v>190.649434216642</v>
       </c>
       <c r="N21" t="n">
-        <v>179.857112377957</v>
+        <v>158.8462784283878</v>
       </c>
       <c r="O21" t="n">
         <v>191.1116447390681</v>
@@ -33748,13 +33748,13 @@
         <v>190.649434216642</v>
       </c>
       <c r="N36" t="n">
-        <v>158.8462784283878</v>
+        <v>179.857112377957</v>
       </c>
       <c r="O36" t="n">
         <v>191.1116447390681</v>
       </c>
       <c r="P36" t="n">
-        <v>159.1419832084806</v>
+        <v>138.1311492589115</v>
       </c>
       <c r="Q36" t="n">
         <v>106.3822012793335</v>
@@ -33982,13 +33982,13 @@
         <v>180.9528200361945</v>
       </c>
       <c r="M39" t="n">
-        <v>169.6386002670728</v>
+        <v>190.649434216642</v>
       </c>
       <c r="N39" t="n">
         <v>179.857112377957</v>
       </c>
       <c r="O39" t="n">
-        <v>191.1116447390681</v>
+        <v>170.1008107894989</v>
       </c>
       <c r="P39" t="n">
         <v>159.1419832084806</v>
@@ -34219,7 +34219,7 @@
         <v>180.9528200361945</v>
       </c>
       <c r="M42" t="n">
-        <v>169.6386002670728</v>
+        <v>190.649434216642</v>
       </c>
       <c r="N42" t="n">
         <v>179.857112377957</v>
@@ -34228,7 +34228,7 @@
         <v>191.1116447390681</v>
       </c>
       <c r="P42" t="n">
-        <v>159.1419832084806</v>
+        <v>138.1311492589115</v>
       </c>
       <c r="Q42" t="n">
         <v>106.3822012793335</v>
@@ -34456,13 +34456,13 @@
         <v>180.9528200361945</v>
       </c>
       <c r="M45" t="n">
-        <v>169.6386002670728</v>
+        <v>190.649434216642</v>
       </c>
       <c r="N45" t="n">
         <v>179.857112377957</v>
       </c>
       <c r="O45" t="n">
-        <v>191.1116447390681</v>
+        <v>170.1008107894989</v>
       </c>
       <c r="P45" t="n">
         <v>159.1419832084806</v>
@@ -35409,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>48.51540029462364</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -35418,19 +35418,19 @@
         <v>10.03631752276405</v>
       </c>
       <c r="M11" t="n">
-        <v>48.51540029462364</v>
+        <v>43.15666778705045</v>
       </c>
       <c r="N11" t="n">
         <v>48.51540029462364</v>
       </c>
       <c r="O11" t="n">
-        <v>32.34175590742021</v>
+        <v>41.87759708571063</v>
       </c>
       <c r="P11" t="n">
-        <v>4.177108670717217</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>48.51540029462364</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35503,10 +35503,10 @@
         <v>48.51540029462364</v>
       </c>
       <c r="O12" t="n">
-        <v>27.50456634505445</v>
+        <v>48.51540029462364</v>
       </c>
       <c r="P12" t="n">
-        <v>25.16757579415039</v>
+        <v>4.156741844581195</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35570,19 +35570,19 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>48.51540029462364</v>
       </c>
       <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>48.51540029462364</v>
+      </c>
+      <c r="O13" t="n">
         <v>46.55518210090148</v>
-      </c>
-      <c r="M13" t="n">
-        <v>48.51540029462364</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>48.51540029462364</v>
       </c>
       <c r="P13" t="n">
         <v>48.51540029462364</v>
@@ -35649,19 +35649,19 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
         <v>48.51540029462364</v>
       </c>
-      <c r="L14" t="n">
-        <v>14.21342619348125</v>
-      </c>
       <c r="M14" t="n">
+        <v>46.55518210090148</v>
+      </c>
+      <c r="N14" t="n">
+        <v>48.51540029462365</v>
+      </c>
+      <c r="O14" t="n">
         <v>48.51540029462364</v>
-      </c>
-      <c r="N14" t="n">
-        <v>48.51540029462364</v>
-      </c>
-      <c r="O14" t="n">
-        <v>32.34175590742021</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -35734,10 +35734,10 @@
         <v>42.39844025632027</v>
       </c>
       <c r="M15" t="n">
+        <v>48.51540029462364</v>
+      </c>
+      <c r="N15" t="n">
         <v>27.50456634505445</v>
-      </c>
-      <c r="N15" t="n">
-        <v>48.51540029462364</v>
       </c>
       <c r="O15" t="n">
         <v>48.51540029462364</v>
@@ -35807,19 +35807,19 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>48.51540029462364</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>46.55518210090148</v>
       </c>
       <c r="M16" t="n">
-        <v>46.55518210090148</v>
+        <v>48.51540029462364</v>
       </c>
       <c r="N16" t="n">
-        <v>48.51540029462364</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>48.51540029462364</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>48.51540029462364</v>
@@ -35883,22 +35883,22 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>19.57215870105449</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>48.51540029462365</v>
+        <v>48.51540029462364</v>
       </c>
       <c r="M17" t="n">
-        <v>43.15666778705045</v>
+        <v>48.51540029462364</v>
       </c>
       <c r="N17" t="n">
-        <v>48.51540029462365</v>
+        <v>48.51540029462364</v>
       </c>
       <c r="O17" t="n">
-        <v>32.34175590742021</v>
+        <v>46.55518210090149</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -35971,13 +35971,13 @@
         <v>42.39844025632027</v>
       </c>
       <c r="M18" t="n">
-        <v>48.51540029462365</v>
+        <v>48.51540029462364</v>
       </c>
       <c r="N18" t="n">
-        <v>27.50456634505447</v>
+        <v>48.51540029462364</v>
       </c>
       <c r="O18" t="n">
-        <v>48.51540029462365</v>
+        <v>27.50456634505445</v>
       </c>
       <c r="P18" t="n">
         <v>25.16757579415039</v>
@@ -36044,22 +36044,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>48.51540029462365</v>
+        <v>48.51540029462364</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>48.51540029462364</v>
       </c>
       <c r="M19" t="n">
-        <v>46.5551821009015</v>
+        <v>48.51540029462364</v>
       </c>
       <c r="N19" t="n">
-        <v>48.51540029462365</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>48.51540029462365</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>46.55518210090149</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36126,22 +36126,22 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>48.51540029462365</v>
+        <v>10.03631752276405</v>
       </c>
       <c r="M20" t="n">
         <v>43.15666778705045</v>
       </c>
       <c r="N20" t="n">
-        <v>48.51540029462365</v>
+        <v>48.51540029462367</v>
       </c>
       <c r="O20" t="n">
         <v>32.34175590742021</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>48.51540029462367</v>
       </c>
       <c r="Q20" t="n">
-        <v>19.57215870105448</v>
+        <v>9.535841178290461</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36205,16 +36205,16 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>21.38760630675111</v>
+        <v>42.39844025632027</v>
       </c>
       <c r="M21" t="n">
-        <v>48.51540029462365</v>
+        <v>48.51540029462367</v>
       </c>
       <c r="N21" t="n">
-        <v>48.51540029462365</v>
+        <v>27.5045663450545</v>
       </c>
       <c r="O21" t="n">
-        <v>48.51540029462365</v>
+        <v>48.51540029462367</v>
       </c>
       <c r="P21" t="n">
         <v>25.16757579415039</v>
@@ -36281,22 +36281,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>48.51540029462365</v>
+        <v>48.51540029462367</v>
       </c>
       <c r="L22" t="n">
+        <v>48.51540029462367</v>
+      </c>
+      <c r="M22" t="n">
         <v>46.5551821009015</v>
       </c>
-      <c r="M22" t="n">
-        <v>48.51540029462365</v>
-      </c>
       <c r="N22" t="n">
-        <v>48.51540029462365</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>48.51540029462367</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36360,7 +36360,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>69.02937206709291</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>10.03631752276405</v>
@@ -36369,16 +36369,16 @@
         <v>43.15666778705045</v>
       </c>
       <c r="N23" t="n">
-        <v>49.73493737888679</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="O23" t="n">
-        <v>32.34175590742021</v>
+        <v>33.56129299168336</v>
       </c>
       <c r="P23" t="n">
         <v>69.02937206709291</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>69.02937206709291</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36436,13 +36436,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>12.01392318030959</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>54.41236343662987</v>
+        <v>42.39844025632027</v>
       </c>
       <c r="M24" t="n">
         <v>69.02937206709291</v>
@@ -36521,19 +36521,19 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>69.02937206709291</v>
       </c>
       <c r="M25" t="n">
-        <v>69.02937206709291</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>69.02937206709291</v>
+        <v>66.2403065290286</v>
       </c>
       <c r="O25" t="n">
         <v>69.02937206709291</v>
       </c>
       <c r="P25" t="n">
-        <v>66.24030652902856</v>
+        <v>69.02937206709291</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36600,22 +36600,22 @@
         <v>69.02937206709291</v>
       </c>
       <c r="L26" t="n">
-        <v>10.03631752276405</v>
+        <v>69.02937206709291</v>
       </c>
       <c r="M26" t="n">
         <v>43.15666778705045</v>
       </c>
       <c r="N26" t="n">
-        <v>48.51540029462365</v>
+        <v>59.77125490165082</v>
       </c>
       <c r="O26" t="n">
         <v>32.34175590742021</v>
       </c>
       <c r="P26" t="n">
-        <v>69.02937206709291</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.219537084263107</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36758,19 +36758,19 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>66.2403065290286</v>
+      </c>
+      <c r="N28" t="n">
         <v>69.02937206709291</v>
-      </c>
-      <c r="M28" t="n">
-        <v>69.02937206709291</v>
-      </c>
-      <c r="N28" t="n">
-        <v>66.24030652902859</v>
       </c>
       <c r="O28" t="n">
         <v>69.02937206709291</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>69.02937206709291</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36837,7 +36837,7 @@
         <v>69.02937206709291</v>
       </c>
       <c r="L29" t="n">
-        <v>69.02937206709291</v>
+        <v>11.2558546070272</v>
       </c>
       <c r="M29" t="n">
         <v>43.15666778705045</v>
@@ -36849,7 +36849,7 @@
         <v>32.34175590742021</v>
       </c>
       <c r="P29" t="n">
-        <v>11.25585460702719</v>
+        <v>69.02937206709291</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>12.01392318030959</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -36928,7 +36928,7 @@
         <v>55.68973936534124</v>
       </c>
       <c r="P30" t="n">
-        <v>37.18149897445998</v>
+        <v>25.16757579415039</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36992,22 +36992,22 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>58.90567221505084</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>69.02937206709291</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>69.02937206709291</v>
       </c>
       <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>66.24030652902859</v>
+      </c>
+      <c r="P31" t="n">
         <v>69.02937206709291</v>
-      </c>
-      <c r="O31" t="n">
-        <v>69.02937206709291</v>
-      </c>
-      <c r="P31" t="n">
-        <v>7.334634313977776</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37077,16 +37077,16 @@
         <v>69.02937206709291</v>
       </c>
       <c r="M32" t="n">
-        <v>43.15666778705045</v>
+        <v>69.02937206709291</v>
       </c>
       <c r="N32" t="n">
-        <v>48.51540029462365</v>
+        <v>69.02937206709291</v>
       </c>
       <c r="O32" t="n">
-        <v>69.02937206709291</v>
+        <v>66.24030652902856</v>
       </c>
       <c r="P32" t="n">
-        <v>43.59761051444738</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37229,22 +37229,22 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>58.90567221505084</v>
       </c>
       <c r="L34" t="n">
         <v>69.02937206709291</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>69.02937206709291</v>
       </c>
       <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>7.334634313977776</v>
+      </c>
+      <c r="P34" t="n">
         <v>69.02937206709291</v>
-      </c>
-      <c r="O34" t="n">
-        <v>69.02937206709291</v>
-      </c>
-      <c r="P34" t="n">
-        <v>66.24030652902856</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37308,10 +37308,10 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="L35" t="n">
-        <v>10.03631752276405</v>
+        <v>19.57215870105449</v>
       </c>
       <c r="M35" t="n">
         <v>43.15666778705045</v>
@@ -37323,10 +37323,10 @@
         <v>32.34175590742021</v>
       </c>
       <c r="P35" t="n">
-        <v>9.535841178290433</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>48.51540029462365</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37396,13 +37396,13 @@
         <v>48.51540029462365</v>
       </c>
       <c r="N36" t="n">
-        <v>27.50456634505447</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="O36" t="n">
         <v>48.51540029462365</v>
       </c>
       <c r="P36" t="n">
-        <v>25.16757579415039</v>
+        <v>4.156741844581223</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37466,22 +37466,22 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
         <v>48.51540029462365</v>
       </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="N37" t="n">
+        <v>46.55518210090149</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
         <v>48.51540029462365</v>
-      </c>
-      <c r="O37" t="n">
-        <v>48.51540029462365</v>
-      </c>
-      <c r="P37" t="n">
-        <v>46.55518210090149</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>41.87759708571064</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -37557,13 +37557,13 @@
         <v>48.51540029462365</v>
       </c>
       <c r="O38" t="n">
+        <v>32.34175590742021</v>
+      </c>
+      <c r="P38" t="n">
+        <v>9.535841178290433</v>
+      </c>
+      <c r="Q38" t="n">
         <v>48.51540029462365</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37630,13 +37630,13 @@
         <v>42.39844025632027</v>
       </c>
       <c r="M39" t="n">
-        <v>27.50456634505448</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="N39" t="n">
         <v>48.51540029462365</v>
       </c>
       <c r="O39" t="n">
-        <v>48.51540029462365</v>
+        <v>27.50456634505447</v>
       </c>
       <c r="P39" t="n">
         <v>25.16757579415039</v>
@@ -37703,22 +37703,22 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="L40" t="n">
         <v>48.51540029462365</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>46.55518210090149</v>
       </c>
       <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
         <v>48.51540029462365</v>
       </c>
-      <c r="O40" t="n">
-        <v>46.55518210090149</v>
-      </c>
       <c r="P40" t="n">
-        <v>48.51540029462365</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>41.87759708571064</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>10.03631752276405</v>
+        <v>46.5551821009015</v>
       </c>
       <c r="M41" t="n">
-        <v>43.15666778705045</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="N41" t="n">
         <v>48.51540029462365</v>
@@ -37867,7 +37867,7 @@
         <v>42.39844025632027</v>
       </c>
       <c r="M42" t="n">
-        <v>27.50456634505448</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="N42" t="n">
         <v>48.51540029462365</v>
@@ -37876,7 +37876,7 @@
         <v>48.51540029462365</v>
       </c>
       <c r="P42" t="n">
-        <v>25.16757579415039</v>
+        <v>4.156741844581223</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37952,10 +37952,10 @@
         <v>48.51540029462365</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>46.55518210090149</v>
       </c>
       <c r="P43" t="n">
-        <v>46.55518210090149</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38016,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>9.535841178290418</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>10.03631752276405</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="M44" t="n">
-        <v>43.15666778705045</v>
+        <v>46.5551821009015</v>
       </c>
       <c r="N44" t="n">
         <v>48.51540029462365</v>
       </c>
       <c r="O44" t="n">
-        <v>32.34175590742021</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>48.51540029462365</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38104,13 +38104,13 @@
         <v>42.39844025632027</v>
       </c>
       <c r="M45" t="n">
-        <v>27.50456634505448</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="N45" t="n">
         <v>48.51540029462365</v>
       </c>
       <c r="O45" t="n">
-        <v>48.51540029462365</v>
+        <v>27.50456634505447</v>
       </c>
       <c r="P45" t="n">
         <v>25.16757579415039</v>
@@ -38186,13 +38186,13 @@
         <v>48.51540029462365</v>
       </c>
       <c r="N46" t="n">
-        <v>48.51540029462365</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
         <v>46.55518210090149</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_22_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_22_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>992939.5163113865</v>
+        <v>1062247.166528242</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>16392615.83457438</v>
+        <v>16392615.83457437</v>
       </c>
     </row>
     <row r="9">
@@ -1378,13 +1378,13 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>42.73236457950448</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>48.51540029462364</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="G11" t="n">
-        <v>48.51540029462364</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1417,16 +1417,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>48.51540029462364</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>42.73236457950449</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1451,13 +1451,13 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>48.51540029462364</v>
+        <v>42.83355501059459</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>42.83355501059458</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1502,7 +1502,7 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -1511,10 +1511,10 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>48.51540029462364</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1530,10 +1530,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>48.51540029462364</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>42.73236457950448</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>48.51540029462364</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>48.51540029462364</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1587,16 +1587,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>42.73236457950449</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>48.51540029462365</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>42.73236457950448</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1621,7 +1621,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1654,28 +1654,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>42.73236457950449</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>48.51540029462364</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>48.51540029462364</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>48.51540029462364</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1697,13 +1697,13 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>48.51540029462364</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>42.73236457950448</v>
       </c>
       <c r="H15" t="n">
-        <v>48.51540029462364</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>48.41420986353356</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -1742,13 +1742,13 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>42.83355501059458</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>15.07614573947211</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1809,22 +1809,22 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>27.65621884003237</v>
       </c>
       <c r="R16" t="n">
-        <v>42.73236457950449</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>48.51540029462364</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="U16" t="n">
-        <v>48.51540029462364</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>48.51540029462364</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1855,16 +1855,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>48.51540029462364</v>
+        <v>48.51540029462367</v>
       </c>
       <c r="G17" t="n">
-        <v>48.51540029462364</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>48.51540029462367</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,16 +1891,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>42.73236457950452</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>48.51540029462364</v>
+        <v>48.51540029462367</v>
       </c>
       <c r="U17" t="n">
-        <v>42.73236457950448</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1928,13 +1928,13 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>48.51540029462364</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>48.51540029462364</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1979,16 +1979,16 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>42.73236457950449</v>
+        <v>42.73236457950452</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>48.51540029462367</v>
       </c>
       <c r="W18" t="n">
-        <v>48.51540029462364</v>
+        <v>48.51540029462367</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>48.51540029462367</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>48.51540029462364</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2013,10 +2013,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>48.51540029462364</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>42.73236457950448</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2055,16 +2055,16 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>42.73236457950452</v>
       </c>
       <c r="U19" t="n">
-        <v>48.51540029462364</v>
+        <v>48.51540029462367</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>48.51540029462367</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>48.51540029462367</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2098,7 +2098,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>42.73236457950451</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2128,25 +2128,25 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>48.51540029462367</v>
       </c>
       <c r="S20" t="n">
-        <v>42.73236457950452</v>
+        <v>48.51540029462367</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>48.51540029462367</v>
       </c>
       <c r="U20" t="n">
-        <v>48.51540029462367</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>48.51540029462367</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>48.51540029462367</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2159,19 +2159,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>48.51540029462367</v>
       </c>
       <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
         <v>48.51540029462367</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2216,7 +2216,7 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>48.51540029462367</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -2241,73 +2241,73 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>42.73236457950452</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
         <v>48.51540029462367</v>
       </c>
-      <c r="D22" t="n">
+      <c r="V22" t="n">
         <v>48.51540029462367</v>
       </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
-      </c>
       <c r="W22" t="n">
-        <v>42.73236457950452</v>
+        <v>48.51540029462367</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>48.51540029462367</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2317,11 +2317,11 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
         <v>69.02937206709291</v>
       </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
@@ -2329,61 +2329,61 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
         <v>69.02937206709291</v>
       </c>
-      <c r="G23" t="n">
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>52.02582218557539</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>8.775248731120021</v>
+      </c>
+      <c r="V23" t="n">
         <v>69.02937206709291</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>60.8010709166954</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2408,13 +2408,13 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
+        <v>69.02937206709291</v>
+      </c>
+      <c r="G24" t="n">
+        <v>69.02937206709291</v>
+      </c>
+      <c r="H24" t="n">
         <v>12.38686105316186</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2453,10 +2453,10 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>69.02937206709291</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>69.02937206709291</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>69.02937206709291</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>69.02937206709291</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>60.80107091669541</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2529,22 +2529,22 @@
         <v>69.02937206709291</v>
       </c>
       <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>60.8010709166954</v>
+      </c>
+      <c r="W25" t="n">
         <v>69.02937206709291</v>
       </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0</v>
-      </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>69.02937206709291</v>
       </c>
     </row>
     <row r="26">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>60.80107091669541</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2602,19 +2602,19 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>52.02582218557539</v>
       </c>
       <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
         <v>69.02937206709291</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>69.02937206709291</v>
@@ -2623,7 +2623,7 @@
         <v>69.02937206709291</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>8.775248731120024</v>
       </c>
     </row>
     <row r="27">
@@ -2633,13 +2633,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>69.02937206709291</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>69.02937206709291</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>69.02937206709291</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -2648,7 +2648,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>60.80107091669541</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2687,19 +2687,19 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>69.02937206709291</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>69.02937206709291</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>69.02937206709291</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>60.8010709166954</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2718,17 +2718,17 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>60.8010709166954</v>
+      </c>
+      <c r="G28" t="n">
         <v>69.02937206709291</v>
       </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>60.8010709166954</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2772,7 +2772,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>69.02937206709291</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2781,7 +2781,7 @@
         <v>69.02937206709291</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>69.02937206709291</v>
       </c>
     </row>
     <row r="29">
@@ -2791,10 +2791,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>69.02937206709291</v>
       </c>
       <c r="C29" t="n">
-        <v>8.775248731120021</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2806,61 +2806,61 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
         <v>69.02937206709291</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>52.02582218557539</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
       <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
         <v>69.02937206709291</v>
       </c>
-      <c r="U29" t="n">
-        <v>69.02937206709291</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>60.8010709166954</v>
       </c>
     </row>
     <row r="30">
@@ -2885,7 +2885,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>12.38686105316186</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2921,10 +2921,10 @@
         <v>48.41420986353356</v>
       </c>
       <c r="S30" t="n">
-        <v>69.02937206709291</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>69.02937206709291</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -2933,13 +2933,13 @@
         <v>69.02937206709291</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>69.02937206709291</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>69.02937206709291</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>12.38686105316186</v>
       </c>
     </row>
     <row r="31">
@@ -3003,13 +3003,13 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
         <v>60.8010709166954</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>69.02937206709291</v>
@@ -3043,13 +3043,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>69.02937206709291</v>
+        <v>8.775248731120053</v>
       </c>
       <c r="H32" t="n">
-        <v>69.02937206709291</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>60.80107091669541</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3076,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>52.02582218557539</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3085,19 +3085,19 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>69.02937206709292</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>69.02937206709292</v>
       </c>
       <c r="W32" t="n">
-        <v>69.02937206709291</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>69.02937206709292</v>
       </c>
     </row>
     <row r="33">
@@ -3113,16 +3113,16 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>69.02937206709292</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>69.02937206709291</v>
+        <v>12.38686105316188</v>
       </c>
       <c r="G33" t="n">
-        <v>69.02937206709291</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3155,22 +3155,22 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>48.41420986353356</v>
       </c>
       <c r="S33" t="n">
-        <v>69.02937206709291</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>60.8010709166954</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>69.02937206709292</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>69.02937206709292</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>69.02937206709292</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3210,7 +3210,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>43.96174265608267</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>69.02937206709292</v>
       </c>
       <c r="S34" t="n">
-        <v>69.02937206709291</v>
+        <v>16.83932826061276</v>
       </c>
       <c r="T34" t="n">
-        <v>69.02937206709291</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3249,10 +3249,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>69.02937206709291</v>
+        <v>69.02937206709292</v>
       </c>
       <c r="X34" t="n">
-        <v>60.80107091669541</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3313,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>42.73236457950449</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3322,19 +3322,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="V35" t="n">
-        <v>42.73236457950449</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="W35" t="n">
         <v>48.51540029462365</v>
       </c>
       <c r="X35" t="n">
-        <v>48.51540029462365</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>48.51540029462365</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3398,16 +3398,16 @@
         <v>48.51540029462365</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="U36" t="n">
+        <v>0</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="n">
         <v>42.83355501059459</v>
-      </c>
-      <c r="V36" t="n">
-        <v>0</v>
-      </c>
-      <c r="W36" t="n">
-        <v>48.51540029462365</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3423,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="C37" t="n">
         <v>48.51540029462365</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>42.73236457950448</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="G37" t="n">
-        <v>48.51540029462365</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>48.51540029462365</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>42.73236457950449</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3508,20 +3508,20 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>42.73236457950448</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
         <v>48.51540029462365</v>
       </c>
-      <c r="E38" t="n">
-        <v>42.73236457950448</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
@@ -3550,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>48.51540029462365</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3629,10 +3629,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>48.41420986353356</v>
       </c>
       <c r="S39" t="n">
-        <v>48.51540029462365</v>
+        <v>42.83355501059459</v>
       </c>
       <c r="T39" t="n">
         <v>48.51540029462365</v>
@@ -3641,10 +3641,10 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="n">
         <v>48.51540029462365</v>
-      </c>
-      <c r="W39" t="n">
-        <v>42.73236457950448</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3669,10 +3669,10 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>42.73236457950449</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="G40" t="n">
         <v>48.51540029462365</v>
@@ -3720,10 +3720,10 @@
         <v>48.51540029462365</v>
       </c>
       <c r="V40" t="n">
-        <v>42.73236457950449</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>48.51540029462365</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3866,22 +3866,22 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>48.41420986353356</v>
       </c>
       <c r="S42" t="n">
         <v>48.51540029462365</v>
       </c>
       <c r="T42" t="n">
+        <v>0</v>
+      </c>
+      <c r="U42" t="n">
         <v>48.51540029462365</v>
       </c>
-      <c r="U42" t="n">
-        <v>0</v>
-      </c>
       <c r="V42" t="n">
-        <v>48.51540029462365</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>42.73236457950448</v>
+        <v>42.83355501059459</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3954,16 +3954,16 @@
         <v>48.51540029462365</v>
       </c>
       <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="n">
         <v>48.51540029462365</v>
       </c>
-      <c r="V43" t="n">
-        <v>0</v>
-      </c>
-      <c r="W43" t="n">
+      <c r="X43" t="n">
         <v>42.73236457950448</v>
-      </c>
-      <c r="X43" t="n">
-        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3988,7 +3988,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -4024,28 +4024,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>42.73236457950449</v>
       </c>
       <c r="S44" t="n">
-        <v>48.51540029462365</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>48.51540029462365</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>48.51540029462365</v>
       </c>
       <c r="W44" t="n">
-        <v>42.73236457950448</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>48.51540029462365</v>
       </c>
     </row>
     <row r="45">
@@ -4143,67 +4143,67 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="G46" t="n">
-        <v>42.73236457950448</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
+        <v>0</v>
+      </c>
+      <c r="X46" t="n">
+        <v>42.73236457950449</v>
+      </c>
+      <c r="Y46" t="n">
         <v>48.51540029462365</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" t="n">
-        <v>0</v>
-      </c>
-      <c r="S46" t="n">
-        <v>0</v>
-      </c>
-      <c r="T46" t="n">
-        <v>0</v>
-      </c>
-      <c r="U46" t="n">
-        <v>48.51540029462365</v>
-      </c>
-      <c r="V46" t="n">
-        <v>48.51540029462365</v>
-      </c>
-      <c r="W46" t="n">
-        <v>0</v>
-      </c>
-      <c r="X46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y46" t="n">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>145.0561463354404</v>
+        <v>101.8921417096783</v>
       </c>
       <c r="C11" t="n">
-        <v>145.0561463354404</v>
+        <v>101.8921417096783</v>
       </c>
       <c r="D11" t="n">
-        <v>145.0561463354404</v>
+        <v>101.8921417096783</v>
       </c>
       <c r="E11" t="n">
         <v>101.8921417096783</v>
       </c>
       <c r="F11" t="n">
-        <v>52.88668686662407</v>
+        <v>52.88668686662408</v>
       </c>
       <c r="G11" t="n">
-        <v>3.881232023569891</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="H11" t="n">
-        <v>3.881232023569891</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="I11" t="n">
-        <v>3.881232023569891</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="J11" t="n">
-        <v>51.91147831524729</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="K11" t="n">
-        <v>51.91147831524729</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="L11" t="n">
-        <v>61.8474326627837</v>
+        <v>23.25766913761382</v>
       </c>
       <c r="M11" t="n">
-        <v>104.5725337719636</v>
+        <v>65.98277024679376</v>
       </c>
       <c r="N11" t="n">
-        <v>152.602780063641</v>
+        <v>114.0130165384712</v>
       </c>
       <c r="O11" t="n">
-        <v>194.0616011784946</v>
+        <v>146.0313548868172</v>
       </c>
       <c r="P11" t="n">
-        <v>194.0616011784946</v>
+        <v>146.0313548868172</v>
       </c>
       <c r="Q11" t="n">
         <v>194.0616011784946</v>
       </c>
       <c r="R11" t="n">
-        <v>145.0561463354404</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="S11" t="n">
-        <v>145.0561463354404</v>
+        <v>150.8975965527325</v>
       </c>
       <c r="T11" t="n">
-        <v>145.0561463354404</v>
+        <v>150.8975965527325</v>
       </c>
       <c r="U11" t="n">
-        <v>145.0561463354404</v>
+        <v>101.8921417096783</v>
       </c>
       <c r="V11" t="n">
-        <v>145.0561463354404</v>
+        <v>101.8921417096783</v>
       </c>
       <c r="W11" t="n">
-        <v>145.0561463354404</v>
+        <v>101.8921417096783</v>
       </c>
       <c r="X11" t="n">
-        <v>145.0561463354404</v>
+        <v>101.8921417096783</v>
       </c>
       <c r="Y11" t="n">
-        <v>145.0561463354404</v>
+        <v>101.8921417096783</v>
       </c>
     </row>
     <row r="12">
@@ -5096,34 +5096,34 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>96.15290404904285</v>
+        <v>47.14744920598867</v>
       </c>
       <c r="C12" t="n">
-        <v>47.14744920598866</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="D12" t="n">
-        <v>47.14744920598866</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="E12" t="n">
-        <v>3.881232023569891</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="F12" t="n">
-        <v>3.881232023569891</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="G12" t="n">
-        <v>3.881232023569891</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="H12" t="n">
-        <v>3.881232023569891</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="I12" t="n">
-        <v>3.881232023569891</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="J12" t="n">
-        <v>3.881232023569891</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="K12" t="n">
-        <v>3.881232023569891</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="L12" t="n">
         <v>45.85568787732696</v>
@@ -5132,10 +5132,10 @@
         <v>93.88593416900437</v>
       </c>
       <c r="N12" t="n">
-        <v>141.9161804606818</v>
+        <v>121.1154548506083</v>
       </c>
       <c r="O12" t="n">
-        <v>189.9464267523592</v>
+        <v>169.1457011422857</v>
       </c>
       <c r="P12" t="n">
         <v>194.0616011784946</v>
@@ -5144,28 +5144,28 @@
         <v>194.0616011784946</v>
       </c>
       <c r="R12" t="n">
-        <v>145.158358892097</v>
+        <v>145.1583588920971</v>
       </c>
       <c r="S12" t="n">
-        <v>145.158358892097</v>
+        <v>145.1583588920971</v>
       </c>
       <c r="T12" t="n">
-        <v>145.158358892097</v>
+        <v>96.15290404904286</v>
       </c>
       <c r="U12" t="n">
-        <v>145.158358892097</v>
+        <v>96.15290404904286</v>
       </c>
       <c r="V12" t="n">
-        <v>145.158358892097</v>
+        <v>96.15290404904286</v>
       </c>
       <c r="W12" t="n">
-        <v>96.15290404904285</v>
+        <v>96.15290404904286</v>
       </c>
       <c r="X12" t="n">
-        <v>96.15290404904285</v>
+        <v>47.14744920598867</v>
       </c>
       <c r="Y12" t="n">
-        <v>96.15290404904285</v>
+        <v>47.14744920598867</v>
       </c>
     </row>
     <row r="13">
@@ -5175,46 +5175,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>96.05069149238618</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="C13" t="n">
-        <v>47.045236649332</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="D13" t="n">
-        <v>3.881232023569891</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="E13" t="n">
-        <v>3.881232023569891</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="F13" t="n">
-        <v>3.881232023569891</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="G13" t="n">
-        <v>3.881232023569891</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="H13" t="n">
-        <v>3.881232023569891</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="I13" t="n">
-        <v>3.881232023569891</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="J13" t="n">
-        <v>3.881232023569891</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="K13" t="n">
-        <v>51.91147831524729</v>
+        <v>51.9114783152473</v>
       </c>
       <c r="L13" t="n">
-        <v>51.91147831524729</v>
+        <v>99.94172460692471</v>
       </c>
       <c r="M13" t="n">
-        <v>51.91147831524729</v>
+        <v>146.0313548868172</v>
       </c>
       <c r="N13" t="n">
-        <v>99.94172460692469</v>
+        <v>146.0313548868172</v>
       </c>
       <c r="O13" t="n">
-        <v>146.0313548868172</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="P13" t="n">
         <v>194.0616011784946</v>
@@ -5223,28 +5223,28 @@
         <v>194.0616011784946</v>
       </c>
       <c r="R13" t="n">
-        <v>145.0561463354404</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="S13" t="n">
-        <v>96.05069149238618</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="T13" t="n">
-        <v>96.05069149238618</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="U13" t="n">
-        <v>96.05069149238618</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="V13" t="n">
-        <v>96.05069149238618</v>
+        <v>150.8975965527325</v>
       </c>
       <c r="W13" t="n">
-        <v>96.05069149238618</v>
+        <v>101.8921417096783</v>
       </c>
       <c r="X13" t="n">
-        <v>96.05069149238618</v>
+        <v>52.88668686662408</v>
       </c>
       <c r="Y13" t="n">
-        <v>96.05069149238618</v>
+        <v>3.881232023569892</v>
       </c>
     </row>
     <row r="14">
@@ -5254,40 +5254,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.881232023569891</v>
+        <v>52.88668686662408</v>
       </c>
       <c r="C14" t="n">
-        <v>3.881232023569891</v>
+        <v>52.88668686662408</v>
       </c>
       <c r="D14" t="n">
-        <v>3.881232023569891</v>
+        <v>52.88668686662408</v>
       </c>
       <c r="E14" t="n">
-        <v>3.881232023569891</v>
+        <v>52.88668686662408</v>
       </c>
       <c r="F14" t="n">
-        <v>3.881232023569891</v>
+        <v>52.88668686662408</v>
       </c>
       <c r="G14" t="n">
-        <v>3.881232023569891</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="H14" t="n">
-        <v>3.881232023569891</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="I14" t="n">
-        <v>3.881232023569891</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="J14" t="n">
-        <v>3.881232023569891</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="K14" t="n">
-        <v>3.881232023569891</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="L14" t="n">
-        <v>51.91147831524729</v>
+        <v>51.9114783152473</v>
       </c>
       <c r="M14" t="n">
-        <v>98.00110859513975</v>
+        <v>98.00110859513978</v>
       </c>
       <c r="N14" t="n">
         <v>146.0313548868172</v>
@@ -5302,28 +5302,28 @@
         <v>194.0616011784946</v>
       </c>
       <c r="R14" t="n">
-        <v>194.0616011784946</v>
+        <v>150.8975965527325</v>
       </c>
       <c r="S14" t="n">
-        <v>194.0616011784946</v>
+        <v>101.8921417096783</v>
       </c>
       <c r="T14" t="n">
-        <v>194.0616011784946</v>
+        <v>52.88668686662408</v>
       </c>
       <c r="U14" t="n">
-        <v>194.0616011784946</v>
+        <v>52.88668686662408</v>
       </c>
       <c r="V14" t="n">
-        <v>145.0561463354404</v>
+        <v>52.88668686662408</v>
       </c>
       <c r="W14" t="n">
-        <v>96.05069149238618</v>
+        <v>52.88668686662408</v>
       </c>
       <c r="X14" t="n">
-        <v>96.05069149238618</v>
+        <v>52.88668686662408</v>
       </c>
       <c r="Y14" t="n">
-        <v>47.045236649332</v>
+        <v>52.88668686662408</v>
       </c>
     </row>
     <row r="15">
@@ -5333,34 +5333,34 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>101.8921417096783</v>
+        <v>47.045236649332</v>
       </c>
       <c r="C15" t="n">
-        <v>101.8921417096783</v>
+        <v>47.045236649332</v>
       </c>
       <c r="D15" t="n">
-        <v>101.8921417096783</v>
+        <v>47.045236649332</v>
       </c>
       <c r="E15" t="n">
-        <v>101.8921417096783</v>
+        <v>47.045236649332</v>
       </c>
       <c r="F15" t="n">
-        <v>52.88668686662407</v>
+        <v>47.045236649332</v>
       </c>
       <c r="G15" t="n">
-        <v>52.88668686662407</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="H15" t="n">
-        <v>3.881232023569891</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="I15" t="n">
-        <v>3.881232023569891</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="J15" t="n">
-        <v>3.881232023569891</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="K15" t="n">
-        <v>3.881232023569891</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="L15" t="n">
         <v>45.85568787732696</v>
@@ -5369,10 +5369,10 @@
         <v>93.88593416900437</v>
       </c>
       <c r="N15" t="n">
-        <v>121.1154548506083</v>
+        <v>141.9161804606818</v>
       </c>
       <c r="O15" t="n">
-        <v>169.1457011422857</v>
+        <v>189.9464267523592</v>
       </c>
       <c r="P15" t="n">
         <v>194.0616011784946</v>
@@ -5381,28 +5381,28 @@
         <v>194.0616011784946</v>
       </c>
       <c r="R15" t="n">
-        <v>145.158358892097</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="S15" t="n">
-        <v>145.158358892097</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="T15" t="n">
-        <v>145.158358892097</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="U15" t="n">
-        <v>101.8921417096783</v>
+        <v>145.0561463354404</v>
       </c>
       <c r="V15" t="n">
-        <v>101.8921417096783</v>
+        <v>96.05069149238619</v>
       </c>
       <c r="W15" t="n">
-        <v>101.8921417096783</v>
+        <v>47.045236649332</v>
       </c>
       <c r="X15" t="n">
-        <v>101.8921417096783</v>
+        <v>47.045236649332</v>
       </c>
       <c r="Y15" t="n">
-        <v>101.8921417096783</v>
+        <v>47.045236649332</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3.881232023569891</v>
+        <v>52.88668686662408</v>
       </c>
       <c r="C16" t="n">
-        <v>3.881232023569891</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="D16" t="n">
-        <v>3.881232023569891</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="E16" t="n">
-        <v>3.881232023569891</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="F16" t="n">
-        <v>3.881232023569891</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="G16" t="n">
-        <v>3.881232023569891</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="H16" t="n">
-        <v>3.881232023569891</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="I16" t="n">
-        <v>3.881232023569891</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="J16" t="n">
-        <v>3.881232023569891</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="K16" t="n">
-        <v>51.91147831524729</v>
+        <v>49.97086230346238</v>
       </c>
       <c r="L16" t="n">
-        <v>98.00110859513975</v>
+        <v>98.00110859513978</v>
       </c>
       <c r="M16" t="n">
         <v>146.0313548868172</v>
       </c>
       <c r="N16" t="n">
-        <v>146.0313548868172</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="O16" t="n">
-        <v>146.0313548868172</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="P16" t="n">
         <v>194.0616011784946</v>
       </c>
       <c r="Q16" t="n">
-        <v>194.0616011784946</v>
+        <v>166.1260265926033</v>
       </c>
       <c r="R16" t="n">
-        <v>150.8975965527324</v>
+        <v>117.1205717495491</v>
       </c>
       <c r="S16" t="n">
-        <v>150.8975965527324</v>
+        <v>117.1205717495491</v>
       </c>
       <c r="T16" t="n">
-        <v>101.8921417096783</v>
+        <v>68.1151169064949</v>
       </c>
       <c r="U16" t="n">
-        <v>52.88668686662407</v>
+        <v>68.1151169064949</v>
       </c>
       <c r="V16" t="n">
-        <v>3.881232023569891</v>
+        <v>68.1151169064949</v>
       </c>
       <c r="W16" t="n">
-        <v>3.881232023569891</v>
+        <v>68.1151169064949</v>
       </c>
       <c r="X16" t="n">
-        <v>3.881232023569891</v>
+        <v>68.1151169064949</v>
       </c>
       <c r="Y16" t="n">
-        <v>3.881232023569891</v>
+        <v>68.1151169064949</v>
       </c>
     </row>
     <row r="17">
@@ -5503,49 +5503,49 @@
         <v>101.8921417096783</v>
       </c>
       <c r="F17" t="n">
-        <v>52.88668686662407</v>
+        <v>52.88668686662411</v>
       </c>
       <c r="G17" t="n">
-        <v>3.881232023569891</v>
+        <v>52.88668686662411</v>
       </c>
       <c r="H17" t="n">
-        <v>3.881232023569891</v>
+        <v>52.88668686662411</v>
       </c>
       <c r="I17" t="n">
-        <v>3.881232023569891</v>
+        <v>3.881232023569894</v>
       </c>
       <c r="J17" t="n">
-        <v>3.881232023569891</v>
+        <v>3.881232023569894</v>
       </c>
       <c r="K17" t="n">
-        <v>3.881232023569891</v>
+        <v>3.881232023569894</v>
       </c>
       <c r="L17" t="n">
-        <v>51.91147831524729</v>
+        <v>51.91147831524733</v>
       </c>
       <c r="M17" t="n">
-        <v>99.94172460692469</v>
+        <v>98.00110859513984</v>
       </c>
       <c r="N17" t="n">
-        <v>147.9719708986021</v>
+        <v>146.0313548868173</v>
       </c>
       <c r="O17" t="n">
-        <v>194.0616011784946</v>
+        <v>194.0616011784947</v>
       </c>
       <c r="P17" t="n">
-        <v>194.0616011784946</v>
+        <v>194.0616011784947</v>
       </c>
       <c r="Q17" t="n">
-        <v>194.0616011784946</v>
+        <v>194.0616011784947</v>
       </c>
       <c r="R17" t="n">
-        <v>194.0616011784946</v>
+        <v>150.8975965527326</v>
       </c>
       <c r="S17" t="n">
-        <v>194.0616011784946</v>
+        <v>150.8975965527326</v>
       </c>
       <c r="T17" t="n">
-        <v>145.0561463354404</v>
+        <v>101.8921417096783</v>
       </c>
       <c r="U17" t="n">
         <v>101.8921417096783</v>
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>101.8921417096783</v>
+        <v>3.881232023569894</v>
       </c>
       <c r="C18" t="n">
-        <v>101.8921417096783</v>
+        <v>3.881232023569894</v>
       </c>
       <c r="D18" t="n">
-        <v>52.88668686662407</v>
+        <v>3.881232023569894</v>
       </c>
       <c r="E18" t="n">
-        <v>52.88668686662407</v>
+        <v>3.881232023569894</v>
       </c>
       <c r="F18" t="n">
-        <v>3.881232023569891</v>
+        <v>3.881232023569894</v>
       </c>
       <c r="G18" t="n">
-        <v>3.881232023569891</v>
+        <v>3.881232023569894</v>
       </c>
       <c r="H18" t="n">
-        <v>3.881232023569891</v>
+        <v>3.881232023569894</v>
       </c>
       <c r="I18" t="n">
-        <v>3.881232023569891</v>
+        <v>3.881232023569894</v>
       </c>
       <c r="J18" t="n">
-        <v>3.881232023569891</v>
+        <v>3.881232023569894</v>
       </c>
       <c r="K18" t="n">
-        <v>3.881232023569891</v>
+        <v>3.881232023569894</v>
       </c>
       <c r="L18" t="n">
         <v>45.85568787732696</v>
       </c>
       <c r="M18" t="n">
-        <v>93.88593416900437</v>
+        <v>73.08520855893096</v>
       </c>
       <c r="N18" t="n">
-        <v>141.9161804606818</v>
+        <v>121.1154548506084</v>
       </c>
       <c r="O18" t="n">
-        <v>169.1457011422857</v>
+        <v>169.1457011422858</v>
       </c>
       <c r="P18" t="n">
-        <v>194.0616011784946</v>
+        <v>194.0616011784947</v>
       </c>
       <c r="Q18" t="n">
-        <v>194.0616011784946</v>
+        <v>194.0616011784947</v>
       </c>
       <c r="R18" t="n">
-        <v>194.0616011784946</v>
+        <v>194.0616011784947</v>
       </c>
       <c r="S18" t="n">
-        <v>194.0616011784946</v>
+        <v>194.0616011784947</v>
       </c>
       <c r="T18" t="n">
-        <v>194.0616011784946</v>
+        <v>194.0616011784947</v>
       </c>
       <c r="U18" t="n">
-        <v>150.8975965527324</v>
+        <v>150.8975965527326</v>
       </c>
       <c r="V18" t="n">
-        <v>150.8975965527324</v>
+        <v>101.8921417096783</v>
       </c>
       <c r="W18" t="n">
-        <v>101.8921417096783</v>
+        <v>52.88668686662411</v>
       </c>
       <c r="X18" t="n">
-        <v>101.8921417096783</v>
+        <v>3.881232023569894</v>
       </c>
       <c r="Y18" t="n">
-        <v>101.8921417096783</v>
+        <v>3.881232023569894</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>96.05069149238618</v>
+        <v>3.881232023569894</v>
       </c>
       <c r="C19" t="n">
-        <v>96.05069149238618</v>
+        <v>3.881232023569894</v>
       </c>
       <c r="D19" t="n">
-        <v>96.05069149238618</v>
+        <v>3.881232023569894</v>
       </c>
       <c r="E19" t="n">
-        <v>96.05069149238618</v>
+        <v>3.881232023569894</v>
       </c>
       <c r="F19" t="n">
-        <v>47.045236649332</v>
+        <v>3.881232023569894</v>
       </c>
       <c r="G19" t="n">
-        <v>3.881232023569891</v>
+        <v>3.881232023569894</v>
       </c>
       <c r="H19" t="n">
-        <v>3.881232023569891</v>
+        <v>3.881232023569894</v>
       </c>
       <c r="I19" t="n">
-        <v>3.881232023569891</v>
+        <v>3.881232023569894</v>
       </c>
       <c r="J19" t="n">
-        <v>3.881232023569891</v>
+        <v>3.881232023569894</v>
       </c>
       <c r="K19" t="n">
-        <v>51.91147831524729</v>
+        <v>3.881232023569894</v>
       </c>
       <c r="L19" t="n">
-        <v>99.94172460692469</v>
+        <v>51.91147831524733</v>
       </c>
       <c r="M19" t="n">
-        <v>147.9719708986021</v>
+        <v>99.94172460692477</v>
       </c>
       <c r="N19" t="n">
-        <v>147.9719708986021</v>
+        <v>147.9719708986022</v>
       </c>
       <c r="O19" t="n">
-        <v>147.9719708986021</v>
+        <v>194.0616011784947</v>
       </c>
       <c r="P19" t="n">
-        <v>194.0616011784946</v>
+        <v>194.0616011784947</v>
       </c>
       <c r="Q19" t="n">
-        <v>194.0616011784946</v>
+        <v>194.0616011784947</v>
       </c>
       <c r="R19" t="n">
-        <v>194.0616011784946</v>
+        <v>194.0616011784947</v>
       </c>
       <c r="S19" t="n">
-        <v>194.0616011784946</v>
+        <v>194.0616011784947</v>
       </c>
       <c r="T19" t="n">
-        <v>194.0616011784946</v>
+        <v>150.8975965527326</v>
       </c>
       <c r="U19" t="n">
-        <v>145.0561463354404</v>
+        <v>101.8921417096783</v>
       </c>
       <c r="V19" t="n">
-        <v>145.0561463354404</v>
+        <v>52.88668686662411</v>
       </c>
       <c r="W19" t="n">
-        <v>145.0561463354404</v>
+        <v>3.881232023569894</v>
       </c>
       <c r="X19" t="n">
-        <v>145.0561463354404</v>
+        <v>3.881232023569894</v>
       </c>
       <c r="Y19" t="n">
-        <v>145.0561463354404</v>
+        <v>3.881232023569894</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>3.881232023569893</v>
+        <v>47.04523664933203</v>
       </c>
       <c r="C20" t="n">
-        <v>3.881232023569893</v>
+        <v>47.04523664933203</v>
       </c>
       <c r="D20" t="n">
-        <v>3.881232023569893</v>
+        <v>47.04523664933203</v>
       </c>
       <c r="E20" t="n">
-        <v>3.881232023569893</v>
+        <v>47.04523664933203</v>
       </c>
       <c r="F20" t="n">
-        <v>3.881232023569893</v>
+        <v>47.04523664933203</v>
       </c>
       <c r="G20" t="n">
-        <v>3.881232023569893</v>
+        <v>47.04523664933203</v>
       </c>
       <c r="H20" t="n">
-        <v>3.881232023569893</v>
+        <v>3.881232023569894</v>
       </c>
       <c r="I20" t="n">
-        <v>3.881232023569893</v>
+        <v>3.881232023569894</v>
       </c>
       <c r="J20" t="n">
-        <v>3.881232023569893</v>
+        <v>3.881232023569894</v>
       </c>
       <c r="K20" t="n">
-        <v>3.881232023569893</v>
+        <v>23.2576691376139</v>
       </c>
       <c r="L20" t="n">
-        <v>13.8171863711063</v>
+        <v>71.28791542929133</v>
       </c>
       <c r="M20" t="n">
-        <v>56.54228748028625</v>
+        <v>114.0130165384713</v>
       </c>
       <c r="N20" t="n">
-        <v>104.5725337719637</v>
+        <v>162.0432628301487</v>
       </c>
       <c r="O20" t="n">
-        <v>136.5908721203097</v>
+        <v>194.0616011784947</v>
       </c>
       <c r="P20" t="n">
-        <v>184.6211184119871</v>
+        <v>194.0616011784947</v>
       </c>
       <c r="Q20" t="n">
         <v>194.0616011784947</v>
       </c>
       <c r="R20" t="n">
-        <v>194.0616011784947</v>
+        <v>145.0561463354405</v>
       </c>
       <c r="S20" t="n">
-        <v>150.8975965527325</v>
+        <v>96.05069149238625</v>
       </c>
       <c r="T20" t="n">
-        <v>150.8975965527325</v>
+        <v>47.04523664933203</v>
       </c>
       <c r="U20" t="n">
-        <v>101.8921417096783</v>
+        <v>47.04523664933203</v>
       </c>
       <c r="V20" t="n">
-        <v>52.8866868666241</v>
+        <v>47.04523664933203</v>
       </c>
       <c r="W20" t="n">
-        <v>52.8866868666241</v>
+        <v>47.04523664933203</v>
       </c>
       <c r="X20" t="n">
-        <v>3.881232023569893</v>
+        <v>47.04523664933203</v>
       </c>
       <c r="Y20" t="n">
-        <v>3.881232023569893</v>
+        <v>47.04523664933203</v>
       </c>
     </row>
     <row r="21">
@@ -5807,34 +5807,34 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>52.8866868666241</v>
+        <v>52.88668686662411</v>
       </c>
       <c r="C21" t="n">
-        <v>3.881232023569893</v>
+        <v>52.88668686662411</v>
       </c>
       <c r="D21" t="n">
-        <v>3.881232023569893</v>
+        <v>52.88668686662411</v>
       </c>
       <c r="E21" t="n">
-        <v>3.881232023569893</v>
+        <v>52.88668686662411</v>
       </c>
       <c r="F21" t="n">
-        <v>3.881232023569893</v>
+        <v>3.881232023569894</v>
       </c>
       <c r="G21" t="n">
-        <v>3.881232023569893</v>
+        <v>3.881232023569894</v>
       </c>
       <c r="H21" t="n">
-        <v>3.881232023569893</v>
+        <v>3.881232023569894</v>
       </c>
       <c r="I21" t="n">
-        <v>3.881232023569893</v>
+        <v>3.881232023569894</v>
       </c>
       <c r="J21" t="n">
-        <v>3.881232023569893</v>
+        <v>3.881232023569894</v>
       </c>
       <c r="K21" t="n">
-        <v>3.881232023569893</v>
+        <v>3.881232023569894</v>
       </c>
       <c r="L21" t="n">
         <v>45.85568787732696</v>
@@ -5843,7 +5843,7 @@
         <v>93.8859341690044</v>
       </c>
       <c r="N21" t="n">
-        <v>121.1154548506084</v>
+        <v>141.9161804606818</v>
       </c>
       <c r="O21" t="n">
         <v>169.1457011422858</v>
@@ -5855,7 +5855,7 @@
         <v>194.0616011784947</v>
       </c>
       <c r="R21" t="n">
-        <v>150.8975965527325</v>
+        <v>150.8975965527326</v>
       </c>
       <c r="S21" t="n">
         <v>101.8921417096783</v>
@@ -5864,19 +5864,19 @@
         <v>101.8921417096783</v>
       </c>
       <c r="U21" t="n">
-        <v>52.8866868666241</v>
+        <v>101.8921417096783</v>
       </c>
       <c r="V21" t="n">
-        <v>52.8866868666241</v>
+        <v>101.8921417096783</v>
       </c>
       <c r="W21" t="n">
-        <v>52.8866868666241</v>
+        <v>101.8921417096783</v>
       </c>
       <c r="X21" t="n">
-        <v>52.8866868666241</v>
+        <v>101.8921417096783</v>
       </c>
       <c r="Y21" t="n">
-        <v>52.8866868666241</v>
+        <v>101.8921417096783</v>
       </c>
     </row>
     <row r="22">
@@ -5886,46 +5886,46 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>101.8921417096783</v>
+        <v>3.881232023569894</v>
       </c>
       <c r="C22" t="n">
-        <v>52.8866868666241</v>
+        <v>3.881232023569894</v>
       </c>
       <c r="D22" t="n">
-        <v>3.881232023569893</v>
+        <v>3.881232023569894</v>
       </c>
       <c r="E22" t="n">
-        <v>3.881232023569893</v>
+        <v>3.881232023569894</v>
       </c>
       <c r="F22" t="n">
-        <v>3.881232023569893</v>
+        <v>3.881232023569894</v>
       </c>
       <c r="G22" t="n">
-        <v>3.881232023569893</v>
+        <v>3.881232023569894</v>
       </c>
       <c r="H22" t="n">
-        <v>3.881232023569893</v>
+        <v>3.881232023569894</v>
       </c>
       <c r="I22" t="n">
-        <v>3.881232023569893</v>
+        <v>3.881232023569894</v>
       </c>
       <c r="J22" t="n">
-        <v>3.881232023569893</v>
+        <v>3.881232023569894</v>
       </c>
       <c r="K22" t="n">
-        <v>51.91147831524732</v>
+        <v>51.91147831524733</v>
       </c>
       <c r="L22" t="n">
-        <v>99.94172460692475</v>
+        <v>99.94172460692477</v>
       </c>
       <c r="M22" t="n">
-        <v>146.0313548868172</v>
+        <v>146.0313548868173</v>
       </c>
       <c r="N22" t="n">
-        <v>146.0313548868172</v>
+        <v>194.0616011784947</v>
       </c>
       <c r="O22" t="n">
-        <v>146.0313548868172</v>
+        <v>194.0616011784947</v>
       </c>
       <c r="P22" t="n">
         <v>194.0616011784947</v>
@@ -5934,28 +5934,28 @@
         <v>194.0616011784947</v>
       </c>
       <c r="R22" t="n">
-        <v>194.0616011784947</v>
+        <v>150.8975965527326</v>
       </c>
       <c r="S22" t="n">
-        <v>194.0616011784947</v>
+        <v>150.8975965527326</v>
       </c>
       <c r="T22" t="n">
-        <v>194.0616011784947</v>
+        <v>150.8975965527326</v>
       </c>
       <c r="U22" t="n">
-        <v>194.0616011784947</v>
+        <v>101.8921417096783</v>
       </c>
       <c r="V22" t="n">
-        <v>194.0616011784947</v>
+        <v>52.88668686662411</v>
       </c>
       <c r="W22" t="n">
-        <v>150.8975965527325</v>
+        <v>3.881232023569894</v>
       </c>
       <c r="X22" t="n">
-        <v>150.8975965527325</v>
+        <v>3.881232023569894</v>
       </c>
       <c r="Y22" t="n">
-        <v>101.8921417096783</v>
+        <v>3.881232023569894</v>
       </c>
     </row>
     <row r="23">
@@ -5968,73 +5968,73 @@
         <v>144.9756266685854</v>
       </c>
       <c r="C23" t="n">
-        <v>144.9756266685854</v>
+        <v>75.24898821697644</v>
       </c>
       <c r="D23" t="n">
-        <v>144.9756266685854</v>
+        <v>75.24898821697644</v>
       </c>
       <c r="E23" t="n">
-        <v>144.9756266685854</v>
+        <v>75.24898821697644</v>
       </c>
       <c r="F23" t="n">
         <v>75.24898821697644</v>
       </c>
       <c r="G23" t="n">
-        <v>5.522349765367433</v>
+        <v>75.24898821697644</v>
       </c>
       <c r="H23" t="n">
-        <v>5.522349765367433</v>
+        <v>75.24898821697644</v>
       </c>
       <c r="I23" t="n">
         <v>5.522349765367433</v>
       </c>
       <c r="J23" t="n">
-        <v>5.522349765367433</v>
+        <v>49.45479258796789</v>
       </c>
       <c r="K23" t="n">
-        <v>5.522349765367433</v>
+        <v>117.7938709343899</v>
       </c>
       <c r="L23" t="n">
-        <v>15.45830411290384</v>
+        <v>127.7298252819263</v>
       </c>
       <c r="M23" t="n">
-        <v>58.18340522208379</v>
+        <v>196.0689036283482</v>
       </c>
       <c r="N23" t="n">
-        <v>106.2136515137612</v>
+        <v>244.0991499200256</v>
       </c>
       <c r="O23" t="n">
-        <v>139.4393315755277</v>
+        <v>276.1174882683716</v>
       </c>
       <c r="P23" t="n">
-        <v>207.7784099219497</v>
+        <v>276.1174882683716</v>
       </c>
       <c r="Q23" t="n">
         <v>276.1174882683716</v>
       </c>
       <c r="R23" t="n">
-        <v>276.1174882683716</v>
+        <v>223.5661527273864</v>
       </c>
       <c r="S23" t="n">
-        <v>276.1174882683716</v>
+        <v>223.5661527273864</v>
       </c>
       <c r="T23" t="n">
-        <v>276.1174882683716</v>
+        <v>223.5661527273864</v>
       </c>
       <c r="U23" t="n">
-        <v>276.1174882683716</v>
+        <v>214.7022651201945</v>
       </c>
       <c r="V23" t="n">
-        <v>276.1174882683716</v>
+        <v>144.9756266685854</v>
       </c>
       <c r="W23" t="n">
-        <v>276.1174882683716</v>
+        <v>144.9756266685854</v>
       </c>
       <c r="X23" t="n">
-        <v>214.7022651201945</v>
+        <v>144.9756266685854</v>
       </c>
       <c r="Y23" t="n">
-        <v>214.7022651201945</v>
+        <v>144.9756266685854</v>
       </c>
     </row>
     <row r="24">
@@ -6044,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
+        <v>157.4876075303651</v>
+      </c>
+      <c r="C24" t="n">
+        <v>157.4876075303651</v>
+      </c>
+      <c r="D24" t="n">
+        <v>157.4876075303651</v>
+      </c>
+      <c r="E24" t="n">
+        <v>157.4876075303651</v>
+      </c>
+      <c r="F24" t="n">
+        <v>87.76096907875609</v>
+      </c>
+      <c r="G24" t="n">
         <v>18.03433062714709</v>
-      </c>
-      <c r="C24" t="n">
-        <v>18.03433062714709</v>
-      </c>
-      <c r="D24" t="n">
-        <v>18.03433062714709</v>
-      </c>
-      <c r="E24" t="n">
-        <v>18.03433062714709</v>
-      </c>
-      <c r="F24" t="n">
-        <v>5.522349765367433</v>
-      </c>
-      <c r="G24" t="n">
-        <v>5.522349765367433</v>
       </c>
       <c r="H24" t="n">
         <v>5.522349765367433</v>
@@ -6068,22 +6068,22 @@
         <v>5.522349765367433</v>
       </c>
       <c r="J24" t="n">
-        <v>17.41613371387393</v>
+        <v>5.522349765367433</v>
       </c>
       <c r="K24" t="n">
-        <v>17.41613371387393</v>
+        <v>5.522349765367433</v>
       </c>
       <c r="L24" t="n">
-        <v>59.390589567631</v>
+        <v>47.4968056191245</v>
       </c>
       <c r="M24" t="n">
-        <v>127.729667914053</v>
+        <v>115.8358839655465</v>
       </c>
       <c r="N24" t="n">
-        <v>196.0687462604749</v>
+        <v>184.1749623119684</v>
       </c>
       <c r="O24" t="n">
-        <v>251.2015882321627</v>
+        <v>239.3078042836563</v>
       </c>
       <c r="P24" t="n">
         <v>276.1174882683716</v>
@@ -6101,19 +6101,19 @@
         <v>227.2142459819741</v>
       </c>
       <c r="U24" t="n">
+        <v>227.2142459819741</v>
+      </c>
+      <c r="V24" t="n">
+        <v>227.2142459819741</v>
+      </c>
+      <c r="W24" t="n">
         <v>157.4876075303651</v>
       </c>
-      <c r="V24" t="n">
-        <v>87.76096907875609</v>
-      </c>
-      <c r="W24" t="n">
-        <v>18.03433062714709</v>
-      </c>
       <c r="X24" t="n">
-        <v>18.03433062714709</v>
+        <v>157.4876075303651</v>
       </c>
       <c r="Y24" t="n">
-        <v>18.03433062714709</v>
+        <v>157.4876075303651</v>
       </c>
     </row>
     <row r="25">
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>66.93757291354461</v>
+        <v>5.522349765367433</v>
       </c>
       <c r="C25" t="n">
-        <v>66.93757291354461</v>
+        <v>5.522349765367433</v>
       </c>
       <c r="D25" t="n">
-        <v>66.93757291354461</v>
+        <v>5.522349765367433</v>
       </c>
       <c r="E25" t="n">
-        <v>66.93757291354461</v>
+        <v>5.522349765367433</v>
       </c>
       <c r="F25" t="n">
         <v>5.522349765367433</v>
@@ -6150,19 +6150,19 @@
         <v>5.522349765367433</v>
       </c>
       <c r="K25" t="n">
-        <v>5.522349765367433</v>
+        <v>63.83896525826776</v>
       </c>
       <c r="L25" t="n">
-        <v>73.86142811178941</v>
+        <v>132.1780436046897</v>
       </c>
       <c r="M25" t="n">
-        <v>73.86142811178941</v>
+        <v>200.5171219511117</v>
       </c>
       <c r="N25" t="n">
-        <v>139.4393315755277</v>
+        <v>268.8562002975336</v>
       </c>
       <c r="O25" t="n">
-        <v>207.7784099219497</v>
+        <v>276.1174882683716</v>
       </c>
       <c r="P25" t="n">
         <v>276.1174882683716</v>
@@ -6177,22 +6177,22 @@
         <v>206.3908498167626</v>
       </c>
       <c r="T25" t="n">
-        <v>136.6642113651536</v>
+        <v>206.3908498167626</v>
       </c>
       <c r="U25" t="n">
-        <v>136.6642113651536</v>
+        <v>206.3908498167626</v>
       </c>
       <c r="V25" t="n">
-        <v>136.6642113651536</v>
+        <v>144.9756266685854</v>
       </c>
       <c r="W25" t="n">
-        <v>136.6642113651536</v>
+        <v>75.24898821697644</v>
       </c>
       <c r="X25" t="n">
-        <v>136.6642113651536</v>
+        <v>75.24898821697644</v>
       </c>
       <c r="Y25" t="n">
-        <v>136.6642113651536</v>
+        <v>5.522349765367433</v>
       </c>
     </row>
     <row r="26">
@@ -6226,19 +6226,19 @@
         <v>5.522349765367433</v>
       </c>
       <c r="J26" t="n">
-        <v>5.522349765367433</v>
+        <v>73.86142811178941</v>
       </c>
       <c r="K26" t="n">
         <v>73.86142811178941</v>
       </c>
       <c r="L26" t="n">
-        <v>142.2005064582114</v>
+        <v>83.79738245932582</v>
       </c>
       <c r="M26" t="n">
-        <v>184.9256075673913</v>
+        <v>152.1364608057478</v>
       </c>
       <c r="N26" t="n">
-        <v>244.0991499200256</v>
+        <v>220.4755391521697</v>
       </c>
       <c r="O26" t="n">
         <v>276.1174882683716</v>
@@ -6250,28 +6250,28 @@
         <v>276.1174882683716</v>
       </c>
       <c r="R26" t="n">
-        <v>276.1174882683716</v>
+        <v>223.5661527273864</v>
       </c>
       <c r="S26" t="n">
-        <v>206.3908498167626</v>
+        <v>223.5661527273864</v>
       </c>
       <c r="T26" t="n">
-        <v>206.3908498167626</v>
+        <v>223.5661527273864</v>
       </c>
       <c r="U26" t="n">
-        <v>206.3908498167626</v>
+        <v>223.5661527273864</v>
       </c>
       <c r="V26" t="n">
-        <v>206.3908498167626</v>
+        <v>153.8395142757774</v>
       </c>
       <c r="W26" t="n">
-        <v>136.6642113651536</v>
+        <v>84.11287582416838</v>
       </c>
       <c r="X26" t="n">
-        <v>66.93757291354461</v>
+        <v>14.38623737255938</v>
       </c>
       <c r="Y26" t="n">
-        <v>66.93757291354461</v>
+        <v>5.522349765367433</v>
       </c>
     </row>
     <row r="27">
@@ -6281,19 +6281,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>66.93757291354461</v>
+        <v>144.9756266685854</v>
       </c>
       <c r="C27" t="n">
-        <v>66.93757291354461</v>
+        <v>75.24898821697644</v>
       </c>
       <c r="D27" t="n">
-        <v>66.93757291354461</v>
+        <v>5.522349765367433</v>
       </c>
       <c r="E27" t="n">
-        <v>66.93757291354461</v>
+        <v>5.522349765367433</v>
       </c>
       <c r="F27" t="n">
-        <v>66.93757291354461</v>
+        <v>5.522349765367433</v>
       </c>
       <c r="G27" t="n">
         <v>5.522349765367433</v>
@@ -6305,19 +6305,19 @@
         <v>5.522349765367433</v>
       </c>
       <c r="J27" t="n">
-        <v>17.41613371387393</v>
+        <v>5.522349765367433</v>
       </c>
       <c r="K27" t="n">
-        <v>17.41613371387393</v>
+        <v>5.522349765367433</v>
       </c>
       <c r="L27" t="n">
-        <v>59.390589567631</v>
+        <v>47.4968056191245</v>
       </c>
       <c r="M27" t="n">
-        <v>127.729667914053</v>
+        <v>115.8358839655465</v>
       </c>
       <c r="N27" t="n">
-        <v>196.0687462604749</v>
+        <v>184.1749623119684</v>
       </c>
       <c r="O27" t="n">
         <v>251.2015882321627</v>
@@ -6335,22 +6335,22 @@
         <v>276.1174882683716</v>
       </c>
       <c r="T27" t="n">
-        <v>206.3908498167626</v>
+        <v>276.1174882683716</v>
       </c>
       <c r="U27" t="n">
-        <v>206.3908498167626</v>
+        <v>276.1174882683716</v>
       </c>
       <c r="V27" t="n">
-        <v>136.6642113651536</v>
+        <v>276.1174882683716</v>
       </c>
       <c r="W27" t="n">
-        <v>66.93757291354461</v>
+        <v>276.1174882683716</v>
       </c>
       <c r="X27" t="n">
-        <v>66.93757291354461</v>
+        <v>214.7022651201945</v>
       </c>
       <c r="Y27" t="n">
-        <v>66.93757291354461</v>
+        <v>214.7022651201945</v>
       </c>
     </row>
     <row r="28">
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
+        <v>136.6642113651536</v>
+      </c>
+      <c r="C28" t="n">
+        <v>136.6642113651536</v>
+      </c>
+      <c r="D28" t="n">
+        <v>136.6642113651536</v>
+      </c>
+      <c r="E28" t="n">
+        <v>136.6642113651536</v>
+      </c>
+      <c r="F28" t="n">
         <v>75.24898821697644</v>
-      </c>
-      <c r="C28" t="n">
-        <v>75.24898821697644</v>
-      </c>
-      <c r="D28" t="n">
-        <v>5.522349765367433</v>
-      </c>
-      <c r="E28" t="n">
-        <v>5.522349765367433</v>
-      </c>
-      <c r="F28" t="n">
-        <v>5.522349765367433</v>
       </c>
       <c r="G28" t="n">
         <v>5.522349765367433</v>
@@ -6390,16 +6390,16 @@
         <v>5.522349765367433</v>
       </c>
       <c r="L28" t="n">
-        <v>5.522349765367433</v>
+        <v>73.86142811178941</v>
       </c>
       <c r="M28" t="n">
-        <v>71.10025322910575</v>
+        <v>142.2005064582114</v>
       </c>
       <c r="N28" t="n">
-        <v>139.4393315755277</v>
+        <v>210.5395848046334</v>
       </c>
       <c r="O28" t="n">
-        <v>207.7784099219497</v>
+        <v>210.5395848046334</v>
       </c>
       <c r="P28" t="n">
         <v>276.1174882683716</v>
@@ -6411,25 +6411,25 @@
         <v>276.1174882683716</v>
       </c>
       <c r="S28" t="n">
-        <v>214.7022651201945</v>
+        <v>276.1174882683716</v>
       </c>
       <c r="T28" t="n">
-        <v>214.7022651201945</v>
+        <v>276.1174882683716</v>
       </c>
       <c r="U28" t="n">
-        <v>214.7022651201945</v>
+        <v>276.1174882683716</v>
       </c>
       <c r="V28" t="n">
-        <v>144.9756266685854</v>
+        <v>276.1174882683716</v>
       </c>
       <c r="W28" t="n">
-        <v>144.9756266685854</v>
+        <v>276.1174882683716</v>
       </c>
       <c r="X28" t="n">
-        <v>75.24898821697644</v>
+        <v>206.3908498167626</v>
       </c>
       <c r="Y28" t="n">
-        <v>75.24898821697644</v>
+        <v>136.6642113651536</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>84.11287582416838</v>
+        <v>5.522349765367433</v>
       </c>
       <c r="C29" t="n">
-        <v>75.24898821697644</v>
+        <v>5.522349765367433</v>
       </c>
       <c r="D29" t="n">
-        <v>75.24898821697644</v>
+        <v>5.522349765367433</v>
       </c>
       <c r="E29" t="n">
-        <v>75.24898821697644</v>
+        <v>5.522349765367433</v>
       </c>
       <c r="F29" t="n">
-        <v>75.24898821697644</v>
+        <v>5.522349765367433</v>
       </c>
       <c r="G29" t="n">
         <v>5.522349765367433</v>
@@ -6466,19 +6466,19 @@
         <v>5.522349765367433</v>
       </c>
       <c r="K29" t="n">
-        <v>73.86142811178941</v>
+        <v>5.522349765367433</v>
       </c>
       <c r="L29" t="n">
-        <v>85.00472417274634</v>
+        <v>71.10025322910575</v>
       </c>
       <c r="M29" t="n">
-        <v>127.7298252819263</v>
+        <v>139.4393315755277</v>
       </c>
       <c r="N29" t="n">
-        <v>175.7600715736037</v>
+        <v>207.7784099219497</v>
       </c>
       <c r="O29" t="n">
-        <v>207.7784099219497</v>
+        <v>276.1174882683716</v>
       </c>
       <c r="P29" t="n">
         <v>276.1174882683716</v>
@@ -6487,28 +6487,28 @@
         <v>276.1174882683716</v>
       </c>
       <c r="R29" t="n">
-        <v>223.5661527273864</v>
+        <v>276.1174882683716</v>
       </c>
       <c r="S29" t="n">
-        <v>223.5661527273864</v>
+        <v>206.3908498167626</v>
       </c>
       <c r="T29" t="n">
-        <v>153.8395142757774</v>
+        <v>206.3908498167626</v>
       </c>
       <c r="U29" t="n">
-        <v>84.11287582416838</v>
+        <v>206.3908498167626</v>
       </c>
       <c r="V29" t="n">
-        <v>84.11287582416838</v>
+        <v>206.3908498167626</v>
       </c>
       <c r="W29" t="n">
-        <v>84.11287582416838</v>
+        <v>136.6642113651536</v>
       </c>
       <c r="X29" t="n">
-        <v>84.11287582416838</v>
+        <v>136.6642113651536</v>
       </c>
       <c r="Y29" t="n">
-        <v>84.11287582416838</v>
+        <v>75.24898821697644</v>
       </c>
     </row>
     <row r="30">
@@ -6518,19 +6518,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>18.03433062714709</v>
+        <v>5.522349765367433</v>
       </c>
       <c r="C30" t="n">
-        <v>18.03433062714709</v>
+        <v>5.522349765367433</v>
       </c>
       <c r="D30" t="n">
-        <v>18.03433062714709</v>
+        <v>5.522349765367433</v>
       </c>
       <c r="E30" t="n">
-        <v>18.03433062714709</v>
+        <v>5.522349765367433</v>
       </c>
       <c r="F30" t="n">
-        <v>18.03433062714709</v>
+        <v>5.522349765367433</v>
       </c>
       <c r="G30" t="n">
         <v>5.522349765367433</v>
@@ -6542,25 +6542,25 @@
         <v>5.522349765367433</v>
       </c>
       <c r="J30" t="n">
-        <v>17.41613371387393</v>
+        <v>5.522349765367433</v>
       </c>
       <c r="K30" t="n">
-        <v>17.41613371387393</v>
+        <v>5.522349765367433</v>
       </c>
       <c r="L30" t="n">
-        <v>59.390589567631</v>
+        <v>47.4968056191245</v>
       </c>
       <c r="M30" t="n">
-        <v>127.729667914053</v>
+        <v>115.8358839655465</v>
       </c>
       <c r="N30" t="n">
-        <v>196.0687462604749</v>
+        <v>184.1749623119684</v>
       </c>
       <c r="O30" t="n">
-        <v>251.2015882321627</v>
+        <v>239.3078042836563</v>
       </c>
       <c r="P30" t="n">
-        <v>276.1174882683716</v>
+        <v>264.2237043198651</v>
       </c>
       <c r="Q30" t="n">
         <v>276.1174882683716</v>
@@ -6569,25 +6569,25 @@
         <v>227.2142459819741</v>
       </c>
       <c r="S30" t="n">
+        <v>227.2142459819741</v>
+      </c>
+      <c r="T30" t="n">
+        <v>227.2142459819741</v>
+      </c>
+      <c r="U30" t="n">
+        <v>227.2142459819741</v>
+      </c>
+      <c r="V30" t="n">
         <v>157.4876075303651</v>
       </c>
-      <c r="T30" t="n">
+      <c r="W30" t="n">
         <v>87.76096907875609</v>
-      </c>
-      <c r="U30" t="n">
-        <v>87.76096907875609</v>
-      </c>
-      <c r="V30" t="n">
-        <v>18.03433062714709</v>
-      </c>
-      <c r="W30" t="n">
-        <v>18.03433062714709</v>
       </c>
       <c r="X30" t="n">
         <v>18.03433062714709</v>
       </c>
       <c r="Y30" t="n">
-        <v>18.03433062714709</v>
+        <v>5.522349765367433</v>
       </c>
     </row>
     <row r="31">
@@ -6624,19 +6624,19 @@
         <v>5.522349765367433</v>
       </c>
       <c r="K31" t="n">
-        <v>5.522349765367433</v>
+        <v>63.83896525826776</v>
       </c>
       <c r="L31" t="n">
-        <v>73.86142811178941</v>
+        <v>132.1780436046897</v>
       </c>
       <c r="M31" t="n">
-        <v>142.2005064582114</v>
+        <v>200.5171219511117</v>
       </c>
       <c r="N31" t="n">
-        <v>142.2005064582114</v>
+        <v>268.8562002975336</v>
       </c>
       <c r="O31" t="n">
-        <v>207.7784099219497</v>
+        <v>276.1174882683716</v>
       </c>
       <c r="P31" t="n">
         <v>276.1174882683716</v>
@@ -6651,10 +6651,10 @@
         <v>276.1174882683716</v>
       </c>
       <c r="T31" t="n">
-        <v>214.7022651201945</v>
+        <v>276.1174882683716</v>
       </c>
       <c r="U31" t="n">
-        <v>214.7022651201945</v>
+        <v>276.1174882683716</v>
       </c>
       <c r="V31" t="n">
         <v>214.7022651201945</v>
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>206.3908498167626</v>
+        <v>14.38623737255941</v>
       </c>
       <c r="C32" t="n">
-        <v>206.3908498167626</v>
+        <v>14.38623737255941</v>
       </c>
       <c r="D32" t="n">
-        <v>206.3908498167626</v>
+        <v>14.38623737255941</v>
       </c>
       <c r="E32" t="n">
-        <v>206.3908498167626</v>
+        <v>14.38623737255941</v>
       </c>
       <c r="F32" t="n">
-        <v>206.3908498167626</v>
+        <v>14.38623737255941</v>
       </c>
       <c r="G32" t="n">
-        <v>136.6642113651536</v>
+        <v>5.522349765367434</v>
       </c>
       <c r="H32" t="n">
-        <v>66.93757291354461</v>
+        <v>5.522349765367434</v>
       </c>
       <c r="I32" t="n">
-        <v>5.522349765367433</v>
+        <v>5.522349765367434</v>
       </c>
       <c r="J32" t="n">
-        <v>5.522349765367433</v>
+        <v>5.522349765367434</v>
       </c>
       <c r="K32" t="n">
-        <v>5.522349765367433</v>
+        <v>5.522349765367434</v>
       </c>
       <c r="L32" t="n">
-        <v>73.86142811178941</v>
+        <v>15.45830411290384</v>
       </c>
       <c r="M32" t="n">
-        <v>142.2005064582114</v>
+        <v>71.10025322910573</v>
       </c>
       <c r="N32" t="n">
-        <v>210.5395848046334</v>
+        <v>139.4393315755277</v>
       </c>
       <c r="O32" t="n">
-        <v>276.1174882683716</v>
+        <v>207.7784099219497</v>
       </c>
       <c r="P32" t="n">
-        <v>276.1174882683716</v>
+        <v>276.1174882683717</v>
       </c>
       <c r="Q32" t="n">
-        <v>276.1174882683716</v>
+        <v>276.1174882683717</v>
       </c>
       <c r="R32" t="n">
-        <v>276.1174882683716</v>
+        <v>223.5661527273865</v>
       </c>
       <c r="S32" t="n">
-        <v>276.1174882683716</v>
+        <v>223.5661527273865</v>
       </c>
       <c r="T32" t="n">
-        <v>276.1174882683716</v>
+        <v>223.5661527273865</v>
       </c>
       <c r="U32" t="n">
-        <v>276.1174882683716</v>
+        <v>153.8395142757774</v>
       </c>
       <c r="V32" t="n">
-        <v>276.1174882683716</v>
+        <v>84.11287582416843</v>
       </c>
       <c r="W32" t="n">
-        <v>206.3908498167626</v>
+        <v>84.11287582416843</v>
       </c>
       <c r="X32" t="n">
-        <v>206.3908498167626</v>
+        <v>84.11287582416843</v>
       </c>
       <c r="Y32" t="n">
-        <v>206.3908498167626</v>
+        <v>14.38623737255941</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>144.9756266685854</v>
+        <v>87.76096907875613</v>
       </c>
       <c r="C33" t="n">
-        <v>144.9756266685854</v>
+        <v>87.76096907875613</v>
       </c>
       <c r="D33" t="n">
-        <v>144.9756266685854</v>
+        <v>18.03433062714711</v>
       </c>
       <c r="E33" t="n">
-        <v>144.9756266685854</v>
+        <v>18.03433062714711</v>
       </c>
       <c r="F33" t="n">
-        <v>75.24898821697644</v>
+        <v>5.522349765367434</v>
       </c>
       <c r="G33" t="n">
-        <v>5.522349765367433</v>
+        <v>5.522349765367434</v>
       </c>
       <c r="H33" t="n">
-        <v>5.522349765367433</v>
+        <v>5.522349765367434</v>
       </c>
       <c r="I33" t="n">
-        <v>5.522349765367433</v>
+        <v>5.522349765367434</v>
       </c>
       <c r="J33" t="n">
-        <v>17.41613371387393</v>
+        <v>5.522349765367434</v>
       </c>
       <c r="K33" t="n">
-        <v>17.41613371387393</v>
+        <v>5.522349765367434</v>
       </c>
       <c r="L33" t="n">
-        <v>59.390589567631</v>
+        <v>59.39058956763103</v>
       </c>
       <c r="M33" t="n">
         <v>127.729667914053</v>
       </c>
       <c r="N33" t="n">
-        <v>196.0687462604749</v>
+        <v>196.068746260475</v>
       </c>
       <c r="O33" t="n">
-        <v>251.2015882321627</v>
+        <v>251.2015882321628</v>
       </c>
       <c r="P33" t="n">
-        <v>276.1174882683716</v>
+        <v>276.1174882683717</v>
       </c>
       <c r="Q33" t="n">
-        <v>276.1174882683716</v>
+        <v>276.1174882683717</v>
       </c>
       <c r="R33" t="n">
-        <v>276.1174882683716</v>
+        <v>227.2142459819742</v>
       </c>
       <c r="S33" t="n">
-        <v>206.3908498167626</v>
+        <v>227.2142459819742</v>
       </c>
       <c r="T33" t="n">
-        <v>144.9756266685854</v>
+        <v>227.2142459819742</v>
       </c>
       <c r="U33" t="n">
-        <v>144.9756266685854</v>
+        <v>157.4876075303652</v>
       </c>
       <c r="V33" t="n">
-        <v>144.9756266685854</v>
+        <v>157.4876075303652</v>
       </c>
       <c r="W33" t="n">
-        <v>144.9756266685854</v>
+        <v>87.76096907875613</v>
       </c>
       <c r="X33" t="n">
-        <v>144.9756266685854</v>
+        <v>87.76096907875613</v>
       </c>
       <c r="Y33" t="n">
-        <v>144.9756266685854</v>
+        <v>87.76096907875613</v>
       </c>
     </row>
     <row r="34">
@@ -6834,31 +6834,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>5.522349765367433</v>
+        <v>119.6547888796862</v>
       </c>
       <c r="C34" t="n">
-        <v>5.522349765367433</v>
+        <v>119.6547888796862</v>
       </c>
       <c r="D34" t="n">
-        <v>5.522349765367433</v>
+        <v>119.6547888796862</v>
       </c>
       <c r="E34" t="n">
-        <v>5.522349765367433</v>
+        <v>119.6547888796862</v>
       </c>
       <c r="F34" t="n">
-        <v>5.522349765367433</v>
+        <v>119.6547888796862</v>
       </c>
       <c r="G34" t="n">
-        <v>5.522349765367433</v>
+        <v>49.9281504280772</v>
       </c>
       <c r="H34" t="n">
-        <v>5.522349765367433</v>
+        <v>49.9281504280772</v>
       </c>
       <c r="I34" t="n">
-        <v>5.522349765367433</v>
+        <v>49.9281504280772</v>
       </c>
       <c r="J34" t="n">
-        <v>5.522349765367433</v>
+        <v>5.522349765367434</v>
       </c>
       <c r="K34" t="n">
         <v>63.83896525826776</v>
@@ -6870,40 +6870,40 @@
         <v>200.5171219511117</v>
       </c>
       <c r="N34" t="n">
-        <v>200.5171219511117</v>
+        <v>268.8562002975337</v>
       </c>
       <c r="O34" t="n">
-        <v>207.7784099219497</v>
+        <v>268.8562002975337</v>
       </c>
       <c r="P34" t="n">
-        <v>276.1174882683716</v>
+        <v>276.1174882683717</v>
       </c>
       <c r="Q34" t="n">
-        <v>276.1174882683716</v>
+        <v>276.1174882683717</v>
       </c>
       <c r="R34" t="n">
-        <v>276.1174882683716</v>
+        <v>206.3908498167627</v>
       </c>
       <c r="S34" t="n">
-        <v>206.3908498167626</v>
+        <v>189.3814273312952</v>
       </c>
       <c r="T34" t="n">
-        <v>136.6642113651536</v>
+        <v>189.3814273312952</v>
       </c>
       <c r="U34" t="n">
-        <v>136.6642113651536</v>
+        <v>189.3814273312952</v>
       </c>
       <c r="V34" t="n">
-        <v>136.6642113651536</v>
+        <v>189.3814273312952</v>
       </c>
       <c r="W34" t="n">
-        <v>66.93757291354461</v>
+        <v>119.6547888796862</v>
       </c>
       <c r="X34" t="n">
-        <v>5.522349765367433</v>
+        <v>119.6547888796862</v>
       </c>
       <c r="Y34" t="n">
-        <v>5.522349765367433</v>
+        <v>119.6547888796862</v>
       </c>
     </row>
     <row r="35">
@@ -6940,16 +6940,16 @@
         <v>3.881232023569892</v>
       </c>
       <c r="K35" t="n">
+        <v>3.881232023569892</v>
+      </c>
+      <c r="L35" t="n">
         <v>51.9114783152473</v>
       </c>
-      <c r="L35" t="n">
-        <v>71.28791542929125</v>
-      </c>
       <c r="M35" t="n">
-        <v>114.0130165384712</v>
+        <v>98.00110859513978</v>
       </c>
       <c r="N35" t="n">
-        <v>162.0432628301486</v>
+        <v>146.0313548868172</v>
       </c>
       <c r="O35" t="n">
         <v>194.0616011784946</v>
@@ -6961,25 +6961,25 @@
         <v>194.0616011784946</v>
       </c>
       <c r="R35" t="n">
-        <v>194.0616011784946</v>
+        <v>150.8975965527325</v>
       </c>
       <c r="S35" t="n">
-        <v>194.0616011784946</v>
+        <v>150.8975965527325</v>
       </c>
       <c r="T35" t="n">
-        <v>194.0616011784946</v>
+        <v>150.8975965527325</v>
       </c>
       <c r="U35" t="n">
-        <v>194.0616011784946</v>
+        <v>101.8921417096783</v>
       </c>
       <c r="V35" t="n">
-        <v>150.8975965527325</v>
+        <v>52.88668686662408</v>
       </c>
       <c r="W35" t="n">
-        <v>101.8921417096783</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="X35" t="n">
-        <v>52.88668686662408</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="Y35" t="n">
         <v>3.881232023569892</v>
@@ -7025,13 +7025,13 @@
         <v>45.85568787732696</v>
       </c>
       <c r="M36" t="n">
-        <v>93.88593416900437</v>
+        <v>73.0852085589309</v>
       </c>
       <c r="N36" t="n">
-        <v>141.9161804606818</v>
+        <v>121.1154548506083</v>
       </c>
       <c r="O36" t="n">
-        <v>189.9464267523592</v>
+        <v>169.1457011422857</v>
       </c>
       <c r="P36" t="n">
         <v>194.0616011784946</v>
@@ -7046,13 +7046,13 @@
         <v>96.15290404904286</v>
       </c>
       <c r="T36" t="n">
-        <v>96.15290404904286</v>
+        <v>47.14744920598867</v>
       </c>
       <c r="U36" t="n">
-        <v>52.88668686662408</v>
+        <v>47.14744920598867</v>
       </c>
       <c r="V36" t="n">
-        <v>52.88668686662408</v>
+        <v>47.14744920598867</v>
       </c>
       <c r="W36" t="n">
         <v>3.881232023569892</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>150.8975965527325</v>
+        <v>145.0561463354404</v>
       </c>
       <c r="C37" t="n">
-        <v>101.8921417096783</v>
+        <v>96.05069149238619</v>
       </c>
       <c r="D37" t="n">
-        <v>101.8921417096783</v>
+        <v>52.88668686662408</v>
       </c>
       <c r="E37" t="n">
-        <v>101.8921417096783</v>
+        <v>52.88668686662408</v>
       </c>
       <c r="F37" t="n">
-        <v>101.8921417096783</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="G37" t="n">
-        <v>52.88668686662408</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="H37" t="n">
         <v>3.881232023569892</v>
@@ -7098,19 +7098,19 @@
         <v>3.881232023569892</v>
       </c>
       <c r="K37" t="n">
-        <v>3.881232023569892</v>
+        <v>51.9114783152473</v>
       </c>
       <c r="L37" t="n">
         <v>51.9114783152473</v>
       </c>
       <c r="M37" t="n">
+        <v>51.9114783152473</v>
+      </c>
+      <c r="N37" t="n">
         <v>99.94172460692471</v>
       </c>
-      <c r="N37" t="n">
-        <v>146.0313548868172</v>
-      </c>
       <c r="O37" t="n">
-        <v>146.0313548868172</v>
+        <v>147.9719708986021</v>
       </c>
       <c r="P37" t="n">
         <v>194.0616011784946</v>
@@ -7122,25 +7122,25 @@
         <v>194.0616011784946</v>
       </c>
       <c r="S37" t="n">
-        <v>150.8975965527325</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="T37" t="n">
-        <v>150.8975965527325</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="U37" t="n">
-        <v>150.8975965527325</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="V37" t="n">
-        <v>150.8975965527325</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="W37" t="n">
-        <v>150.8975965527325</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="X37" t="n">
-        <v>150.8975965527325</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.8975965527325</v>
+        <v>194.0616011784946</v>
       </c>
     </row>
     <row r="38">
@@ -7156,16 +7156,16 @@
         <v>96.05069149238619</v>
       </c>
       <c r="D38" t="n">
-        <v>47.045236649332</v>
+        <v>96.05069149238619</v>
       </c>
       <c r="E38" t="n">
-        <v>3.881232023569892</v>
+        <v>96.05069149238619</v>
       </c>
       <c r="F38" t="n">
-        <v>3.881232023569892</v>
+        <v>52.88668686662408</v>
       </c>
       <c r="G38" t="n">
-        <v>3.881232023569892</v>
+        <v>52.88668686662408</v>
       </c>
       <c r="H38" t="n">
         <v>3.881232023569892</v>
@@ -7198,25 +7198,25 @@
         <v>194.0616011784946</v>
       </c>
       <c r="R38" t="n">
-        <v>194.0616011784946</v>
+        <v>145.0561463354404</v>
       </c>
       <c r="S38" t="n">
-        <v>194.0616011784946</v>
+        <v>145.0561463354404</v>
       </c>
       <c r="T38" t="n">
-        <v>194.0616011784946</v>
+        <v>145.0561463354404</v>
       </c>
       <c r="U38" t="n">
-        <v>145.0561463354404</v>
+        <v>96.05069149238619</v>
       </c>
       <c r="V38" t="n">
-        <v>145.0561463354404</v>
+        <v>96.05069149238619</v>
       </c>
       <c r="W38" t="n">
-        <v>145.0561463354404</v>
+        <v>96.05069149238619</v>
       </c>
       <c r="X38" t="n">
-        <v>145.0561463354404</v>
+        <v>96.05069149238619</v>
       </c>
       <c r="Y38" t="n">
         <v>96.05069149238619</v>
@@ -7262,10 +7262,10 @@
         <v>45.85568787732696</v>
       </c>
       <c r="M39" t="n">
-        <v>93.88593416900437</v>
+        <v>73.0852085589309</v>
       </c>
       <c r="N39" t="n">
-        <v>141.9161804606818</v>
+        <v>121.1154548506083</v>
       </c>
       <c r="O39" t="n">
         <v>169.1457011422857</v>
@@ -7277,19 +7277,19 @@
         <v>194.0616011784946</v>
       </c>
       <c r="R39" t="n">
-        <v>194.0616011784946</v>
+        <v>145.1583588920971</v>
       </c>
       <c r="S39" t="n">
-        <v>145.0561463354404</v>
+        <v>101.8921417096783</v>
       </c>
       <c r="T39" t="n">
-        <v>96.05069149238619</v>
+        <v>52.88668686662408</v>
       </c>
       <c r="U39" t="n">
-        <v>96.05069149238619</v>
+        <v>52.88668686662408</v>
       </c>
       <c r="V39" t="n">
-        <v>47.045236649332</v>
+        <v>52.88668686662408</v>
       </c>
       <c r="W39" t="n">
         <v>3.881232023569892</v>
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.88668686662408</v>
+        <v>145.0561463354404</v>
       </c>
       <c r="C40" t="n">
-        <v>52.88668686662408</v>
+        <v>145.0561463354404</v>
       </c>
       <c r="D40" t="n">
-        <v>52.88668686662408</v>
+        <v>145.0561463354404</v>
       </c>
       <c r="E40" t="n">
-        <v>52.88668686662408</v>
+        <v>101.8921417096783</v>
       </c>
       <c r="F40" t="n">
         <v>52.88668686662408</v>
@@ -7341,13 +7341,13 @@
         <v>99.94172460692471</v>
       </c>
       <c r="M40" t="n">
-        <v>146.0313548868172</v>
+        <v>147.9719708986021</v>
       </c>
       <c r="N40" t="n">
-        <v>146.0313548868172</v>
+        <v>147.9719708986021</v>
       </c>
       <c r="O40" t="n">
-        <v>194.0616011784946</v>
+        <v>147.9719708986021</v>
       </c>
       <c r="P40" t="n">
         <v>194.0616011784946</v>
@@ -7368,16 +7368,16 @@
         <v>145.0561463354404</v>
       </c>
       <c r="V40" t="n">
-        <v>101.8921417096783</v>
+        <v>145.0561463354404</v>
       </c>
       <c r="W40" t="n">
-        <v>52.88668686662408</v>
+        <v>145.0561463354404</v>
       </c>
       <c r="X40" t="n">
-        <v>52.88668686662408</v>
+        <v>145.0561463354404</v>
       </c>
       <c r="Y40" t="n">
-        <v>52.88668686662408</v>
+        <v>145.0561463354404</v>
       </c>
     </row>
     <row r="41">
@@ -7505,7 +7505,7 @@
         <v>141.9161804606818</v>
       </c>
       <c r="O42" t="n">
-        <v>189.9464267523592</v>
+        <v>169.1457011422857</v>
       </c>
       <c r="P42" t="n">
         <v>194.0616011784946</v>
@@ -7514,19 +7514,19 @@
         <v>194.0616011784946</v>
       </c>
       <c r="R42" t="n">
-        <v>194.0616011784946</v>
+        <v>145.1583588920971</v>
       </c>
       <c r="S42" t="n">
-        <v>145.0561463354404</v>
+        <v>96.15290404904286</v>
       </c>
       <c r="T42" t="n">
-        <v>96.05069149238619</v>
+        <v>96.15290404904286</v>
       </c>
       <c r="U42" t="n">
-        <v>96.05069149238619</v>
+        <v>47.14744920598867</v>
       </c>
       <c r="V42" t="n">
-        <v>47.045236649332</v>
+        <v>47.14744920598867</v>
       </c>
       <c r="W42" t="n">
         <v>3.881232023569892</v>
@@ -7572,19 +7572,19 @@
         <v>3.881232023569892</v>
       </c>
       <c r="K43" t="n">
-        <v>3.881232023569892</v>
+        <v>51.9114783152473</v>
       </c>
       <c r="L43" t="n">
-        <v>51.9114783152473</v>
+        <v>99.94172460692471</v>
       </c>
       <c r="M43" t="n">
-        <v>99.94172460692471</v>
+        <v>147.9719708986021</v>
       </c>
       <c r="N43" t="n">
         <v>147.9719708986021</v>
       </c>
       <c r="O43" t="n">
-        <v>194.0616011784946</v>
+        <v>147.9719708986021</v>
       </c>
       <c r="P43" t="n">
         <v>194.0616011784946</v>
@@ -7602,13 +7602,13 @@
         <v>145.0561463354404</v>
       </c>
       <c r="U43" t="n">
+        <v>145.0561463354404</v>
+      </c>
+      <c r="V43" t="n">
+        <v>145.0561463354404</v>
+      </c>
+      <c r="W43" t="n">
         <v>96.05069149238619</v>
-      </c>
-      <c r="V43" t="n">
-        <v>96.05069149238619</v>
-      </c>
-      <c r="W43" t="n">
-        <v>52.88668686662408</v>
       </c>
       <c r="X43" t="n">
         <v>52.88668686662408</v>
@@ -7624,16 +7624,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>3.881232023569892</v>
+        <v>52.88668686662408</v>
       </c>
       <c r="C44" t="n">
-        <v>3.881232023569892</v>
+        <v>52.88668686662408</v>
       </c>
       <c r="D44" t="n">
-        <v>3.881232023569892</v>
+        <v>52.88668686662408</v>
       </c>
       <c r="E44" t="n">
-        <v>3.881232023569892</v>
+        <v>52.88668686662408</v>
       </c>
       <c r="F44" t="n">
         <v>3.881232023569892</v>
@@ -7651,10 +7651,10 @@
         <v>3.881232023569892</v>
       </c>
       <c r="K44" t="n">
-        <v>3.881232023569892</v>
+        <v>40.03490795592597</v>
       </c>
       <c r="L44" t="n">
-        <v>51.9114783152473</v>
+        <v>49.97086230346238</v>
       </c>
       <c r="M44" t="n">
         <v>98.00110859513978</v>
@@ -7672,28 +7672,28 @@
         <v>194.0616011784946</v>
       </c>
       <c r="R44" t="n">
-        <v>194.0616011784946</v>
+        <v>150.8975965527325</v>
       </c>
       <c r="S44" t="n">
-        <v>145.0561463354404</v>
+        <v>150.8975965527325</v>
       </c>
       <c r="T44" t="n">
-        <v>145.0561463354404</v>
+        <v>150.8975965527325</v>
       </c>
       <c r="U44" t="n">
-        <v>96.05069149238619</v>
+        <v>150.8975965527325</v>
       </c>
       <c r="V44" t="n">
-        <v>47.045236649332</v>
+        <v>101.8921417096783</v>
       </c>
       <c r="W44" t="n">
-        <v>3.881232023569892</v>
+        <v>101.8921417096783</v>
       </c>
       <c r="X44" t="n">
-        <v>3.881232023569892</v>
+        <v>101.8921417096783</v>
       </c>
       <c r="Y44" t="n">
-        <v>3.881232023569892</v>
+        <v>52.88668686662408</v>
       </c>
     </row>
     <row r="45">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>96.05069149238619</v>
+        <v>101.8921417096783</v>
       </c>
       <c r="C46" t="n">
-        <v>96.05069149238619</v>
+        <v>101.8921417096783</v>
       </c>
       <c r="D46" t="n">
-        <v>96.05069149238619</v>
+        <v>101.8921417096783</v>
       </c>
       <c r="E46" t="n">
-        <v>96.05069149238619</v>
+        <v>52.88668686662408</v>
       </c>
       <c r="F46" t="n">
-        <v>96.05069149238619</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="G46" t="n">
-        <v>52.88668686662408</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="H46" t="n">
         <v>3.881232023569892</v>
@@ -7809,19 +7809,19 @@
         <v>3.881232023569892</v>
       </c>
       <c r="K46" t="n">
-        <v>3.881232023569892</v>
+        <v>51.9114783152473</v>
       </c>
       <c r="L46" t="n">
-        <v>51.9114783152473</v>
+        <v>99.94172460692471</v>
       </c>
       <c r="M46" t="n">
-        <v>99.94172460692471</v>
+        <v>147.9719708986021</v>
       </c>
       <c r="N46" t="n">
-        <v>99.94172460692471</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="O46" t="n">
-        <v>146.0313548868172</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="P46" t="n">
         <v>194.0616011784946</v>
@@ -7839,19 +7839,19 @@
         <v>194.0616011784946</v>
       </c>
       <c r="U46" t="n">
-        <v>145.0561463354404</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="V46" t="n">
-        <v>96.05069149238619</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="W46" t="n">
-        <v>96.05069149238619</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="X46" t="n">
-        <v>96.05069149238619</v>
+        <v>150.8975965527325</v>
       </c>
       <c r="Y46" t="n">
-        <v>96.05069149238619</v>
+        <v>101.8921417096783</v>
       </c>
     </row>
   </sheetData>
@@ -8689,13 +8689,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>97.36099959559726</v>
+        <v>48.84559930097362</v>
       </c>
       <c r="K11" t="n">
         <v>21.95586290547635</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>9.535841178290418</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8704,13 +8704,13 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>9.535841178290418</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>7.246555403111074</v>
       </c>
       <c r="Q11" t="n">
-        <v>54.10120131416818</v>
+        <v>102.6166016087919</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8850,22 +8850,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K13" t="n">
-        <v>96.35349442422532</v>
+        <v>96.35349442422533</v>
       </c>
       <c r="L13" t="n">
-        <v>31.00841393965533</v>
+        <v>79.52381423427897</v>
       </c>
       <c r="M13" t="n">
-        <v>29.40282983509958</v>
+        <v>75.95801193600107</v>
       </c>
       <c r="N13" t="n">
-        <v>69.28220170030767</v>
+        <v>20.76680140568403</v>
       </c>
       <c r="O13" t="n">
-        <v>86.25495603721704</v>
+        <v>88.21517423093921</v>
       </c>
       <c r="P13" t="n">
-        <v>101.7399315424738</v>
+        <v>53.22453124785014</v>
       </c>
       <c r="Q13" t="n">
         <v>65.34295837775146</v>
@@ -8935,13 +8935,13 @@
         <v>38.47908277185959</v>
       </c>
       <c r="M14" t="n">
-        <v>3.398514313851024</v>
+        <v>3.398514313851045</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>16.17364438720341</v>
+        <v>16.17364438720347</v>
       </c>
       <c r="P14" t="n">
         <v>7.246555403111074</v>
@@ -9087,22 +9087,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K16" t="n">
-        <v>96.35349442422532</v>
+        <v>94.39327623050318</v>
       </c>
       <c r="L16" t="n">
-        <v>77.5635960405568</v>
+        <v>79.52381423427897</v>
       </c>
       <c r="M16" t="n">
         <v>77.91823012972323</v>
       </c>
       <c r="N16" t="n">
-        <v>20.76680140568403</v>
+        <v>69.28220170030768</v>
       </c>
       <c r="O16" t="n">
         <v>39.69977393631557</v>
       </c>
       <c r="P16" t="n">
-        <v>101.7399315424738</v>
+        <v>53.22453124785014</v>
       </c>
       <c r="Q16" t="n">
         <v>65.34295837775146</v>
@@ -9169,16 +9169,16 @@
         <v>21.95586290547635</v>
       </c>
       <c r="L17" t="n">
-        <v>38.47908277185959</v>
+        <v>38.47908277185962</v>
       </c>
       <c r="M17" t="n">
-        <v>5.358732507573187</v>
+        <v>3.398514313851074</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>14.21342619348128</v>
+        <v>16.17364438720347</v>
       </c>
       <c r="P17" t="n">
         <v>7.246555403111074</v>
@@ -9324,22 +9324,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K19" t="n">
-        <v>96.35349442422532</v>
+        <v>47.83809412960169</v>
       </c>
       <c r="L19" t="n">
-        <v>79.52381423427897</v>
+        <v>79.523814234279</v>
       </c>
       <c r="M19" t="n">
-        <v>77.91823012972321</v>
+        <v>77.91823012972326</v>
       </c>
       <c r="N19" t="n">
-        <v>20.76680140568403</v>
+        <v>69.28220170030771</v>
       </c>
       <c r="O19" t="n">
-        <v>39.69977393631557</v>
+        <v>86.25495603721708</v>
       </c>
       <c r="P19" t="n">
-        <v>99.77971334875163</v>
+        <v>53.22453124785014</v>
       </c>
       <c r="Q19" t="n">
         <v>65.34295837775146</v>
@@ -9403,10 +9403,10 @@
         <v>48.84559930097362</v>
       </c>
       <c r="K20" t="n">
-        <v>21.95586290547635</v>
+        <v>41.5280216065309</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>38.47908277185965</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9418,10 +9418,10 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>55.76195569773474</v>
+        <v>7.246555403111074</v>
       </c>
       <c r="Q20" t="n">
-        <v>63.63704249245864</v>
+        <v>54.10120131416818</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9561,22 +9561,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K22" t="n">
-        <v>96.35349442422535</v>
+        <v>96.35349442422536</v>
       </c>
       <c r="L22" t="n">
         <v>79.523814234279</v>
       </c>
       <c r="M22" t="n">
-        <v>75.95801193600109</v>
+        <v>75.9580119360011</v>
       </c>
       <c r="N22" t="n">
-        <v>20.76680140568403</v>
+        <v>69.28220170030771</v>
       </c>
       <c r="O22" t="n">
         <v>39.69977393631557</v>
       </c>
       <c r="P22" t="n">
-        <v>101.7399315424738</v>
+        <v>53.22453124785014</v>
       </c>
       <c r="Q22" t="n">
         <v>65.34295837775146</v>
@@ -9637,28 +9637,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>48.84559930097362</v>
+        <v>93.22180417228722</v>
       </c>
       <c r="K23" t="n">
-        <v>21.95586290547635</v>
+        <v>90.98523497256923</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>25.87270428004246</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>1.219537084263152</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>76.27592747020395</v>
+        <v>7.246555403111074</v>
       </c>
       <c r="Q23" t="n">
-        <v>123.1305733812611</v>
+        <v>54.10120131416818</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>60.11395371729918</v>
+        <v>48.10003053698959</v>
       </c>
       <c r="K24" t="n">
         <v>3.266346048945991</v>
@@ -9734,7 +9734,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>12.01392318030958</v>
       </c>
       <c r="Q24" t="n">
         <v>33.59957280668804</v>
@@ -9798,22 +9798,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K25" t="n">
-        <v>47.83809412960169</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L25" t="n">
         <v>100.0377860067482</v>
       </c>
       <c r="M25" t="n">
-        <v>29.40282983509958</v>
+        <v>98.43220190219249</v>
       </c>
       <c r="N25" t="n">
-        <v>87.00710793471264</v>
+        <v>89.79617347277694</v>
       </c>
       <c r="O25" t="n">
-        <v>108.7291460034085</v>
+        <v>47.03440825029334</v>
       </c>
       <c r="P25" t="n">
-        <v>122.253903314943</v>
+        <v>53.22453124785014</v>
       </c>
       <c r="Q25" t="n">
         <v>65.34295837775146</v>
@@ -9874,22 +9874,22 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>48.84559930097362</v>
+        <v>117.8749713680665</v>
       </c>
       <c r="K26" t="n">
-        <v>90.98523497256926</v>
+        <v>21.95586290547635</v>
       </c>
       <c r="L26" t="n">
-        <v>58.99305454432886</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>25.87270428004246</v>
       </c>
       <c r="N26" t="n">
-        <v>11.25585460702717</v>
+        <v>20.51397177246926</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>23.86223309884432</v>
       </c>
       <c r="P26" t="n">
         <v>7.246555403111074</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>60.11395371729918</v>
+        <v>48.10003053698959</v>
       </c>
       <c r="K27" t="n">
         <v>3.266346048945991</v>
@@ -9968,7 +9968,7 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>12.01392318030958</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -10038,19 +10038,19 @@
         <v>47.83809412960169</v>
       </c>
       <c r="L28" t="n">
-        <v>31.00841393965533</v>
+        <v>100.0377860067482</v>
       </c>
       <c r="M28" t="n">
-        <v>95.64313636412818</v>
+        <v>98.43220190219249</v>
       </c>
       <c r="N28" t="n">
         <v>89.79617347277694</v>
       </c>
       <c r="O28" t="n">
-        <v>108.7291460034085</v>
+        <v>39.69977393631557</v>
       </c>
       <c r="P28" t="n">
-        <v>122.253903314943</v>
+        <v>119.4648377768787</v>
       </c>
       <c r="Q28" t="n">
         <v>65.34295837775146</v>
@@ -10114,22 +10114,22 @@
         <v>48.84559930097362</v>
       </c>
       <c r="K29" t="n">
-        <v>90.98523497256926</v>
+        <v>21.95586290547635</v>
       </c>
       <c r="L29" t="n">
-        <v>1.219537084263148</v>
+        <v>56.20398900626455</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>25.87270428004246</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>20.51397177246923</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>36.6876161596727</v>
       </c>
       <c r="P29" t="n">
-        <v>76.27592747020395</v>
+        <v>7.246555403111074</v>
       </c>
       <c r="Q29" t="n">
         <v>54.10120131416818</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>60.11395371729918</v>
+        <v>48.10003053698959</v>
       </c>
       <c r="K30" t="n">
         <v>3.266346048945991</v>
@@ -10211,7 +10211,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>33.59957280668804</v>
+        <v>45.61349598699763</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10272,7 +10272,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K31" t="n">
-        <v>47.83809412960169</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L31" t="n">
         <v>100.0377860067482</v>
@@ -10281,13 +10281,13 @@
         <v>98.43220190219249</v>
       </c>
       <c r="N31" t="n">
-        <v>20.76680140568403</v>
+        <v>89.79617347277694</v>
       </c>
       <c r="O31" t="n">
-        <v>105.9400804653442</v>
+        <v>47.03440825029334</v>
       </c>
       <c r="P31" t="n">
-        <v>122.253903314943</v>
+        <v>53.22453124785014</v>
       </c>
       <c r="Q31" t="n">
         <v>65.34295837775146</v>
@@ -10354,19 +10354,19 @@
         <v>21.95586290547635</v>
       </c>
       <c r="L32" t="n">
-        <v>58.99305454432886</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>25.87270428004246</v>
+        <v>13.04732121921408</v>
       </c>
       <c r="N32" t="n">
-        <v>20.51397177246926</v>
+        <v>20.51397177246929</v>
       </c>
       <c r="O32" t="n">
-        <v>33.89855062160835</v>
+        <v>36.6876161596727</v>
       </c>
       <c r="P32" t="n">
-        <v>7.246555403111074</v>
+        <v>76.27592747020401</v>
       </c>
       <c r="Q32" t="n">
         <v>54.10120131416818</v>
@@ -10427,13 +10427,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>60.11395371729918</v>
+        <v>48.10003053698959</v>
       </c>
       <c r="K33" t="n">
         <v>3.266346048945991</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>12.01392318030962</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10515,16 +10515,16 @@
         <v>100.0377860067482</v>
       </c>
       <c r="M34" t="n">
-        <v>98.43220190219249</v>
+        <v>98.4322019021925</v>
       </c>
       <c r="N34" t="n">
-        <v>20.76680140568403</v>
+        <v>89.79617347277696</v>
       </c>
       <c r="O34" t="n">
-        <v>47.03440825029334</v>
+        <v>39.69977393631557</v>
       </c>
       <c r="P34" t="n">
-        <v>122.253903314943</v>
+        <v>60.55916556182785</v>
       </c>
       <c r="Q34" t="n">
         <v>65.34295837775146</v>
@@ -10588,19 +10588,19 @@
         <v>48.84559930097362</v>
       </c>
       <c r="K35" t="n">
-        <v>70.4712632001</v>
+        <v>21.95586290547635</v>
       </c>
       <c r="L35" t="n">
-        <v>9.53584117829044</v>
+        <v>38.47908277185959</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>3.398514313851045</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>16.17364438720347</v>
       </c>
       <c r="P35" t="n">
         <v>7.246555403111074</v>
@@ -10746,22 +10746,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K37" t="n">
-        <v>47.83809412960169</v>
+        <v>96.35349442422533</v>
       </c>
       <c r="L37" t="n">
-        <v>79.52381423427897</v>
+        <v>31.00841393965533</v>
       </c>
       <c r="M37" t="n">
-        <v>77.91823012972323</v>
+        <v>29.40282983509958</v>
       </c>
       <c r="N37" t="n">
-        <v>67.32198350658552</v>
+        <v>69.28220170030768</v>
       </c>
       <c r="O37" t="n">
-        <v>39.69977393631557</v>
+        <v>88.21517423093921</v>
       </c>
       <c r="P37" t="n">
-        <v>101.7399315424738</v>
+        <v>99.77971334875163</v>
       </c>
       <c r="Q37" t="n">
         <v>65.34295837775146</v>
@@ -10989,16 +10989,16 @@
         <v>79.52381423427897</v>
       </c>
       <c r="M40" t="n">
-        <v>75.95801193600107</v>
+        <v>77.91823012972323</v>
       </c>
       <c r="N40" t="n">
         <v>20.76680140568403</v>
       </c>
       <c r="O40" t="n">
-        <v>88.21517423093921</v>
+        <v>39.69977393631557</v>
       </c>
       <c r="P40" t="n">
-        <v>53.22453124785014</v>
+        <v>99.77971334875163</v>
       </c>
       <c r="Q40" t="n">
         <v>65.34295837775146</v>
@@ -11220,7 +11220,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K43" t="n">
-        <v>47.83809412960169</v>
+        <v>96.35349442422533</v>
       </c>
       <c r="L43" t="n">
         <v>79.52381423427897</v>
@@ -11229,13 +11229,13 @@
         <v>77.91823012972323</v>
       </c>
       <c r="N43" t="n">
-        <v>69.28220170030768</v>
+        <v>20.76680140568403</v>
       </c>
       <c r="O43" t="n">
-        <v>86.25495603721706</v>
+        <v>39.69977393631557</v>
       </c>
       <c r="P43" t="n">
-        <v>53.22453124785014</v>
+        <v>99.77971334875163</v>
       </c>
       <c r="Q43" t="n">
         <v>65.34295837775146</v>
@@ -11299,13 +11299,13 @@
         <v>48.84559930097362</v>
       </c>
       <c r="K44" t="n">
-        <v>21.95586290547635</v>
+        <v>58.4747274836138</v>
       </c>
       <c r="L44" t="n">
-        <v>38.47908277185959</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>3.398514313851045</v>
+        <v>5.358732507573166</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -11457,7 +11457,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K46" t="n">
-        <v>47.83809412960169</v>
+        <v>96.35349442422533</v>
       </c>
       <c r="L46" t="n">
         <v>79.52381423427897</v>
@@ -11466,13 +11466,13 @@
         <v>77.91823012972323</v>
       </c>
       <c r="N46" t="n">
-        <v>20.76680140568403</v>
+        <v>67.32198350658552</v>
       </c>
       <c r="O46" t="n">
-        <v>86.25495603721706</v>
+        <v>39.69977393631557</v>
       </c>
       <c r="P46" t="n">
-        <v>101.7399315424738</v>
+        <v>53.22453124785014</v>
       </c>
       <c r="Q46" t="n">
         <v>65.34295837775146</v>
@@ -23266,7 +23266,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>339.1980054927573</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>358.3606454470878</v>
@@ -23305,16 +23305,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>3.510421890951754</v>
+        <v>52.02582218557539</v>
       </c>
       <c r="S11" t="n">
-        <v>173.5260039260038</v>
+        <v>130.7936393464993</v>
       </c>
       <c r="T11" t="n">
         <v>216.2774064515606</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2210440102909</v>
+        <v>202.7056437156673</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23339,13 +23339,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>124.1930986936921</v>
+        <v>129.8749439777212</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>114.8115254448064</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
@@ -23390,7 +23390,7 @@
         <v>156.2032156881569</v>
       </c>
       <c r="T12" t="n">
-        <v>196.8055600934023</v>
+        <v>148.2901597987787</v>
       </c>
       <c r="U12" t="n">
         <v>225.8865534313325</v>
@@ -23399,10 +23399,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>203.179582866296</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>157.2575849088538</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -23418,10 +23418,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>118.7314208040042</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>105.8831084387079</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23463,10 +23463,10 @@
         <v>27.65621884003237</v>
       </c>
       <c r="R13" t="n">
-        <v>97.36231335590594</v>
+        <v>145.8777136505296</v>
       </c>
       <c r="S13" t="n">
-        <v>163.3249231362086</v>
+        <v>211.8403234308322</v>
       </c>
       <c r="T13" t="n">
         <v>224.9602743187949</v>
@@ -23475,16 +23475,16 @@
         <v>286.2809189508379</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>209.4052787443235</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>238.0075980419674</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>177.1942550944135</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>170.0692530574711</v>
       </c>
     </row>
     <row r="14">
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>340.0014770839761</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -23509,7 +23509,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>413.7451262958156</v>
+        <v>365.229726001192</v>
       </c>
       <c r="H14" t="n">
         <v>323.522916215912</v>
@@ -23542,28 +23542,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>52.02582218557539</v>
+        <v>9.293457606070902</v>
       </c>
       <c r="S14" t="n">
-        <v>173.5260039260038</v>
+        <v>125.0106036313801</v>
       </c>
       <c r="T14" t="n">
-        <v>216.2774064515606</v>
+        <v>167.7620061569369</v>
       </c>
       <c r="U14" t="n">
         <v>251.2210440102909</v>
       </c>
       <c r="V14" t="n">
-        <v>279.2368581755113</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>300.7255684227894</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>337.7225383614299</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23585,13 +23585,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>96.55381209876023</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.5101216886474</v>
+        <v>93.77775710914293</v>
       </c>
       <c r="H15" t="n">
-        <v>55.67119817438064</v>
+        <v>104.1865984690043</v>
       </c>
       <c r="I15" t="n">
         <v>60.7029728719357</v>
@@ -23621,7 +23621,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>48.41420986353356</v>
       </c>
       <c r="S15" t="n">
         <v>156.2032156881569</v>
@@ -23630,13 +23630,13 @@
         <v>196.8055600934023</v>
       </c>
       <c r="U15" t="n">
-        <v>183.0529984207379</v>
+        <v>177.3711531367089</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>184.2851868548016</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>203.179582866296</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>164.7558344424652</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>118.7314208040042</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23697,10 +23697,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>27.65621884003237</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>103.1453490710251</v>
+        <v>97.36231335590594</v>
       </c>
       <c r="S16" t="n">
         <v>211.8403234308322</v>
@@ -23709,10 +23709,10 @@
         <v>176.4448740241712</v>
       </c>
       <c r="U16" t="n">
-        <v>237.7655186562142</v>
+        <v>286.2809189508379</v>
       </c>
       <c r="V16" t="n">
-        <v>203.6222430292044</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -23746,13 +23746,13 @@
         <v>358.3606454470878</v>
       </c>
       <c r="G17" t="n">
-        <v>365.229726001192</v>
+        <v>413.7451262958156</v>
       </c>
       <c r="H17" t="n">
         <v>323.522916215912</v>
       </c>
       <c r="I17" t="n">
-        <v>150.4260830375935</v>
+        <v>101.9106827429698</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,7 +23779,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>52.02582218557539</v>
+        <v>9.293457606070874</v>
       </c>
       <c r="S17" t="n">
         <v>173.5260039260038</v>
@@ -23788,7 +23788,7 @@
         <v>167.7620061569369</v>
       </c>
       <c r="U17" t="n">
-        <v>208.4886794307865</v>
+        <v>251.2210440102909</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23816,13 +23816,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>98.92966527001511</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>96.55381209876023</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
         <v>136.5101216886474</v>
@@ -23870,13 +23870,13 @@
         <v>183.154188851828</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>184.2851868548016</v>
       </c>
       <c r="W18" t="n">
-        <v>203.179582866296</v>
+        <v>203.1795828662959</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>157.2575849088538</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>131.3165798873137</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23901,10 +23901,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>96.9056477283076</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>124.5599240086489</v>
+        <v>167.2922885881534</v>
       </c>
       <c r="H19" t="n">
         <v>156.0151763859972</v>
@@ -23943,16 +23943,16 @@
         <v>211.8403234308322</v>
       </c>
       <c r="T19" t="n">
-        <v>224.9602743187949</v>
+        <v>182.2279097392904</v>
       </c>
       <c r="U19" t="n">
         <v>237.7655186562142</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>203.6222430292043</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>238.0075980419673</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23986,7 +23986,7 @@
         <v>413.7451262958156</v>
       </c>
       <c r="H20" t="n">
-        <v>323.522916215912</v>
+        <v>280.7905516364075</v>
       </c>
       <c r="I20" t="n">
         <v>150.4260830375935</v>
@@ -24016,25 +24016,25 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>52.02582218557539</v>
+        <v>3.510421890951719</v>
       </c>
       <c r="S20" t="n">
-        <v>130.7936393464992</v>
+        <v>125.0106036313801</v>
       </c>
       <c r="T20" t="n">
-        <v>216.2774064515606</v>
+        <v>167.7620061569369</v>
       </c>
       <c r="U20" t="n">
-        <v>202.7056437156673</v>
+        <v>251.2210440102909</v>
       </c>
       <c r="V20" t="n">
-        <v>279.2368581755113</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>321.2157003838454</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24047,10 +24047,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>118.0177833552437</v>
       </c>
       <c r="C21" t="n">
-        <v>124.1930986936921</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -24059,7 +24059,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>96.5538120987602</v>
       </c>
       <c r="G21" t="n">
         <v>136.5101216886474</v>
@@ -24104,7 +24104,7 @@
         <v>196.8055600934023</v>
       </c>
       <c r="U21" t="n">
-        <v>177.3711531367088</v>
+        <v>225.8865534313325</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -24129,10 +24129,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>118.7314208040042</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>100.1000727235887</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24174,7 +24174,7 @@
         <v>27.65621884003237</v>
       </c>
       <c r="R22" t="n">
-        <v>145.8777136505296</v>
+        <v>103.1453490710251</v>
       </c>
       <c r="S22" t="n">
         <v>211.8403234308322</v>
@@ -24183,19 +24183,19 @@
         <v>224.9602743187949</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2809189508379</v>
+        <v>237.7655186562142</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>203.6222430292043</v>
       </c>
       <c r="W22" t="n">
-        <v>243.7906337570865</v>
+        <v>238.0075980419673</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>170.0692530574711</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24205,10 +24205,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>313.7044695963876</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>296.2435197039147</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -24217,16 +24217,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>337.8466736746185</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>344.7157542287227</v>
+        <v>413.7451262958156</v>
       </c>
       <c r="H23" t="n">
         <v>323.522916215912</v>
       </c>
       <c r="I23" t="n">
-        <v>150.4260830375935</v>
+        <v>81.39671097050058</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,7 +24253,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>52.02582218557539</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>173.5260039260038</v>
@@ -24262,16 +24262,16 @@
         <v>216.2774064515606</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2210440102909</v>
+        <v>242.4457952791709</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>258.722886403042</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>308.9300297617737</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24296,13 +24296,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>132.682351340222</v>
+        <v>76.03984032629097</v>
       </c>
       <c r="G24" t="n">
-        <v>136.5101216886474</v>
+        <v>67.48074962155451</v>
       </c>
       <c r="H24" t="n">
-        <v>104.1865984690043</v>
+        <v>91.79973741584243</v>
       </c>
       <c r="I24" t="n">
         <v>60.7029728719357</v>
@@ -24341,10 +24341,10 @@
         <v>196.8055600934023</v>
       </c>
       <c r="U24" t="n">
-        <v>156.8571813642396</v>
+        <v>225.8865534313325</v>
       </c>
       <c r="V24" t="n">
-        <v>163.7712150823324</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>182.6656110938267</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>110.8026081148444</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24375,7 +24375,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>84.61997710623584</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>167.2922885881534</v>
@@ -24417,22 +24417,22 @@
         <v>142.8109513637393</v>
       </c>
       <c r="T25" t="n">
-        <v>155.930902251702</v>
+        <v>224.9602743187949</v>
       </c>
       <c r="U25" t="n">
         <v>286.2809189508379</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>191.3365724071326</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>217.4936262694981</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>149.5552812850019</v>
       </c>
     </row>
     <row r="26">
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>321.9327707467852</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24490,10 +24490,10 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>52.02582218557539</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>104.4966318589109</v>
+        <v>173.5260039260038</v>
       </c>
       <c r="T26" t="n">
         <v>216.2774064515606</v>
@@ -24502,7 +24502,7 @@
         <v>251.2210440102909</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>258.722886403042</v>
       </c>
       <c r="W26" t="n">
         <v>280.2115966503201</v>
@@ -24511,7 +24511,7 @@
         <v>300.7017286113761</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>377.4626899249336</v>
       </c>
     </row>
     <row r="27">
@@ -24521,13 +24521,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>97.50381158277443</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>103.6791269212228</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>78.41569349754585</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
@@ -24536,7 +24536,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>75.70905077195201</v>
+        <v>136.5101216886474</v>
       </c>
       <c r="H27" t="n">
         <v>104.1865984690043</v>
@@ -24575,19 +24575,19 @@
         <v>156.2032156881569</v>
       </c>
       <c r="T27" t="n">
-        <v>127.7761880263094</v>
+        <v>196.8055600934023</v>
       </c>
       <c r="U27" t="n">
         <v>225.8865534313325</v>
       </c>
       <c r="V27" t="n">
-        <v>163.7712150823324</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>182.6656110938267</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>144.9719142867821</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -24606,16 +24606,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>79.58610095111945</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>84.61997710623584</v>
       </c>
       <c r="G28" t="n">
-        <v>167.2922885881534</v>
+        <v>98.26291652106048</v>
       </c>
       <c r="H28" t="n">
         <v>156.0151763859972</v>
@@ -24651,7 +24651,7 @@
         <v>145.8777136505296</v>
       </c>
       <c r="S28" t="n">
-        <v>151.0392525141368</v>
+        <v>211.8403234308322</v>
       </c>
       <c r="T28" t="n">
         <v>224.9602743187949</v>
@@ -24660,7 +24660,7 @@
         <v>286.2809189508379</v>
       </c>
       <c r="V28" t="n">
-        <v>183.1082712567351</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24669,7 +24669,7 @@
         <v>156.6802833219442</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>149.5552812850019</v>
       </c>
     </row>
     <row r="29">
@@ -24679,10 +24679,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>313.7044695963876</v>
       </c>
       <c r="C29" t="n">
-        <v>356.4976430398875</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -24694,7 +24694,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>344.7157542287227</v>
+        <v>413.7451262958156</v>
       </c>
       <c r="H29" t="n">
         <v>323.522916215912</v>
@@ -24727,28 +24727,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>52.02582218557539</v>
       </c>
       <c r="S29" t="n">
-        <v>173.5260039260038</v>
+        <v>104.4966318589109</v>
       </c>
       <c r="T29" t="n">
-        <v>147.2480343844676</v>
+        <v>216.2774064515606</v>
       </c>
       <c r="U29" t="n">
-        <v>182.191671943198</v>
+        <v>251.2210440102909</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>280.2115966503201</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>325.4368677393582</v>
       </c>
     </row>
     <row r="30">
@@ -24773,7 +24773,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>124.1232606354856</v>
+        <v>136.5101216886474</v>
       </c>
       <c r="H30" t="n">
         <v>104.1865984690043</v>
@@ -24809,10 +24809,10 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>87.17384362106401</v>
+        <v>156.2032156881569</v>
       </c>
       <c r="T30" t="n">
-        <v>127.7761880263094</v>
+        <v>196.8055600934023</v>
       </c>
       <c r="U30" t="n">
         <v>225.8865534313325</v>
@@ -24821,13 +24821,13 @@
         <v>163.7712150823324</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>182.6656110938267</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>136.7436131363846</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>193.2958347241425</v>
       </c>
     </row>
     <row r="31">
@@ -24891,13 +24891,13 @@
         <v>211.8403234308322</v>
       </c>
       <c r="T31" t="n">
-        <v>164.1592034020995</v>
+        <v>224.9602743187949</v>
       </c>
       <c r="U31" t="n">
         <v>286.2809189508379</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>191.3365724071326</v>
       </c>
       <c r="W31" t="n">
         <v>217.4936262694981</v>
@@ -24931,13 +24931,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>344.7157542287227</v>
+        <v>404.9698775646956</v>
       </c>
       <c r="H32" t="n">
-        <v>254.4935441488191</v>
+        <v>323.522916215912</v>
       </c>
       <c r="I32" t="n">
-        <v>89.62501212089808</v>
+        <v>150.4260830375935</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,7 +24964,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>52.02582218557539</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>173.5260039260038</v>
@@ -24973,19 +24973,19 @@
         <v>216.2774064515606</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2210440102909</v>
+        <v>182.191671943198</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>258.722886403042</v>
       </c>
       <c r="W32" t="n">
-        <v>280.2115966503201</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>317.2085665889607</v>
       </c>
     </row>
     <row r="33">
@@ -25001,16 +25001,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>78.41569349754583</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>76.03984032629097</v>
+        <v>132.682351340222</v>
       </c>
       <c r="G33" t="n">
-        <v>67.48074962155451</v>
+        <v>136.5101216886474</v>
       </c>
       <c r="H33" t="n">
         <v>104.1865984690043</v>
@@ -25043,22 +25043,22 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>48.41420986353356</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>87.17384362106401</v>
+        <v>156.2032156881569</v>
       </c>
       <c r="T33" t="n">
-        <v>136.0044891767069</v>
+        <v>196.8055600934023</v>
       </c>
       <c r="U33" t="n">
-        <v>225.8865534313325</v>
+        <v>156.8571813642396</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>182.6656110938267</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
@@ -25089,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.2922885881534</v>
+        <v>98.26291652106046</v>
       </c>
       <c r="H34" t="n">
         <v>156.0151763859972</v>
@@ -25098,7 +25098,7 @@
         <v>134.438937943893</v>
       </c>
       <c r="J34" t="n">
-        <v>43.96174265608267</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>27.65621884003237</v>
       </c>
       <c r="R34" t="n">
-        <v>145.8777136505296</v>
+        <v>76.84834158343666</v>
       </c>
       <c r="S34" t="n">
-        <v>142.8109513637393</v>
+        <v>195.0009951702194</v>
       </c>
       <c r="T34" t="n">
-        <v>155.930902251702</v>
+        <v>224.9602743187949</v>
       </c>
       <c r="U34" t="n">
         <v>286.2809189508379</v>
@@ -25140,7 +25140,7 @@
         <v>217.4936262694981</v>
       </c>
       <c r="X34" t="n">
-        <v>164.9085844723417</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25201,7 +25201,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>52.02582218557539</v>
+        <v>9.293457606070902</v>
       </c>
       <c r="S35" t="n">
         <v>173.5260039260038</v>
@@ -25210,19 +25210,19 @@
         <v>216.2774064515606</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2210440102909</v>
+        <v>202.7056437156673</v>
       </c>
       <c r="V35" t="n">
-        <v>285.0198938906304</v>
+        <v>279.2368581755113</v>
       </c>
       <c r="W35" t="n">
         <v>300.7255684227894</v>
       </c>
       <c r="X35" t="n">
-        <v>321.2157003838454</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>337.7225383614299</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25286,16 +25286,16 @@
         <v>107.6878153935333</v>
       </c>
       <c r="T36" t="n">
-        <v>196.8055600934023</v>
+        <v>148.2901597987787</v>
       </c>
       <c r="U36" t="n">
-        <v>183.0529984207379</v>
+        <v>225.8865534313325</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>203.179582866296</v>
+        <v>208.861428150325</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
@@ -25311,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>131.3165798873137</v>
       </c>
       <c r="C37" t="n">
         <v>118.7314208040042</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>105.8831084387079</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>96.9056477283076</v>
       </c>
       <c r="G37" t="n">
-        <v>118.7768882935297</v>
+        <v>167.2922885881534</v>
       </c>
       <c r="H37" t="n">
-        <v>107.4997760913736</v>
+        <v>156.0151763859972</v>
       </c>
       <c r="I37" t="n">
         <v>134.438937943893</v>
@@ -25362,7 +25362,7 @@
         <v>145.8777136505296</v>
       </c>
       <c r="S37" t="n">
-        <v>169.1079588513277</v>
+        <v>211.8403234308322</v>
       </c>
       <c r="T37" t="n">
         <v>224.9602743187949</v>
@@ -25396,19 +25396,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>306.1676413260593</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>339.1980054927573</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>364.143681162207</v>
       </c>
       <c r="G38" t="n">
         <v>413.7451262958156</v>
       </c>
       <c r="H38" t="n">
-        <v>323.522916215912</v>
+        <v>275.0075159212884</v>
       </c>
       <c r="I38" t="n">
         <v>150.4260830375935</v>
@@ -25438,7 +25438,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>52.02582218557539</v>
+        <v>3.510421890951747</v>
       </c>
       <c r="S38" t="n">
         <v>173.5260039260038</v>
@@ -25459,7 +25459,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>337.7225383614299</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25517,10 +25517,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>48.41420986353356</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>107.6878153935333</v>
+        <v>113.3696606775623</v>
       </c>
       <c r="T39" t="n">
         <v>148.2901597987787</v>
@@ -25529,10 +25529,10 @@
         <v>225.8865534313325</v>
       </c>
       <c r="V39" t="n">
-        <v>184.2851868548016</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>208.9626185814151</v>
+        <v>203.179582866296</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
@@ -25557,10 +25557,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>103.7015980670647</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>96.9056477283076</v>
       </c>
       <c r="G40" t="n">
         <v>118.7768882935297</v>
@@ -25608,10 +25608,10 @@
         <v>237.7655186562142</v>
       </c>
       <c r="V40" t="n">
-        <v>209.4052787443235</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>238.0075980419674</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25754,22 +25754,22 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>48.41420986353356</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>107.6878153935333</v>
       </c>
       <c r="T42" t="n">
-        <v>148.2901597987787</v>
+        <v>196.8055600934023</v>
       </c>
       <c r="U42" t="n">
-        <v>225.8865534313325</v>
+        <v>177.3711531367089</v>
       </c>
       <c r="V42" t="n">
-        <v>184.2851868548016</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>208.9626185814151</v>
+        <v>208.861428150325</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
@@ -25842,16 +25842,16 @@
         <v>176.4448740241712</v>
       </c>
       <c r="U43" t="n">
-        <v>237.7655186562142</v>
+        <v>286.2809189508379</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>243.7906337570865</v>
+        <v>238.0075980419674</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>182.9772908095327</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25876,7 +25876,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>358.3606454470878</v>
       </c>
       <c r="G44" t="n">
         <v>413.7451262958156</v>
@@ -25912,28 +25912,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>52.02582218557539</v>
+        <v>9.293457606070902</v>
       </c>
       <c r="S44" t="n">
-        <v>125.0106036313801</v>
+        <v>173.5260039260038</v>
       </c>
       <c r="T44" t="n">
         <v>216.2774064515606</v>
       </c>
       <c r="U44" t="n">
-        <v>202.7056437156673</v>
+        <v>251.2210440102909</v>
       </c>
       <c r="V44" t="n">
         <v>279.2368581755113</v>
       </c>
       <c r="W44" t="n">
-        <v>306.5086041379085</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>337.7225383614299</v>
       </c>
     </row>
     <row r="45">
@@ -26031,16 +26031,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>97.91856235194552</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>96.9056477283076</v>
       </c>
       <c r="G46" t="n">
-        <v>124.5599240086489</v>
+        <v>167.2922885881534</v>
       </c>
       <c r="H46" t="n">
-        <v>107.4997760913736</v>
+        <v>156.0151763859972</v>
       </c>
       <c r="I46" t="n">
         <v>134.438937943893</v>
@@ -26079,19 +26079,19 @@
         <v>224.9602743187949</v>
       </c>
       <c r="U46" t="n">
-        <v>237.7655186562142</v>
+        <v>286.2809189508379</v>
       </c>
       <c r="V46" t="n">
-        <v>203.6222430292044</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>182.9772908095327</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>170.0692530574711</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>292443.2385250722</v>
+        <v>292443.2385250723</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>292443.2385250723</v>
+        <v>292443.2385250721</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>292443.2385250723</v>
+        <v>292443.2385250722</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>308974.8706999091</v>
+        <v>308974.870699909</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>308974.8706999091</v>
+        <v>308974.870699909</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>308974.8706999091</v>
+        <v>308974.870699909</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>292443.2385250723</v>
+        <v>292443.2385250722</v>
       </c>
     </row>
     <row r="16">
@@ -26313,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>614457.2540377786</v>
+      </c>
+      <c r="C2" t="n">
+        <v>614457.2540377786</v>
+      </c>
+      <c r="D2" t="n">
         <v>614457.2540377789</v>
       </c>
-      <c r="C2" t="n">
-        <v>614457.2540377788</v>
-      </c>
-      <c r="D2" t="n">
-        <v>614457.2540377787</v>
-      </c>
       <c r="E2" t="n">
-        <v>203391.1621835684</v>
+        <v>203391.1621835685</v>
       </c>
       <c r="F2" t="n">
         <v>203391.1621835684</v>
       </c>
       <c r="G2" t="n">
+        <v>203391.1621835684</v>
+      </c>
+      <c r="H2" t="n">
         <v>203391.1621835685</v>
       </c>
-      <c r="H2" t="n">
-        <v>203391.1621835684</v>
-      </c>
       <c r="I2" t="n">
-        <v>212108.5252547472</v>
+        <v>212108.5252547471</v>
       </c>
       <c r="J2" t="n">
-        <v>212108.5252547472</v>
+        <v>212108.5252547471</v>
       </c>
       <c r="K2" t="n">
         <v>212108.5252547472</v>
@@ -26352,7 +26352,7 @@
         <v>203391.1621835684</v>
       </c>
       <c r="O2" t="n">
-        <v>203391.1621835684</v>
+        <v>203391.1621835685</v>
       </c>
       <c r="P2" t="n">
         <v>203391.1621835685</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>5455.095887706805</v>
+        <v>5455.095887706791</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>6978.067993434963</v>
+        <v>6978.067993434965</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26435,7 +26435,7 @@
         <v>21297.09248318765</v>
       </c>
       <c r="H4" t="n">
-        <v>21297.09248318765</v>
+        <v>21297.09248318766</v>
       </c>
       <c r="I4" t="n">
         <v>26223.36261815732</v>
@@ -26447,7 +26447,7 @@
         <v>26223.36261815732</v>
       </c>
       <c r="L4" t="n">
-        <v>26223.36261815732</v>
+        <v>26223.36261815733</v>
       </c>
       <c r="M4" t="n">
         <v>21297.09248318765</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>117634.787156988</v>
+        <v>117674.5093578007</v>
       </c>
       <c r="C6" t="n">
-        <v>117634.7871569879</v>
+        <v>117674.5093578007</v>
       </c>
       <c r="D6" t="n">
-        <v>117634.7871569878</v>
+        <v>117674.5093578011</v>
       </c>
       <c r="E6" t="n">
-        <v>-168817.3176074319</v>
+        <v>-156445.6126509925</v>
       </c>
       <c r="F6" t="n">
-        <v>156951.4582824151</v>
+        <v>169323.1632388544</v>
       </c>
       <c r="G6" t="n">
-        <v>156951.4582824151</v>
+        <v>169323.1632388544</v>
       </c>
       <c r="H6" t="n">
-        <v>156951.4582824151</v>
+        <v>169323.1632388544</v>
       </c>
       <c r="I6" t="n">
-        <v>154330.7846161905</v>
+        <v>166440.9686804945</v>
       </c>
       <c r="J6" t="n">
-        <v>159785.8805038974</v>
+        <v>171896.0645682013</v>
       </c>
       <c r="K6" t="n">
-        <v>159785.8805038973</v>
+        <v>171896.0645682013</v>
       </c>
       <c r="L6" t="n">
-        <v>159785.8805038973</v>
+        <v>171896.0645682012</v>
       </c>
       <c r="M6" t="n">
-        <v>149973.3902889802</v>
+        <v>162345.0952454195</v>
       </c>
       <c r="N6" t="n">
-        <v>156951.4582824151</v>
+        <v>169323.1632388544</v>
       </c>
       <c r="O6" t="n">
-        <v>156951.4582824151</v>
+        <v>169323.1632388544</v>
       </c>
       <c r="P6" t="n">
-        <v>156951.4582824151</v>
+        <v>169323.1632388545</v>
       </c>
     </row>
   </sheetData>
@@ -26798,13 +26798,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>48.51540029462364</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="F4" t="n">
-        <v>48.51540029462364</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="G4" t="n">
-        <v>48.51540029462364</v>
+        <v>48.51540029462367</v>
       </c>
       <c r="H4" t="n">
         <v>48.51540029462367</v>
@@ -26819,7 +26819,7 @@
         <v>69.02937206709291</v>
       </c>
       <c r="L4" t="n">
-        <v>69.02937206709291</v>
+        <v>69.02937206709292</v>
       </c>
       <c r="M4" t="n">
         <v>48.51540029462365</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>48.51540029462364</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>20.51397177246929</v>
+        <v>20.51397177246923</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>28.00142852215439</v>
+        <v>28.0014285221544</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>48.51540029462364</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31852,13 +31852,13 @@
         <v>190.649434216642</v>
       </c>
       <c r="N12" t="n">
-        <v>179.857112377957</v>
+        <v>158.8462784283878</v>
       </c>
       <c r="O12" t="n">
         <v>191.1116447390681</v>
       </c>
       <c r="P12" t="n">
-        <v>138.1311492589114</v>
+        <v>159.1419832084806</v>
       </c>
       <c r="Q12" t="n">
         <v>106.3822012793335</v>
@@ -32089,13 +32089,13 @@
         <v>190.649434216642</v>
       </c>
       <c r="N15" t="n">
-        <v>158.8462784283878</v>
+        <v>179.857112377957</v>
       </c>
       <c r="O15" t="n">
         <v>191.1116447390681</v>
       </c>
       <c r="P15" t="n">
-        <v>159.1419832084806</v>
+        <v>138.1311492589115</v>
       </c>
       <c r="Q15" t="n">
         <v>106.3822012793335</v>
@@ -32323,13 +32323,13 @@
         <v>180.9528200361945</v>
       </c>
       <c r="M18" t="n">
-        <v>190.649434216642</v>
+        <v>169.6386002670729</v>
       </c>
       <c r="N18" t="n">
         <v>179.857112377957</v>
       </c>
       <c r="O18" t="n">
-        <v>170.1008107894989</v>
+        <v>191.1116447390681</v>
       </c>
       <c r="P18" t="n">
         <v>159.1419832084806</v>
@@ -32563,10 +32563,10 @@
         <v>190.649434216642</v>
       </c>
       <c r="N21" t="n">
-        <v>158.8462784283878</v>
+        <v>179.857112377957</v>
       </c>
       <c r="O21" t="n">
-        <v>191.1116447390681</v>
+        <v>170.100810789499</v>
       </c>
       <c r="P21" t="n">
         <v>159.1419832084806</v>
@@ -33745,7 +33745,7 @@
         <v>180.9528200361945</v>
       </c>
       <c r="M36" t="n">
-        <v>190.649434216642</v>
+        <v>169.6386002670728</v>
       </c>
       <c r="N36" t="n">
         <v>179.857112377957</v>
@@ -33754,7 +33754,7 @@
         <v>191.1116447390681</v>
       </c>
       <c r="P36" t="n">
-        <v>138.1311492589115</v>
+        <v>159.1419832084806</v>
       </c>
       <c r="Q36" t="n">
         <v>106.3822012793335</v>
@@ -33982,13 +33982,13 @@
         <v>180.9528200361945</v>
       </c>
       <c r="M39" t="n">
-        <v>190.649434216642</v>
+        <v>169.6386002670728</v>
       </c>
       <c r="N39" t="n">
         <v>179.857112377957</v>
       </c>
       <c r="O39" t="n">
-        <v>170.1008107894989</v>
+        <v>191.1116447390681</v>
       </c>
       <c r="P39" t="n">
         <v>159.1419832084806</v>
@@ -34225,10 +34225,10 @@
         <v>179.857112377957</v>
       </c>
       <c r="O42" t="n">
-        <v>191.1116447390681</v>
+        <v>170.1008107894989</v>
       </c>
       <c r="P42" t="n">
-        <v>138.1311492589115</v>
+        <v>159.1419832084806</v>
       </c>
       <c r="Q42" t="n">
         <v>106.3822012793335</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>48.51540029462364</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>10.03631752276405</v>
+        <v>19.57215870105447</v>
       </c>
       <c r="M11" t="n">
         <v>43.15666778705045</v>
       </c>
       <c r="N11" t="n">
-        <v>48.51540029462364</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="O11" t="n">
-        <v>41.87759708571063</v>
+        <v>32.34175590742021</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35497,16 +35497,16 @@
         <v>42.39844025632027</v>
       </c>
       <c r="M12" t="n">
-        <v>48.51540029462364</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="N12" t="n">
-        <v>48.51540029462364</v>
+        <v>27.50456634505447</v>
       </c>
       <c r="O12" t="n">
-        <v>48.51540029462364</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="P12" t="n">
-        <v>4.156741844581195</v>
+        <v>25.16757579415039</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35570,22 +35570,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>48.51540029462364</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>46.55518210090149</v>
       </c>
       <c r="N13" t="n">
-        <v>48.51540029462364</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>46.55518210090148</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="P13" t="n">
-        <v>48.51540029462364</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35652,16 +35652,16 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>48.51540029462364</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="M14" t="n">
-        <v>46.55518210090148</v>
+        <v>46.5551821009015</v>
       </c>
       <c r="N14" t="n">
         <v>48.51540029462365</v>
       </c>
       <c r="O14" t="n">
-        <v>48.51540029462364</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -35734,16 +35734,16 @@
         <v>42.39844025632027</v>
       </c>
       <c r="M15" t="n">
-        <v>48.51540029462364</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="N15" t="n">
-        <v>27.50456634505445</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="O15" t="n">
-        <v>48.51540029462364</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="P15" t="n">
-        <v>25.16757579415039</v>
+        <v>4.156741844581223</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35807,22 +35807,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>48.51540029462364</v>
+        <v>46.5551821009015</v>
       </c>
       <c r="L16" t="n">
-        <v>46.55518210090148</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="M16" t="n">
-        <v>48.51540029462364</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>48.51540029462364</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35889,16 +35889,16 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>48.51540029462364</v>
+        <v>48.51540029462367</v>
       </c>
       <c r="M17" t="n">
-        <v>48.51540029462364</v>
+        <v>46.55518210090153</v>
       </c>
       <c r="N17" t="n">
-        <v>48.51540029462364</v>
+        <v>48.51540029462367</v>
       </c>
       <c r="O17" t="n">
-        <v>46.55518210090149</v>
+        <v>48.51540029462367</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -35971,13 +35971,13 @@
         <v>42.39844025632027</v>
       </c>
       <c r="M18" t="n">
-        <v>48.51540029462364</v>
+        <v>27.50456634505454</v>
       </c>
       <c r="N18" t="n">
-        <v>48.51540029462364</v>
+        <v>48.51540029462367</v>
       </c>
       <c r="O18" t="n">
-        <v>27.50456634505445</v>
+        <v>48.51540029462367</v>
       </c>
       <c r="P18" t="n">
         <v>25.16757579415039</v>
@@ -36044,22 +36044,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>48.51540029462364</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>48.51540029462364</v>
+        <v>48.51540029462367</v>
       </c>
       <c r="M19" t="n">
-        <v>48.51540029462364</v>
+        <v>48.51540029462367</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>48.51540029462367</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>46.55518210090152</v>
       </c>
       <c r="P19" t="n">
-        <v>46.55518210090149</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36123,10 +36123,10 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>19.57215870105455</v>
       </c>
       <c r="L20" t="n">
-        <v>10.03631752276405</v>
+        <v>48.51540029462367</v>
       </c>
       <c r="M20" t="n">
         <v>43.15666778705045</v>
@@ -36138,10 +36138,10 @@
         <v>32.34175590742021</v>
       </c>
       <c r="P20" t="n">
-        <v>48.51540029462367</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.535841178290461</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36211,10 +36211,10 @@
         <v>48.51540029462367</v>
       </c>
       <c r="N21" t="n">
-        <v>27.5045663450545</v>
+        <v>48.51540029462367</v>
       </c>
       <c r="O21" t="n">
-        <v>48.51540029462367</v>
+        <v>27.50456634505453</v>
       </c>
       <c r="P21" t="n">
         <v>25.16757579415039</v>
@@ -36287,16 +36287,16 @@
         <v>48.51540029462367</v>
       </c>
       <c r="M22" t="n">
-        <v>46.5551821009015</v>
+        <v>46.55518210090152</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>48.51540029462367</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>48.51540029462367</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36357,28 +36357,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>44.3762048713136</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>69.02937206709291</v>
       </c>
       <c r="L23" t="n">
         <v>10.03631752276405</v>
       </c>
       <c r="M23" t="n">
-        <v>43.15666778705045</v>
+        <v>69.02937206709291</v>
       </c>
       <c r="N23" t="n">
         <v>48.51540029462365</v>
       </c>
       <c r="O23" t="n">
-        <v>33.56129299168336</v>
+        <v>32.34175590742021</v>
       </c>
       <c r="P23" t="n">
-        <v>69.02937206709291</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>69.02937206709291</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>12.01392318030959</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -36454,7 +36454,7 @@
         <v>55.68973936534124</v>
       </c>
       <c r="P24" t="n">
-        <v>25.16757579415039</v>
+        <v>37.18149897445998</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36518,22 +36518,22 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>58.90567221505084</v>
       </c>
       <c r="L25" t="n">
         <v>69.02937206709291</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>69.02937206709291</v>
       </c>
       <c r="N25" t="n">
-        <v>66.2403065290286</v>
+        <v>69.02937206709291</v>
       </c>
       <c r="O25" t="n">
-        <v>69.02937206709291</v>
+        <v>7.334634313977776</v>
       </c>
       <c r="P25" t="n">
-        <v>69.02937206709291</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36594,22 +36594,22 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>69.02937206709291</v>
       </c>
       <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>10.03631752276405</v>
+      </c>
+      <c r="M26" t="n">
         <v>69.02937206709291</v>
       </c>
-      <c r="L26" t="n">
+      <c r="N26" t="n">
         <v>69.02937206709291</v>
       </c>
-      <c r="M26" t="n">
-        <v>43.15666778705045</v>
-      </c>
-      <c r="N26" t="n">
-        <v>59.77125490165082</v>
-      </c>
       <c r="O26" t="n">
-        <v>32.34175590742021</v>
+        <v>56.20398900626453</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>12.01392318030959</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -36688,7 +36688,7 @@
         <v>69.02937206709291</v>
       </c>
       <c r="O27" t="n">
-        <v>55.68973936534124</v>
+        <v>67.70366254565081</v>
       </c>
       <c r="P27" t="n">
         <v>25.16757579415039</v>
@@ -36758,19 +36758,19 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>69.02937206709291</v>
       </c>
       <c r="M28" t="n">
-        <v>66.2403065290286</v>
+        <v>69.02937206709291</v>
       </c>
       <c r="N28" t="n">
         <v>69.02937206709291</v>
       </c>
       <c r="O28" t="n">
-        <v>69.02937206709291</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>69.02937206709291</v>
+        <v>66.24030652902856</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36834,22 +36834,22 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>66.2403065290286</v>
+      </c>
+      <c r="M29" t="n">
         <v>69.02937206709291</v>
       </c>
-      <c r="L29" t="n">
-        <v>11.2558546070272</v>
-      </c>
-      <c r="M29" t="n">
-        <v>43.15666778705045</v>
-      </c>
       <c r="N29" t="n">
-        <v>48.51540029462365</v>
+        <v>69.02937206709291</v>
       </c>
       <c r="O29" t="n">
-        <v>32.34175590742021</v>
+        <v>69.02937206709291</v>
       </c>
       <c r="P29" t="n">
-        <v>69.02937206709291</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>12.01392318030959</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -36931,7 +36931,7 @@
         <v>25.16757579415039</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>12.01392318030959</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36992,7 +36992,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>58.90567221505084</v>
       </c>
       <c r="L31" t="n">
         <v>69.02937206709291</v>
@@ -37001,13 +37001,13 @@
         <v>69.02937206709291</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>69.02937206709291</v>
       </c>
       <c r="O31" t="n">
-        <v>66.24030652902859</v>
+        <v>7.334634313977776</v>
       </c>
       <c r="P31" t="n">
-        <v>69.02937206709291</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37074,19 +37074,19 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>69.02937206709291</v>
+        <v>10.03631752276405</v>
       </c>
       <c r="M32" t="n">
-        <v>69.02937206709291</v>
+        <v>56.20398900626453</v>
       </c>
       <c r="N32" t="n">
-        <v>69.02937206709291</v>
+        <v>69.02937206709292</v>
       </c>
       <c r="O32" t="n">
-        <v>66.24030652902856</v>
+        <v>69.02937206709292</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>69.02937206709292</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37147,19 +37147,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>12.01392318030959</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>42.39844025632027</v>
+        <v>54.41236343662989</v>
       </c>
       <c r="M33" t="n">
-        <v>69.02937206709291</v>
+        <v>69.02937206709292</v>
       </c>
       <c r="N33" t="n">
-        <v>69.02937206709291</v>
+        <v>69.02937206709292</v>
       </c>
       <c r="O33" t="n">
         <v>55.68973936534124</v>
@@ -37232,19 +37232,19 @@
         <v>58.90567221505084</v>
       </c>
       <c r="L34" t="n">
-        <v>69.02937206709291</v>
+        <v>69.02937206709292</v>
       </c>
       <c r="M34" t="n">
-        <v>69.02937206709291</v>
+        <v>69.02937206709292</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>69.02937206709292</v>
       </c>
       <c r="O34" t="n">
-        <v>7.334634313977776</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>69.02937206709291</v>
+        <v>7.334634313977718</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37308,19 +37308,19 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
         <v>48.51540029462365</v>
       </c>
-      <c r="L35" t="n">
-        <v>19.57215870105449</v>
-      </c>
       <c r="M35" t="n">
-        <v>43.15666778705045</v>
+        <v>46.5551821009015</v>
       </c>
       <c r="N35" t="n">
         <v>48.51540029462365</v>
       </c>
       <c r="O35" t="n">
-        <v>32.34175590742021</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -37393,7 +37393,7 @@
         <v>42.39844025632027</v>
       </c>
       <c r="M36" t="n">
-        <v>48.51540029462365</v>
+        <v>27.50456634505448</v>
       </c>
       <c r="N36" t="n">
         <v>48.51540029462365</v>
@@ -37402,7 +37402,7 @@
         <v>48.51540029462365</v>
       </c>
       <c r="P36" t="n">
-        <v>4.156741844581223</v>
+        <v>25.16757579415039</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37466,22 +37466,22 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
         <v>48.51540029462365</v>
       </c>
-      <c r="M37" t="n">
+      <c r="O37" t="n">
         <v>48.51540029462365</v>
       </c>
-      <c r="N37" t="n">
+      <c r="P37" t="n">
         <v>46.55518210090149</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>48.51540029462365</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37630,13 +37630,13 @@
         <v>42.39844025632027</v>
       </c>
       <c r="M39" t="n">
-        <v>48.51540029462365</v>
+        <v>27.50456634505448</v>
       </c>
       <c r="N39" t="n">
         <v>48.51540029462365</v>
       </c>
       <c r="O39" t="n">
-        <v>27.50456634505447</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="P39" t="n">
         <v>25.16757579415039</v>
@@ -37709,16 +37709,16 @@
         <v>48.51540029462365</v>
       </c>
       <c r="M40" t="n">
+        <v>48.51540029462365</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
         <v>46.55518210090149</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>48.51540029462365</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37873,10 +37873,10 @@
         <v>48.51540029462365</v>
       </c>
       <c r="O42" t="n">
-        <v>48.51540029462365</v>
+        <v>27.50456634505447</v>
       </c>
       <c r="P42" t="n">
-        <v>4.156741844581223</v>
+        <v>25.16757579415039</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37940,7 +37940,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="L43" t="n">
         <v>48.51540029462365</v>
@@ -37949,13 +37949,13 @@
         <v>48.51540029462365</v>
       </c>
       <c r="N43" t="n">
-        <v>48.51540029462365</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
         <v>46.55518210090149</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>36.51886457813745</v>
       </c>
       <c r="L44" t="n">
+        <v>10.03631752276405</v>
+      </c>
+      <c r="M44" t="n">
         <v>48.51540029462365</v>
-      </c>
-      <c r="M44" t="n">
-        <v>46.5551821009015</v>
       </c>
       <c r="N44" t="n">
         <v>48.51540029462365</v>
@@ -38177,7 +38177,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="L46" t="n">
         <v>48.51540029462365</v>
@@ -38186,13 +38186,13 @@
         <v>48.51540029462365</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>46.55518210090149</v>
       </c>
       <c r="O46" t="n">
-        <v>46.55518210090149</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>48.51540029462365</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
